--- a/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0009483534221364704</v>
+        <v>0.0009445236536463978</v>
       </c>
       <c r="F2">
         <v>0.5544914643283569</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.002339311991592749</v>
+        <v>0.002291213658635639</v>
       </c>
       <c r="F3">
         <v>0.5498207111689344</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.001527565221736732</v>
+        <v>0.001525559387765866</v>
       </c>
       <c r="F4">
         <v>0.5498403802745347</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.001710629763455814</v>
+        <v>0.001613222062089176</v>
       </c>
       <c r="F5">
         <v>0.5153725797574925</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6">
-        <v>0.001734283245594065</v>
+        <v>0.001729082465001621</v>
       </c>
       <c r="F6">
         <v>0.5486855632877258</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.0009483534221364704</v>
+        <v>0.0009445236536463978</v>
       </c>
       <c r="F2">
         <v>0.7076668960211737</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>0.002339311991592749</v>
+        <v>0.002291213658635639</v>
       </c>
       <c r="F3">
         <v>0.7094206709228166</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001527565221736732</v>
+        <v>0.001525559387765866</v>
       </c>
       <c r="F4">
         <v>0.7131289204177811</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.001710629763455814</v>
+        <v>0.001613222062089176</v>
       </c>
       <c r="F5">
         <v>0.7040531084518137</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.001734283245594065</v>
+        <v>0.001729082465001621</v>
       </c>
       <c r="F6">
         <v>0.7025356803129321</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0009483534221364704</v>
+        <v>0.0009445236536463978</v>
       </c>
       <c r="F2">
         <v>0.8089407681678149</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.002339311991592749</v>
+        <v>0.002291213658635639</v>
       </c>
       <c r="F3">
         <v>0.8034056011530244</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.001527565221736732</v>
+        <v>0.001525559387765866</v>
       </c>
       <c r="F4">
         <v>0.807110345580708</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.001710629763455814</v>
+        <v>0.001613222062089176</v>
       </c>
       <c r="F5">
         <v>0.8026903856183254</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.001734283245594065</v>
+        <v>0.001729082465001621</v>
       </c>
       <c r="F6">
         <v>0.8008506907144947</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.0009483534221364704</v>
+        <v>0.0009445236536463978</v>
       </c>
       <c r="F2">
         <v>0.9069672184764914</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.002339311991592749</v>
+        <v>0.002291213658635639</v>
       </c>
       <c r="F3">
         <v>0.9083372580400613</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.001527565221736732</v>
+        <v>0.001525559387765866</v>
       </c>
       <c r="F4">
         <v>0.9034470095954255</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.001710629763455814</v>
+        <v>0.001613222062089176</v>
       </c>
       <c r="F5">
         <v>0.902481910009881</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.001734283245594065</v>
+        <v>0.001729082465001621</v>
       </c>
       <c r="F6">
         <v>0.9011331807450292</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>62</v>

--- a/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.475609866214376E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.593776650906075E-06</v>
+        <v>6.819535197716296E-06</v>
       </c>
       <c r="D2">
-        <v>1.192789290343725E-05</v>
+        <v>1.015471554376924E-05</v>
       </c>
       <c r="E2">
-        <v>1.089911282551584E-05</v>
+        <v>9.125607127501673E-06</v>
       </c>
       <c r="F2">
-        <v>1.331877400878476E-05</v>
+        <v>1.154604055312657E-05</v>
       </c>
       <c r="G2">
-        <v>2.858529516509494E-05</v>
+        <v>2.681743406691676E-05</v>
       </c>
       <c r="H2">
-        <v>2.003680251761874E-05</v>
+        <v>1.826621314155281E-05</v>
       </c>
       <c r="I2">
-        <v>1.300306298487231E-05</v>
+        <v>1.123022876906366E-05</v>
       </c>
       <c r="J2">
-        <v>8.091107612833137E-06</v>
+        <v>6.316705731263994E-06</v>
       </c>
       <c r="K2">
-        <v>6.562042097019325E-06</v>
+        <v>4.787152209458043E-06</v>
       </c>
       <c r="L2">
-        <v>3.561473969751605E-06</v>
+        <v>1.785626441585139E-06</v>
       </c>
       <c r="M2">
-        <v>3.399130557455461E-06</v>
+        <v>1.623231216886476E-06</v>
       </c>
       <c r="N2">
-        <v>6.621160501497046E-09</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.776417234548618E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.114950538897475E-08</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.540532692423917E-06</v>
+        <v>7.643593276887718E-07</v>
       </c>
       <c r="R2">
-        <v>8.280335627165563E-06</v>
+        <v>6.505994138302894E-06</v>
       </c>
       <c r="S2">
-        <v>1.246274994394816E-05</v>
+        <v>1.068974328556011E-05</v>
       </c>
       <c r="T2">
-        <v>1.470613211386543E-05</v>
+        <v>1.293384143784064E-05</v>
       </c>
       <c r="U2">
-        <v>1.749720932526599E-05</v>
+        <v>1.572580943017216E-05</v>
       </c>
       <c r="V2">
-        <v>1.786313535298179E-05</v>
+        <v>1.609185224431233E-05</v>
       </c>
       <c r="W2">
-        <v>2.072828656999282E-05</v>
+        <v>1.895791788320249E-05</v>
       </c>
       <c r="X2">
-        <v>3.012227228150798E-05</v>
+        <v>2.835490171433377E-05</v>
       </c>
       <c r="Y2">
-        <v>3.406456258010321E-05</v>
+        <v>3.229845020707998E-05</v>
       </c>
       <c r="Z2">
-        <v>2.152829963058706E-05</v>
+        <v>1.975818627044122E-05</v>
       </c>
       <c r="AA2">
-        <v>2.173066964591488E-05</v>
+        <v>1.996062087278581E-05</v>
       </c>
       <c r="AB2">
-        <v>2.553522993407823E-05</v>
+        <v>2.3766395398141E-05</v>
       </c>
       <c r="AC2">
-        <v>1.246274994394816E-05</v>
+        <v>1.068974328556011E-05</v>
       </c>
       <c r="AD2">
-        <v>3.687387879288521E-06</v>
+        <v>1.911580536936014E-06</v>
       </c>
       <c r="AE2">
-        <v>1.498271213481404E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.020352828766244E-07</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.433142308548438E-09</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.186709917107953E-07</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.787626011139151E-06</v>
+        <v>1.011531507001478E-06</v>
       </c>
       <c r="AJ2">
-        <v>5.910283147654084E-06</v>
+        <v>4.135185249206786E-06</v>
       </c>
       <c r="AK2">
-        <v>3.64406567600723E-06</v>
+        <v>1.868244507239454E-06</v>
       </c>
       <c r="AL2">
-        <v>8.340548131726153E-06</v>
+        <v>6.566225859870684E-06</v>
       </c>
       <c r="AM2">
-        <v>1.047240779319654E-05</v>
+        <v>8.698765910950563E-06</v>
       </c>
       <c r="AN2">
-        <v>1.888517643039278E-05</v>
+        <v>1.71142195092966E-05</v>
       </c>
       <c r="AO2">
-        <v>1.192789290343725E-05</v>
+        <v>1.015471554376924E-05</v>
       </c>
       <c r="AP2">
-        <v>8.721810660603573E-06</v>
+        <v>6.94761006986428E-06</v>
       </c>
       <c r="AQ2">
-        <v>7.603584075907343E-06</v>
+        <v>5.829026599692407E-06</v>
       </c>
       <c r="AR2">
-        <v>5.700603431772614E-06</v>
+        <v>3.925438613394992E-06</v>
       </c>
       <c r="AS2">
-        <v>5.804969439677459E-06</v>
+        <v>4.029837930034293E-06</v>
       </c>
       <c r="AT2">
-        <v>1.470702511393307E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.515055569202056E-10</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.494963688972449E-08</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.063524730553025E-08</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.057251780077902E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>9.272862702341115E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>7.075542535912651E-06</v>
+        <v>5.30081653360583E-06</v>
       </c>
       <c r="BA2">
-        <v>3.856396292089483E-06</v>
+        <v>2.080642889295036E-06</v>
       </c>
       <c r="BB2">
-        <v>5.556045020823535E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>8.858577970962543E-07</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>8.058411610356691E-07</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.223670471390529E-07</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>6.00160945457128E-08</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>4.052654706954402E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>2.417730683122701E-09</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.489697712832033E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2.897279219444457E-07</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.64406567600723E-06</v>
+        <v>1.868244507239454E-06</v>
       </c>
       <c r="BL2">
-        <v>7.484070166855172E-06</v>
+        <v>5.709474547406241E-06</v>
       </c>
       <c r="BM2">
-        <v>8.091107612833137E-06</v>
+        <v>6.316705731263994E-06</v>
       </c>
       <c r="BN2">
-        <v>3.727604082334559E-06</v>
+        <v>1.951809575107731E-06</v>
       </c>
       <c r="BO2">
-        <v>5.804969439677459E-06</v>
+        <v>4.029837930034293E-06</v>
       </c>
       <c r="BP2">
-        <v>1.162922188081544E-05</v>
+        <v>9.855949199366108E-06</v>
       </c>
       <c r="BQ2">
-        <v>6.786868514048029E-06</v>
+        <v>5.012050380533626E-06</v>
       </c>
       <c r="BR2">
-        <v>3.897521295204355E-06</v>
+        <v>2.121781017581942E-06</v>
       </c>
       <c r="BS2">
-        <v>9.475079717657348E-07</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.49064604012855E-08</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.195737790567049E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.604303872995609E-06</v>
+        <v>1.828470014125331E-06</v>
       </c>
       <c r="BW2">
-        <v>7.666105580642818E-06</v>
+        <v>5.891568058359635E-06</v>
       </c>
       <c r="BX2">
-        <v>1.324265700301954E-05</v>
+        <v>1.146989925438337E-05</v>
       </c>
       <c r="BY2">
-        <v>1.841912439509327E-05</v>
+        <v>1.66480187320475E-05</v>
       </c>
       <c r="BZ2">
-        <v>2.213825167678579E-05</v>
+        <v>2.036833298472341E-05</v>
       </c>
       <c r="CA2">
-        <v>3.381107256090348E-05</v>
+        <v>3.204487928575602E-05</v>
       </c>
       <c r="CB2">
-        <v>4.645162351831857E-05</v>
+        <v>4.468946451413424E-05</v>
       </c>
       <c r="CC2">
-        <v>4.353326529727756E-05</v>
+        <v>4.177017489003407E-05</v>
       </c>
       <c r="CD2">
-        <v>4.468924338483315E-05</v>
+        <v>4.292652191157428E-05</v>
       </c>
       <c r="CE2">
-        <v>4.468924338483315E-05</v>
+        <v>4.292652191157428E-05</v>
       </c>
       <c r="CF2">
-        <v>3.851879891747403E-05</v>
+        <v>3.675410812776464E-05</v>
       </c>
       <c r="CG2">
-        <v>3.824920989705494E-05</v>
+        <v>3.648443306717525E-05</v>
       </c>
       <c r="CH2">
-        <v>2.642234400126963E-05</v>
+        <v>2.465379259053275E-05</v>
       </c>
       <c r="CI2">
-        <v>1.624629223051956E-05</v>
+        <v>1.447449310136311E-05</v>
       </c>
       <c r="CJ2">
-        <v>9.579801725589157E-06</v>
+        <v>7.805874965353912E-06</v>
       </c>
       <c r="CK2">
-        <v>2.681139403073689E-06</v>
+        <v>9.05010913405454E-07</v>
       </c>
       <c r="CL2">
-        <v>1.148629086998962E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0002331005976554036</v>
+        <v>0.0002313980082490315</v>
       </c>
       <c r="CN2">
-        <v>0.1436152308776421</v>
+        <v>0.1436592891389113</v>
       </c>
       <c r="CO2">
-        <v>0.007269153550577052</v>
+        <v>0.007269696539248615</v>
       </c>
       <c r="CP2">
-        <v>0.2739229407473517</v>
+        <v>0.2740085871175547</v>
       </c>
       <c r="CQ2">
-        <v>0.001699378828713609</v>
+        <v>0.001698144206543107</v>
       </c>
       <c r="CR2">
-        <v>0.0229979357418996</v>
+        <v>0.02300349862009129</v>
       </c>
       <c r="CS2">
-        <v>0.002026847453516594</v>
+        <v>0.00202571734397128</v>
       </c>
       <c r="CT2">
-        <v>0.003822606789530213</v>
+        <v>0.003822049802135227</v>
       </c>
       <c r="CU2">
-        <v>0.0006538210495214282</v>
+        <v>0.0006522527343494842</v>
       </c>
       <c r="CV2">
-        <v>0.0004525199342745671</v>
+        <v>0.0004508873732286244</v>
       </c>
       <c r="CW2">
-        <v>0.01668911726405983</v>
+        <v>0.01669266666330724</v>
       </c>
       <c r="CX2">
-        <v>0.02526168391335943</v>
+        <v>0.0252679692737868</v>
       </c>
       <c r="CY2">
-        <v>0.05489877415811896</v>
+        <v>0.05491451828763075</v>
       </c>
       <c r="CZ2">
-        <v>0.001578760119577759</v>
+        <v>0.001577487001572898</v>
       </c>
       <c r="DA2">
-        <v>0.003653732276739393</v>
+        <v>0.003653121392520949</v>
       </c>
       <c r="DB2">
-        <v>0.002973330425204694</v>
+        <v>0.002972502388629351</v>
       </c>
       <c r="DC2">
-        <v>0.0355059386892753</v>
+        <v>0.03551549353532245</v>
       </c>
       <c r="DD2">
-        <v>0.008657983655769214</v>
+        <v>0.008658969893867559</v>
       </c>
       <c r="DE2">
-        <v>0.007555810572288903</v>
+        <v>0.007556445048436207</v>
       </c>
       <c r="DF2">
-        <v>0.01240757193976889</v>
+        <v>0.01240975487057381</v>
       </c>
       <c r="DG2">
-        <v>0.006388630783884881</v>
+        <v>0.006388892750990058</v>
       </c>
       <c r="DH2">
-        <v>0.02544181792700306</v>
+        <v>0.02544816077775843</v>
       </c>
       <c r="DI2">
-        <v>1.578310819543728E-07</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0288120341822685</v>
+        <v>0.02881945264797325</v>
       </c>
       <c r="DK2">
-        <v>0.00552281591830671</v>
+        <v>0.005522801557917665</v>
       </c>
       <c r="DL2">
-        <v>0.0033903736567922</v>
+        <v>0.003389678720855051</v>
       </c>
       <c r="DM2">
-        <v>0.0007776619189013293</v>
+        <v>0.0007761331279261605</v>
       </c>
       <c r="DN2">
-        <v>0.01050881179595383</v>
+        <v>0.0105103887315818</v>
       </c>
       <c r="DO2">
-        <v>0.004991431378058814</v>
+        <v>0.004991247424649007</v>
       </c>
       <c r="DP2">
-        <v>0.01966399648938183</v>
+        <v>0.01966849533054187</v>
       </c>
       <c r="DQ2">
-        <v>6.844665518425665E-05</v>
+        <v>6.669151596250758E-05</v>
       </c>
       <c r="DR2">
-        <v>0.002316665275467849</v>
+        <v>0.002315627662177455</v>
       </c>
       <c r="DS2">
-        <v>0.02251874170560469</v>
+        <v>0.0225241516475365</v>
       </c>
       <c r="DT2">
-        <v>3.406456258010321E-05</v>
+        <v>3.229845020707998E-05</v>
       </c>
       <c r="DU2">
-        <v>0.005850924143158139</v>
+        <v>0.005851014499524618</v>
       </c>
       <c r="DV2">
-        <v>5.495879016266467E-05</v>
+        <v>5.319934624704628E-05</v>
       </c>
       <c r="DW2">
-        <v>0.02236880669424838</v>
+        <v>0.02237416878395723</v>
       </c>
       <c r="DX2">
-        <v>0.001994613951075178</v>
+        <v>0.001993473554107791</v>
       </c>
       <c r="DY2">
-        <v>2.270680171984865E-06</v>
+        <v>4.944206829825741E-07</v>
       </c>
       <c r="DZ2">
-        <v>0.006615001701030568</v>
+        <v>0.006615335915114616</v>
       </c>
       <c r="EA2">
-        <v>0.005597442423959038</v>
+        <v>0.005597451880850256</v>
       </c>
       <c r="EB2">
-        <v>0.009196507696557867</v>
+        <v>0.009197665806270671</v>
       </c>
       <c r="EC2">
-        <v>0.01105548583735978</v>
+        <v>0.01105723724570013</v>
       </c>
       <c r="ED2">
-        <v>0.00471105435682262</v>
+        <v>0.004710780920218661</v>
       </c>
       <c r="EE2">
-        <v>0.001443473409330932</v>
+        <v>0.001442157114153755</v>
       </c>
       <c r="EF2">
-        <v>0.0009420737713541399</v>
+        <v>0.0009405974529305694</v>
       </c>
       <c r="EG2">
-        <v>0.00796781060349443</v>
+        <v>0.007968576570726917</v>
       </c>
       <c r="EH2">
-        <v>0.00127976999693178</v>
+        <v>0.001278401455303841</v>
       </c>
       <c r="EI2">
-        <v>0.003134427837406464</v>
+        <v>0.003133651215568854</v>
       </c>
       <c r="EJ2">
-        <v>0.002423596183566963</v>
+        <v>0.002422592697606863</v>
       </c>
       <c r="EK2">
-        <v>0.008026178607915314</v>
+        <v>0.008026963203477072</v>
       </c>
       <c r="EL2">
-        <v>7.724044585031209E-06</v>
+        <v>5.94952555416061E-06</v>
       </c>
       <c r="EM2">
-        <v>0.01809195337031283</v>
+        <v>0.01809595048904562</v>
       </c>
       <c r="EN2">
-        <v>0.004131315612912302</v>
+        <v>0.004130857150893815</v>
       </c>
       <c r="EO2">
-        <v>0.0002671600602351206</v>
+        <v>0.0002654683410116517</v>
       </c>
       <c r="EP2">
-        <v>0.02613358197939835</v>
+        <v>0.0261401456087922</v>
       </c>
       <c r="EQ2">
-        <v>0.008410844637050521</v>
+        <v>0.008411751999966096</v>
       </c>
       <c r="ER2">
-        <v>0.008557056648124846</v>
+        <v>0.008558010675056313</v>
       </c>
       <c r="ES2">
-        <v>0.003560903769708417</v>
+        <v>0.003560263258984631</v>
       </c>
       <c r="ET2">
-        <v>0.001501915813757451</v>
+        <v>0.001500618170654538</v>
       </c>
       <c r="EU2">
-        <v>0.001258810595344282</v>
+        <v>0.001257435364458453</v>
       </c>
       <c r="EV2">
-        <v>0.008993172681156956</v>
+        <v>0.008994265895870232</v>
       </c>
       <c r="EW2">
-        <v>0.0006722859009199849</v>
+        <v>0.0006707234788625172</v>
       </c>
       <c r="EX2">
-        <v>0.004948484374805942</v>
+        <v>0.004948286714727117</v>
       </c>
       <c r="EY2">
-        <v>0.000448824933994702</v>
+        <v>0.0004471911936779832</v>
       </c>
       <c r="EZ2">
-        <v>0.007538723870994729</v>
+        <v>0.007539352893868429</v>
       </c>
       <c r="FA2">
-        <v>0.001690421728035184</v>
+        <v>0.001689184247178277</v>
       </c>
       <c r="FB2">
-        <v>0.0008232074623510198</v>
+        <v>0.0008216932073770157</v>
       </c>
       <c r="FC2">
-        <v>6.861956119735282E-05</v>
+        <v>6.6864477159093E-05</v>
       </c>
       <c r="FD2">
-        <v>0.004187442317163426</v>
+        <v>0.004187001768156324</v>
       </c>
       <c r="FE2">
-        <v>3.393262257010987E-05</v>
+        <v>3.216646808802407E-05</v>
       </c>
       <c r="FF2">
-        <v>0.002808360412709607</v>
+        <v>0.002807479725444161</v>
       </c>
       <c r="FG2">
-        <v>4.468924338483315E-05</v>
+        <v>4.292652191157428E-05</v>
       </c>
       <c r="FH2">
-        <v>0.001295383898114401</v>
+        <v>0.001294020339711353</v>
       </c>
       <c r="FI2">
-        <v>0.003666895477736395</v>
+        <v>0.003666288794594292</v>
       </c>
       <c r="FJ2">
-        <v>0.001787527735390145</v>
+        <v>0.001786321246216048</v>
       </c>
       <c r="FK2">
-        <v>0.00124114959400661</v>
+        <v>0.00123976872655754</v>
       </c>
       <c r="FL2">
-        <v>6.808713515702603E-05</v>
+        <v>6.633188119334748E-05</v>
       </c>
       <c r="FM2">
-        <v>0.0009744002138025953</v>
+        <v>0.0009729342124631891</v>
       </c>
       <c r="FN2">
-        <v>1.057251780077902E-06</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.00152052301516679</v>
+        <v>0.0015192313106098</v>
       </c>
       <c r="FP2">
-        <v>0.0003126757736825518</v>
+        <v>0.0003109985809399101</v>
       </c>
       <c r="FQ2">
-        <v>0.002812974213059064</v>
+        <v>0.002812094998302279</v>
       </c>
       <c r="FR2">
-        <v>0.0002069833856772452</v>
+        <v>0.0002052724608818322</v>
       </c>
       <c r="FS2">
-        <v>0.004042301306170219</v>
+        <v>0.004041814434960218</v>
       </c>
       <c r="FT2">
-        <v>0.001041419078878709</v>
+        <v>0.001039974466817529</v>
       </c>
       <c r="FU2">
-        <v>0.0007935167001021952</v>
+        <v>0.0007919929692295204</v>
       </c>
       <c r="FV2">
-        <v>6.024132856277238E-05</v>
+        <v>5.848357058563492E-05</v>
       </c>
       <c r="FW2">
-        <v>4.324664027556813E-05</v>
+        <v>4.14834583910618E-05</v>
       </c>
       <c r="FX2">
-        <v>4.186709917107953E-07</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002551632393264626</v>
+        <v>0.002550669770457148</v>
       </c>
       <c r="FZ2">
-        <v>0.001658372125607697</v>
+        <v>0.001657124416020975</v>
       </c>
       <c r="GA2">
-        <v>9.111594190126385E-06</v>
+        <v>7.337518000007E-06</v>
       </c>
       <c r="GB2">
-        <v>0.001129540385553154</v>
+        <v>0.001128123897679753</v>
       </c>
       <c r="GC2">
-        <v>0.001663692426010665</v>
+        <v>0.001662446414414284</v>
       </c>
       <c r="GD2">
-        <v>0.000157453061925741</v>
+        <v>0.0001557263293741964</v>
       </c>
       <c r="GE2">
-        <v>1.504176213928658E-05</v>
+        <v>1.326957858062324E-05</v>
       </c>
       <c r="GF2">
-        <v>1.133433785848047E-05</v>
+        <v>9.560971063882679E-06</v>
       </c>
       <c r="GG2">
-        <v>2.193398866131458E-05</v>
+        <v>2.016400477807859E-05</v>
       </c>
       <c r="GH2">
-        <v>0.005946235450377167</v>
+        <v>0.005946356225642352</v>
       </c>
       <c r="GI2">
-        <v>0.004315111326833277</v>
+        <v>0.004314711523785772</v>
       </c>
       <c r="GJ2">
-        <v>4.541355343969352E-05</v>
+        <v>4.365106313223055E-05</v>
       </c>
       <c r="GK2">
-        <v>2.825533114010294E-06</v>
+        <v>1.049450708041833E-06</v>
       </c>
       <c r="GL2">
-        <v>0.002506815289870108</v>
+        <v>0.002505838363545364</v>
       </c>
       <c r="GM2">
-        <v>0.0003810900088643529</v>
+        <v>0.0003794346507366254</v>
       </c>
       <c r="GN2">
-        <v>0.0008559878648338587</v>
+        <v>0.000854484071826769</v>
       </c>
       <c r="GO2">
-        <v>0.00171015852953008</v>
+        <v>0.00170892734773446</v>
       </c>
       <c r="GP2">
-        <v>0.0002959772724177812</v>
+        <v>0.0002942947502967756</v>
       </c>
       <c r="GQ2">
-        <v>5.495879016266467E-05</v>
+        <v>5.319934624704628E-05</v>
       </c>
       <c r="GR2">
-        <v>0.002100936159128188</v>
+        <v>0.00209982969522259</v>
       </c>
       <c r="GS2">
-        <v>0.000593506314953096</v>
+        <v>0.0005919187501469282</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.569387130724346E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.043682560768257E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.812338415659821E-05</v>
+        <v>4.990638850933619E-05</v>
       </c>
       <c r="E3">
-        <v>2.827556856265602E-05</v>
+        <v>2.001449039492818E-05</v>
       </c>
       <c r="F3">
-        <v>8.47700316868403E-06</v>
+        <v>1.86684312925709E-07</v>
       </c>
       <c r="G3">
-        <v>2.212334444023281E-05</v>
+        <v>1.385317999465212E-05</v>
       </c>
       <c r="H3">
-        <v>6.650137132331192E-05</v>
+        <v>5.829674920434301E-05</v>
       </c>
       <c r="I3">
-        <v>1.782829235476549E-05</v>
+        <v>9.551784506235821E-06</v>
       </c>
       <c r="J3">
-        <v>2.436255848479097E-05</v>
+        <v>1.609570115555975E-05</v>
       </c>
       <c r="K3">
-        <v>5.36585550677525E-05</v>
+        <v>4.543496527228335E-05</v>
       </c>
       <c r="L3">
-        <v>6.233563624041788E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.119671842179386E-05</v>
+        <v>1.292518543350379E-05</v>
       </c>
       <c r="N3">
-        <v>1.208037024038749E-05</v>
+        <v>3.795373231455259E-06</v>
       </c>
       <c r="O3">
-        <v>1.290735425684366E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.782829235476549E-05</v>
+        <v>9.551784506235821E-06</v>
       </c>
       <c r="Q3">
-        <v>1.367241127206754E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.052600020945706E-05</v>
+        <v>2.238707536760609E-06</v>
       </c>
       <c r="S3">
-        <v>8.290594164974674E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.008736820072871E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4.617511591883941E-05</v>
+        <v>3.794047376148475E-05</v>
       </c>
       <c r="V3">
-        <v>6.095526421294984E-05</v>
+        <v>5.274245099606193E-05</v>
       </c>
       <c r="W3">
-        <v>2.35601134688231E-05</v>
+        <v>1.52920710009767E-05</v>
       </c>
       <c r="X3">
-        <v>1.041860920732008E-05</v>
+        <v>2.131157927839341E-06</v>
       </c>
       <c r="Y3">
-        <v>3.32522606616873E-05</v>
+        <v>2.499853261747577E-05</v>
       </c>
       <c r="Z3">
-        <v>4.685410493235063E-05</v>
+        <v>3.86204655802763E-05</v>
       </c>
       <c r="AA3">
-        <v>5.465003908748205E-05</v>
+        <v>4.642791362411633E-05</v>
       </c>
       <c r="AB3">
-        <v>3.230232364278448E-05</v>
+        <v>2.404719262762705E-05</v>
       </c>
       <c r="AC3">
-        <v>2.782453355368087E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.35601134688231E-05</v>
+        <v>1.52920710009767E-05</v>
       </c>
       <c r="AE3">
-        <v>2.706417453855047E-05</v>
+        <v>1.880130725155888E-05</v>
       </c>
       <c r="AF3">
-        <v>1.785467535529049E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.588964531113917E-08</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.424573428347611E-05</v>
+        <v>5.963935321129393E-06</v>
       </c>
       <c r="AI3">
-        <v>5.960773818613539E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.302196085609473E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.741342173944117E-05</v>
+        <v>7.923968482503773E-05</v>
       </c>
       <c r="AL3">
-        <v>3.304972465765704E-05</v>
+        <v>2.479569748611023E-05</v>
       </c>
       <c r="AM3">
-        <v>1.041218320719221E-05</v>
+        <v>2.124722437091251E-06</v>
       </c>
       <c r="AN3">
-        <v>5.078111701049431E-05</v>
+        <v>4.255327749960967E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0001263620525144806</v>
+        <v>0.0001182458392003505</v>
       </c>
       <c r="AP3">
-        <v>4.459679388743236E-05</v>
+        <v>3.635982069137799E-05</v>
       </c>
       <c r="AQ3">
-        <v>2.150339242789637E-05</v>
+        <v>1.32323123693394E-05</v>
       </c>
       <c r="AR3">
-        <v>4.684047693207945E-05</v>
+        <v>3.860681745268294E-05</v>
       </c>
       <c r="AS3">
-        <v>2.485643249461857E-05</v>
+        <v>1.659030457257219E-05</v>
       </c>
       <c r="AT3">
-        <v>2.552264050787546E-05</v>
+        <v>1.725749651472954E-05</v>
       </c>
       <c r="AU3">
-        <v>1.374912327359404E-05</v>
+        <v>5.466590861761286E-06</v>
       </c>
       <c r="AV3">
-        <v>3.239335064459583E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.669589053122198E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>4.302196085609473E-07</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.539057070423756E-05</v>
+        <v>2.71400007503029E-05</v>
       </c>
       <c r="AZ3">
-        <v>2.689180753512054E-05</v>
+        <v>1.86286856776753E-05</v>
       </c>
       <c r="BA3">
-        <v>1.363369927129721E-05</v>
+        <v>5.350996388666441E-06</v>
       </c>
       <c r="BB3">
-        <v>9.374820586549713E-05</v>
+        <v>8.558382485353837E-05</v>
       </c>
       <c r="BC3">
-        <v>5.343029406321033E-05</v>
+        <v>4.520636714690993E-05</v>
       </c>
       <c r="BD3">
-        <v>3.539057070423756E-05</v>
+        <v>2.71400007503029E-05</v>
       </c>
       <c r="BE3">
-        <v>2.603823551813529E-05</v>
+        <v>1.777385301212469E-05</v>
       </c>
       <c r="BF3">
-        <v>4.868896696886258E-05</v>
+        <v>4.045803754184197E-05</v>
       </c>
       <c r="BG3">
-        <v>0.0001009503780088133</v>
+        <v>9.279663395284571E-05</v>
       </c>
       <c r="BH3">
-        <v>3.986707579331562E-05</v>
+        <v>3.162311723198299E-05</v>
       </c>
       <c r="BI3">
-        <v>7.727192653763538E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>3.480078569250143E-05</v>
+        <v>2.65493446795183E-05</v>
       </c>
       <c r="BK3">
-        <v>7.632782151884862E-05</v>
+        <v>6.813771217688639E-05</v>
       </c>
       <c r="BL3">
-        <v>6.832240135954863E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>7.733737153893767E-11</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>5.593055511296306E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>4.133533082253245E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>7.733737153893767E-11</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>3.004829059793145E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>9.573142190496119E-06</v>
+        <v>1.28444223280122E-06</v>
       </c>
       <c r="BS3">
-        <v>2.585904651456961E-05</v>
+        <v>1.759439936262898E-05</v>
       </c>
       <c r="BT3">
-        <v>3.597336871583468E-05</v>
+        <v>2.772365950178207E-05</v>
       </c>
       <c r="BU3">
-        <v>5.341574106292074E-05</v>
+        <v>4.51917926531569E-05</v>
       </c>
       <c r="BV3">
-        <v>3.247986464631738E-05</v>
+        <v>2.422499584314317E-05</v>
       </c>
       <c r="BW3">
-        <v>2.970489259109816E-05</v>
+        <v>2.144592540551364E-05</v>
       </c>
       <c r="BX3">
-        <v>3.285922065386619E-05</v>
+        <v>2.460491212515877E-05</v>
       </c>
       <c r="BY3">
-        <v>5.667072512769173E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>2.724086054206634E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.52686033038302E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>3.670919873047697E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.875254637315724E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>7.029673139883585E-07</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1.387986727619571E-05</v>
+        <v>5.59752796141398E-06</v>
       </c>
       <c r="CF3">
-        <v>2.864025056991283E-05</v>
+        <v>2.03797110044823E-05</v>
       </c>
       <c r="CG3">
-        <v>5.987478119144929E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.553365030910437E-05</v>
+        <v>7.253753482087439E-06</v>
       </c>
       <c r="CI3">
-        <v>0.0001165121623184775</v>
+        <v>0.0001083814016085828</v>
       </c>
       <c r="CJ3">
-        <v>2.62078475215104E-05</v>
+        <v>1.794371551706787E-05</v>
       </c>
       <c r="CK3">
-        <v>9.889914196799571E-06</v>
+        <v>1.601682082669536E-06</v>
       </c>
       <c r="CL3">
-        <v>3.820841876030997E-05</v>
+        <v>2.996201051275582E-05</v>
       </c>
       <c r="CM3">
-        <v>8.677209172667932E-06</v>
+        <v>3.871860030458457E-07</v>
       </c>
       <c r="CN3">
-        <v>0.1283165525533733</v>
+        <v>0.1284977616418886</v>
       </c>
       <c r="CO3">
-        <v>0.0005713223513687532</v>
+        <v>0.0005638633041182161</v>
       </c>
       <c r="CP3">
-        <v>0.2854526056802262</v>
+        <v>0.2858658904881885</v>
       </c>
       <c r="CQ3">
-        <v>0.008131131661801527</v>
+        <v>0.00813483776824862</v>
       </c>
       <c r="CR3">
-        <v>0.0230631644589343</v>
+        <v>0.0230889238255037</v>
       </c>
       <c r="CS3">
-        <v>0.002660398652939318</v>
+        <v>0.002656024982189074</v>
       </c>
       <c r="CT3">
-        <v>0.004726776094058198</v>
+        <v>0.004725454275647084</v>
       </c>
       <c r="CU3">
-        <v>3.287063465409332E-05</v>
+        <v>2.461634298283052E-05</v>
       </c>
       <c r="CV3">
-        <v>0.004510417089752867</v>
+        <v>0.004508775728686939</v>
       </c>
       <c r="CW3">
-        <v>0.01658962133011715</v>
+        <v>0.01660581985976151</v>
       </c>
       <c r="CX3">
-        <v>0.003423984068133917</v>
+        <v>0.003420738143887829</v>
       </c>
       <c r="CY3">
-        <v>0.06999387739280935</v>
+        <v>0.07008894917210363</v>
       </c>
       <c r="CZ3">
-        <v>0.004305527085675756</v>
+        <v>0.004303583120629663</v>
       </c>
       <c r="DA3">
-        <v>5.987478119144929E-06</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.007204731143367067</v>
+        <v>0.007207069040147865</v>
       </c>
       <c r="DC3">
-        <v>0.01237188674618838</v>
+        <v>0.01238185606383127</v>
       </c>
       <c r="DD3">
-        <v>0.02167333043127797</v>
+        <v>0.0216970371388588</v>
       </c>
       <c r="DE3">
-        <v>0.002533571350415579</v>
+        <v>0.002529010367225619</v>
       </c>
       <c r="DF3">
-        <v>0.004024870780090972</v>
+        <v>0.004022512311099159</v>
       </c>
       <c r="DG3">
-        <v>0.01477835629407476</v>
+        <v>0.01479187974929804</v>
       </c>
       <c r="DH3">
-        <v>0.01439384428642335</v>
+        <v>0.01440679985223465</v>
       </c>
       <c r="DI3">
-        <v>0.004754330594606505</v>
+        <v>0.004753049471697228</v>
       </c>
       <c r="DJ3">
-        <v>0.03452661068704561</v>
+        <v>0.03456930052550731</v>
       </c>
       <c r="DK3">
-        <v>0.01665808033147942</v>
+        <v>0.01667437996886881</v>
       </c>
       <c r="DL3">
-        <v>0.003939139078384996</v>
+        <v>0.003936653991434052</v>
       </c>
       <c r="DM3">
-        <v>0.0009215431183378022</v>
+        <v>0.0009146013154423462</v>
       </c>
       <c r="DN3">
-        <v>0.01750815034839498</v>
+        <v>0.01752570546221278</v>
       </c>
       <c r="DO3">
-        <v>0.001486391329577726</v>
+        <v>0.001480283756334812</v>
       </c>
       <c r="DP3">
-        <v>0.02192350343625617</v>
+        <v>0.02194757962670844</v>
       </c>
       <c r="DQ3">
-        <v>0.0005634177512114593</v>
+        <v>0.0005559470295823698</v>
       </c>
       <c r="DR3">
-        <v>0.0001554995830942889</v>
+        <v>0.0001474264032739856</v>
       </c>
       <c r="DS3">
-        <v>0.02254699444866303</v>
+        <v>0.02257199147887418</v>
       </c>
       <c r="DT3">
-        <v>0.002237112544516341</v>
+        <v>0.002232113718518849</v>
       </c>
       <c r="DU3">
-        <v>0.007067202740630388</v>
+        <v>0.007069337520415599</v>
       </c>
       <c r="DV3">
-        <v>0.0008234981163868031</v>
+        <v>0.0008164115099029078</v>
       </c>
       <c r="DW3">
-        <v>0.02397409847706099</v>
+        <v>0.02400120321067646</v>
       </c>
       <c r="DX3">
-        <v>8.372984166614154E-05</v>
+        <v>7.555066443757315E-05</v>
       </c>
       <c r="DY3">
-        <v>0.0005977494118946257</v>
+        <v>0.0005903293950191194</v>
       </c>
       <c r="DZ3">
-        <v>0.008086485160913105</v>
+        <v>0.008090125328521795</v>
       </c>
       <c r="EA3">
-        <v>0.004439247388336659</v>
+        <v>0.004437500916067222</v>
       </c>
       <c r="EB3">
-        <v>0.008959157178278422</v>
+        <v>0.008964086203423248</v>
       </c>
       <c r="EC3">
-        <v>0.005063389500756473</v>
+        <v>0.00506256482986167</v>
       </c>
       <c r="ED3">
-        <v>0.008140111161980211</v>
+        <v>0.008143830530335839</v>
       </c>
       <c r="EE3">
-        <v>0.0008254611164258648</v>
+        <v>0.0008183774091152483</v>
       </c>
       <c r="EF3">
-        <v>0.0001108513322058325</v>
+        <v>0.0001027122109625344</v>
       </c>
       <c r="EG3">
-        <v>0.01042501720744759</v>
+        <v>0.01043211117509994</v>
       </c>
       <c r="EH3">
-        <v>7.629719151823911E-06</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.007383282946920072</v>
+        <v>0.00738588454854418</v>
       </c>
       <c r="EJ3">
-        <v>0.001182532523531235</v>
+        <v>0.001175976178350753</v>
       </c>
       <c r="EK3">
-        <v>0.01078382721458756</v>
+        <v>0.01079145111212483</v>
       </c>
       <c r="EL3">
-        <v>0.001506855129984936</v>
+        <v>0.00150077777992192</v>
       </c>
       <c r="EM3">
-        <v>0.01056801521029311</v>
+        <v>0.01057532037304505</v>
       </c>
       <c r="EN3">
-        <v>0.006273585524838185</v>
+        <v>0.006274548203869587</v>
       </c>
       <c r="EO3">
-        <v>8.899045177082252E-05</v>
+        <v>8.081904398695176E-05</v>
       </c>
       <c r="EP3">
-        <v>0.01675269833336223</v>
+        <v>0.01676913771297132</v>
       </c>
       <c r="EQ3">
-        <v>0.01686025233550245</v>
+        <v>0.01687685056263207</v>
       </c>
       <c r="ER3">
-        <v>0.002632980052393715</v>
+        <v>0.00262856588685363</v>
       </c>
       <c r="ES3">
-        <v>0.005372592106909302</v>
+        <v>0.005372224100260862</v>
       </c>
       <c r="ET3">
-        <v>0.0009387486686801757</v>
+        <v>0.0009318322768243554</v>
       </c>
       <c r="EU3">
-        <v>0.000228227404541501</v>
+        <v>0.0002202616371268825</v>
       </c>
       <c r="EV3">
-        <v>0.006736392134047581</v>
+        <v>0.006738038336526721</v>
       </c>
       <c r="EW3">
-        <v>0.001550972230862823</v>
+        <v>0.00154496003776234</v>
       </c>
       <c r="EX3">
-        <v>0.006328905625939</v>
+        <v>0.006329950007749666</v>
       </c>
       <c r="EY3">
-        <v>0.0002425118148257467</v>
+        <v>0.000234567144191451</v>
       </c>
       <c r="EZ3">
-        <v>0.006682027732965784</v>
+        <v>0.006683593644148036</v>
       </c>
       <c r="FA3">
-        <v>0.002600725551751882</v>
+        <v>0.002596263749235477</v>
       </c>
       <c r="FB3">
-        <v>0.0009591324690857932</v>
+        <v>0.0009522461822571138</v>
       </c>
       <c r="FC3">
-        <v>0.0001465046529152986</v>
+        <v>0.0001384181883977465</v>
       </c>
       <c r="FD3">
-        <v>0.004494829689442692</v>
+        <v>0.004493165307198179</v>
       </c>
       <c r="FE3">
-        <v>1.825964136334891E-05</v>
+        <v>9.98377057823981E-06</v>
       </c>
       <c r="FF3">
-        <v>0.003571051971060424</v>
+        <v>0.003568023252787758</v>
       </c>
       <c r="FG3">
-        <v>3.661914072868491E-07</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002689576553519929</v>
+        <v>0.002685245975886348</v>
       </c>
       <c r="FI3">
-        <v>0.003114778561981031</v>
+        <v>0.003111075969205541</v>
       </c>
       <c r="FJ3">
-        <v>0.001725608034337904</v>
+        <v>0.001719853762503267</v>
       </c>
       <c r="FK3">
-        <v>0.0003935115878304938</v>
+        <v>0.0003857899301856366</v>
       </c>
       <c r="FL3">
-        <v>9.431778587683122E-07</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001638428532603117</v>
+        <v>0.001632545504539828</v>
       </c>
       <c r="FN3">
-        <v>9.212939183328434E-05</v>
+        <v>8.396261997960783E-05</v>
       </c>
       <c r="FO3">
-        <v>0.001307863026025189</v>
+        <v>0.001301491782646337</v>
       </c>
       <c r="FP3">
-        <v>1.578842431417412E-05</v>
+        <v>7.508903765289076E-06</v>
       </c>
       <c r="FQ3">
-        <v>0.004090401381394966</v>
+        <v>0.004088139695166503</v>
       </c>
       <c r="FR3">
-        <v>6.121463121811098E-05</v>
+        <v>5.300220106280014E-05</v>
       </c>
       <c r="FS3">
-        <v>0.003125901062202358</v>
+        <v>0.003122214896352386</v>
       </c>
       <c r="FT3">
-        <v>0.0009336716185791474</v>
+        <v>0.0009267477283801307</v>
       </c>
       <c r="FU3">
-        <v>0.001803585135889571</v>
+        <v>0.001797946029171933</v>
       </c>
       <c r="FV3">
-        <v>0.0006516503129672007</v>
+        <v>0.0006443099028410453</v>
       </c>
       <c r="FW3">
-        <v>0.0003463047068911232</v>
+        <v>0.0003385133289584082</v>
       </c>
       <c r="FX3">
-        <v>0.0001039735320689711</v>
+        <v>9.582425293775852E-05</v>
       </c>
       <c r="FY3">
-        <v>0.001961944239040762</v>
+        <v>0.001956539014376691</v>
       </c>
       <c r="FZ3">
-        <v>0.001519764730241824</v>
+        <v>0.00151370644648923</v>
       </c>
       <c r="GA3">
-        <v>0.0001147280122829747</v>
+        <v>0.0001065946165450591</v>
       </c>
       <c r="GB3">
-        <v>0.0005792340515261882</v>
+        <v>0.0005717866891402608</v>
       </c>
       <c r="GC3">
-        <v>0.002348237746727622</v>
+        <v>0.002343403042589746</v>
       </c>
       <c r="GD3">
-        <v>0.0002969097459082121</v>
+        <v>0.0002890454160915783</v>
       </c>
       <c r="GE3">
-        <v>1.872529137261489E-06</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001397557527810021</v>
+        <v>0.0001316593207491656</v>
       </c>
       <c r="GG3">
-        <v>6.408807127528963E-05</v>
+        <v>5.587988493071023E-05</v>
       </c>
       <c r="GH3">
-        <v>0.005426383707979702</v>
+        <v>0.005426095146654409</v>
       </c>
       <c r="GI3">
-        <v>0.005688602713197603</v>
+        <v>0.005688701425595162</v>
       </c>
       <c r="GJ3">
-        <v>6.870047136707184E-05</v>
+        <v>6.049909711970615E-05</v>
       </c>
       <c r="GK3">
-        <v>3.674735673123628E-06</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.00336982826705627</v>
+        <v>0.003366502359596608</v>
       </c>
       <c r="GM3">
-        <v>0.0003701694473660081</v>
+        <v>0.000362413315493665</v>
       </c>
       <c r="GN3">
-        <v>0.0004346511086491298</v>
+        <v>0.0004269902103507224</v>
       </c>
       <c r="GO3">
-        <v>0.001393147027722256</v>
+        <v>0.001386901741090169</v>
       </c>
       <c r="GP3">
-        <v>0.0008698434873090303</v>
+        <v>0.0008628253287407202</v>
       </c>
       <c r="GQ3">
-        <v>4.776712795051889E-05</v>
+        <v>3.95348370507545E-05</v>
       </c>
       <c r="GR3">
-        <v>0.0009295592484973152</v>
+        <v>0.0009226292847001244</v>
       </c>
       <c r="GS3">
-        <v>0.001434322128541601</v>
+        <v>0.001428137653804402</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.626599576373765E-05</v>
+        <v>1.067130927473301E-05</v>
       </c>
       <c r="C4">
-        <v>8.619583874801201E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.437665429118019E-08</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.605400418581986E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.644982903482129E-06</v>
+        <v>1.040627268345387E-06</v>
       </c>
       <c r="G4">
-        <v>1.029400785048032E-05</v>
+        <v>4.693319496113774E-06</v>
       </c>
       <c r="H4">
-        <v>2.503330963639308E-05</v>
+        <v>1.944743432353508E-05</v>
       </c>
       <c r="I4">
-        <v>6.234684309441685E-06</v>
+        <v>6.299163230149912E-07</v>
       </c>
       <c r="J4">
-        <v>1.639668976183933E-05</v>
+        <v>1.080213462068596E-05</v>
       </c>
       <c r="K4">
-        <v>3.340266551482882E-05</v>
+        <v>2.78252014291665E-05</v>
       </c>
       <c r="L4">
-        <v>2.430662964694805E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>6.897437599815244E-06</v>
+        <v>1.293335682388481E-06</v>
       </c>
       <c r="N4">
-        <v>8.974461569646628E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5.453308920791103E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.030071755988438E-05</v>
+        <v>2.472013600743284E-05</v>
       </c>
       <c r="Q4">
-        <v>3.287579152248163E-05</v>
+        <v>2.729779792691228E-05</v>
       </c>
       <c r="R4">
-        <v>5.315979222785807E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.447240335404173E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.315568166366549E-05</v>
+        <v>1.756791932918994E-05</v>
       </c>
       <c r="U4">
-        <v>0.000145745137883063</v>
+        <v>0.0001402805783115041</v>
       </c>
       <c r="V4">
-        <v>2.457747864301399E-05</v>
+        <v>1.899114521867121E-05</v>
       </c>
       <c r="W4">
-        <v>7.69828888818294E-06</v>
+        <v>2.094991828648978E-06</v>
       </c>
       <c r="X4">
-        <v>6.140099910815516E-05</v>
+        <v>5.585167342984158E-05</v>
       </c>
       <c r="Y4">
-        <v>1.928621671986917E-05</v>
+        <v>1.369456556178034E-05</v>
       </c>
       <c r="Z4">
-        <v>3.06882575542554E-05</v>
+        <v>2.510806548063441E-05</v>
       </c>
       <c r="AA4">
-        <v>4.559584633772381E-05</v>
+        <v>4.00306364345373E-05</v>
       </c>
       <c r="AB4">
-        <v>4.527394534239939E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.43287587751312E-06</v>
+        <v>2.830317080057147E-06</v>
       </c>
       <c r="AD4">
-        <v>5.772786516150715E-06</v>
+        <v>1.675543210875401E-07</v>
       </c>
       <c r="AE4">
-        <v>2.251127967302537E-05</v>
+        <v>1.692286971265993E-05</v>
       </c>
       <c r="AF4">
-        <v>2.651078561493285E-05</v>
+        <v>2.092639516976505E-05</v>
       </c>
       <c r="AG4">
-        <v>1.783355374096899E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>5.351919322263779E-05</v>
+        <v>4.796194630630084E-05</v>
       </c>
       <c r="AI4">
-        <v>1.73261977483383E-05</v>
+        <v>1.173257676543656E-05</v>
       </c>
       <c r="AJ4">
-        <v>4.72422923138093E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.907672572291201E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.352302080357915E-05</v>
+        <v>7.925577616697512E-06</v>
       </c>
       <c r="AM4">
-        <v>3.587671647889343E-05</v>
+        <v>3.030173882170358E-05</v>
       </c>
       <c r="AN4">
-        <v>1.73261977483383E-05</v>
+        <v>1.173257676543656E-05</v>
       </c>
       <c r="AO4">
-        <v>4.306917937442345E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.18509576826165E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>6.26311090902879E-05</v>
+        <v>5.708301967611288E-05</v>
       </c>
       <c r="AR4">
-        <v>1.863265772936206E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.031165585022398E-05</v>
+        <v>4.710985232148922E-06</v>
       </c>
       <c r="AT4">
-        <v>1.526837377822803E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>9.184259866599324E-06</v>
+        <v>3.582456212255343E-06</v>
       </c>
       <c r="AV4">
-        <v>3.89289334345602E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>5.433496921078871E-07</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>3.693725646348916E-07</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.708072475190377E-05</v>
+        <v>1.148685706792092E-05</v>
       </c>
       <c r="AZ4">
-        <v>3.513863648961397E-05</v>
+        <v>2.956291705987095E-05</v>
       </c>
       <c r="BA4">
-        <v>5.427181921170595E-05</v>
+        <v>4.871532868669462E-05</v>
       </c>
       <c r="BB4">
-        <v>3.610371247559633E-05</v>
+        <v>3.05289629500487E-05</v>
       </c>
       <c r="BC4">
-        <v>1.010499985322565E-05</v>
+        <v>4.504121545267714E-06</v>
       </c>
       <c r="BD4">
-        <v>4.216872438750248E-05</v>
+        <v>3.660007021670813E-05</v>
       </c>
       <c r="BE4">
-        <v>1.33062593067276E-05</v>
+        <v>7.708598273906105E-06</v>
       </c>
       <c r="BF4">
-        <v>4.323307937204281E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>9.798937857671173E-06</v>
+        <v>4.197751956510373E-06</v>
       </c>
       <c r="BH4">
-        <v>1.31885508084373E-05</v>
+        <v>7.590771478229924E-06</v>
       </c>
       <c r="BI4">
-        <v>4.967176927852133E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>4.058513941050394E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.098486169519648E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.994780512926269E-06</v>
+        <v>3.897714224807107E-07</v>
       </c>
       <c r="BM4">
-        <v>2.331156966140123E-05</v>
+        <v>1.772396399482044E-05</v>
       </c>
       <c r="BN4">
-        <v>6.172199310349275E-07</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>8.839097871612775E-05</v>
+        <v>8.286877804645126E-05</v>
       </c>
       <c r="BP4">
-        <v>1.855892873043297E-05</v>
+        <v>1.296654664578244E-05</v>
       </c>
       <c r="BQ4">
-        <v>5.633162218178747E-07</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2.041432470348349E-05</v>
+        <v>1.482380729722565E-05</v>
       </c>
       <c r="BS4">
-        <v>6.135792910878075E-05</v>
+        <v>5.580856014499151E-05</v>
       </c>
       <c r="BT4">
-        <v>1.71918417502898E-05</v>
+        <v>1.159808573921611E-05</v>
       </c>
       <c r="BU4">
-        <v>5.082232226180964E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.190927682701866E-05</v>
+        <v>6.310211822709293E-06</v>
       </c>
       <c r="BW4">
-        <v>3.265919752562764E-05</v>
+        <v>2.708098625245643E-05</v>
       </c>
       <c r="BX4">
-        <v>3.46733794963718E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.500910578199388E-05</v>
+        <v>9.413156114872555E-06</v>
       </c>
       <c r="BZ4">
-        <v>1.118897383748101E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.529793648730016E-05</v>
+        <v>2.972237715452186E-05</v>
       </c>
       <c r="CB4">
-        <v>1.115920183791344E-05</v>
+        <v>5.559383006040902E-06</v>
       </c>
       <c r="CC4">
-        <v>2.687335660966654E-05</v>
+        <v>2.128933054941145E-05</v>
       </c>
       <c r="CD4">
-        <v>1.82447017349971E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.870777972827092E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.020806785172859E-05</v>
+        <v>4.607293127411335E-06</v>
       </c>
       <c r="CG4">
-        <v>4.806831330181141E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1.354324680328537E-05</v>
+        <v>7.945823943592735E-06</v>
       </c>
       <c r="CI4">
-        <v>1.090683784157901E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.674501917578292E-07</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.596469333236633E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.005833970865414E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>1.928621671986917E-05</v>
+        <v>1.369456556178034E-05</v>
       </c>
       <c r="CN4">
-        <v>0.07573990389988365</v>
+        <v>0.07581041169150007</v>
       </c>
       <c r="CO4">
-        <v>0.0337223665101852</v>
+        <v>0.03375064655353505</v>
       </c>
       <c r="CP4">
-        <v>0.2808558259205904</v>
+        <v>0.2811324758152106</v>
       </c>
       <c r="CQ4">
-        <v>0.03787021244993805</v>
+        <v>0.03790266109061829</v>
       </c>
       <c r="CR4">
-        <v>0.03082963555220189</v>
+        <v>0.03085500839245786</v>
       </c>
       <c r="CS4">
-        <v>0.01089642084173032</v>
+        <v>0.01090176074276069</v>
       </c>
       <c r="CT4">
-        <v>0.002450914364400655</v>
+        <v>0.0024477665066602</v>
       </c>
       <c r="CU4">
-        <v>0.003036189755899575</v>
+        <v>0.003033630101643527</v>
       </c>
       <c r="CV4">
-        <v>0.007115080396653998</v>
+        <v>0.007116620039450681</v>
       </c>
       <c r="CW4">
-        <v>0.006907034599675848</v>
+        <v>0.006908365155836605</v>
       </c>
       <c r="CX4">
-        <v>0.002233157367563559</v>
+        <v>0.002229790663402848</v>
       </c>
       <c r="CY4">
-        <v>0.05663678717735497</v>
+        <v>0.05668809628065741</v>
       </c>
       <c r="CZ4">
-        <v>0.006335661907974992</v>
+        <v>0.006336418232905401</v>
       </c>
       <c r="DA4">
-        <v>4.088291440617878E-05</v>
+        <v>3.531296799258338E-05</v>
       </c>
       <c r="DB4">
-        <v>0.01027754985071937</v>
+        <v>0.01028226778458933</v>
       </c>
       <c r="DC4">
-        <v>0.008476315876882155</v>
+        <v>0.008479223565327432</v>
       </c>
       <c r="DD4">
-        <v>0.03273885252447065</v>
+        <v>0.03276614413338134</v>
       </c>
       <c r="DE4">
-        <v>0.004149030939735641</v>
+        <v>0.004147589694132054</v>
       </c>
       <c r="DF4">
-        <v>0.0003901960943324314</v>
+        <v>0.0003849772086888024</v>
       </c>
       <c r="DG4">
-        <v>0.0282466055897202</v>
+        <v>0.02826938247729078</v>
       </c>
       <c r="DH4">
-        <v>0.01024478935119521</v>
+        <v>0.01024947436066711</v>
       </c>
       <c r="DI4">
-        <v>0.009823665857312001</v>
+        <v>0.009827927636437863</v>
       </c>
       <c r="DJ4">
-        <v>0.03582793447960197</v>
+        <v>0.03585833062493435</v>
       </c>
       <c r="DK4">
-        <v>0.01673705475689555</v>
+        <v>0.01674826451213465</v>
       </c>
       <c r="DL4">
-        <v>0.001222682382240631</v>
+        <v>0.001218300147757091</v>
       </c>
       <c r="DM4">
-        <v>0.001130623283577783</v>
+        <v>0.001126148529430181</v>
       </c>
       <c r="DN4">
-        <v>0.01828153973446203</v>
+        <v>0.0182943017016318</v>
       </c>
       <c r="DO4">
-        <v>4.555873533826283E-05</v>
+        <v>3.999348813841307E-05</v>
       </c>
       <c r="DP4">
-        <v>0.01476867278548615</v>
+        <v>0.01477790431107294</v>
       </c>
       <c r="DQ4">
-        <v>0.001261433481677774</v>
+        <v>0.001257090192162781</v>
       </c>
       <c r="DR4">
-        <v>5.909916114158918E-05</v>
+        <v>5.354752210937051E-05</v>
       </c>
       <c r="DS4">
-        <v>0.01649871276035745</v>
+        <v>0.01650968298119124</v>
       </c>
       <c r="DT4">
-        <v>0.002555811262877036</v>
+        <v>0.002552768826827094</v>
       </c>
       <c r="DU4">
-        <v>0.00537426432193922</v>
+        <v>0.005374054439476971</v>
       </c>
       <c r="DV4">
-        <v>0.000366297894679551</v>
+        <v>0.0003610549912752044</v>
       </c>
       <c r="DW4">
-        <v>0.01950756571665409</v>
+        <v>0.01952155984353052</v>
       </c>
       <c r="DX4">
-        <v>0.0001803125273809742</v>
+        <v>0.0001748827081372078</v>
       </c>
       <c r="DY4">
-        <v>0.0008666772874115784</v>
+        <v>0.0008619372667639743</v>
       </c>
       <c r="DZ4">
-        <v>0.01186217382770283</v>
+        <v>0.01186848431331557</v>
       </c>
       <c r="EA4">
-        <v>0.0002809605459190694</v>
+        <v>0.0002756318782290206</v>
       </c>
       <c r="EB4">
-        <v>0.01084641484245665</v>
+        <v>0.01085170448731115</v>
       </c>
       <c r="EC4">
-        <v>0.004620352932889725</v>
+        <v>0.004619385367271111</v>
       </c>
       <c r="ED4">
-        <v>0.007126460896488697</v>
+        <v>0.007128011976721081</v>
       </c>
       <c r="EE4">
-        <v>0.0004975370927733115</v>
+        <v>0.0004924260851478253</v>
       </c>
       <c r="EF4">
-        <v>0.0006020663312550324</v>
+        <v>0.0005970603758206863</v>
       </c>
       <c r="EG4">
-        <v>0.009125474867453172</v>
+        <v>0.009129034962587221</v>
       </c>
       <c r="EH4">
-        <v>0.0001254243081782215</v>
+        <v>0.0001199393261132312</v>
       </c>
       <c r="EI4">
-        <v>0.006113684611199197</v>
+        <v>0.006114217848295537</v>
       </c>
       <c r="EJ4">
-        <v>0.0002488661263852385</v>
+        <v>0.0002435052037094615</v>
       </c>
       <c r="EK4">
-        <v>0.007845376886046498</v>
+        <v>0.007847650478956154</v>
       </c>
       <c r="EL4">
-        <v>0.002949498757158755</v>
+        <v>0.002946851978194806</v>
       </c>
       <c r="EM4">
-        <v>0.008691538873756059</v>
+        <v>0.008694662861944199</v>
       </c>
       <c r="EN4">
-        <v>0.007504920890991596</v>
+        <v>0.00750685232462805</v>
       </c>
       <c r="EO4">
-        <v>8.153483881571267E-06</v>
+        <v>2.550644294340233E-06</v>
       </c>
       <c r="EP4">
-        <v>0.01147788083328465</v>
+        <v>0.01148380510331131</v>
       </c>
       <c r="EQ4">
-        <v>0.01827205173459984</v>
+        <v>0.01828480416630194</v>
       </c>
       <c r="ER4">
-        <v>0.002744190860140837</v>
+        <v>0.002741337746138449</v>
       </c>
       <c r="ES4">
-        <v>0.01109368183886512</v>
+        <v>0.01109921998777596</v>
       </c>
       <c r="ET4">
-        <v>0.0001588447976927914</v>
+        <v>0.0001533934033177478</v>
       </c>
       <c r="EU4">
-        <v>0.0002244947067392315</v>
+        <v>0.0002191092907152565</v>
       </c>
       <c r="EV4">
-        <v>0.006585641904344052</v>
+        <v>0.00658664945990372</v>
       </c>
       <c r="EW4">
-        <v>0.002691922960900024</v>
+        <v>0.002689017317505656</v>
       </c>
       <c r="EX4">
-        <v>0.002984430856651369</v>
+        <v>0.002981819184549827</v>
       </c>
       <c r="EY4">
-        <v>0.0001785796174061446</v>
+        <v>0.0001731480565827729</v>
       </c>
       <c r="EZ4">
-        <v>0.007252600394656531</v>
+        <v>0.007254278245454398</v>
       </c>
       <c r="FA4">
-        <v>0.002954769957082191</v>
+        <v>0.002952128475689619</v>
       </c>
       <c r="FB4">
-        <v>0.0009159138266964214</v>
+        <v>0.0009112232889151536</v>
       </c>
       <c r="FC4">
-        <v>0.0002432856864662939</v>
+        <v>0.0002379191554320373</v>
       </c>
       <c r="FD4">
-        <v>0.003884655143575679</v>
+        <v>0.003882948199521835</v>
       </c>
       <c r="FE4">
-        <v>0.0001143888183385111</v>
+        <v>0.0001088927455738774</v>
       </c>
       <c r="FF4">
-        <v>0.003014843156209633</v>
+        <v>0.003012262048558311</v>
       </c>
       <c r="FG4">
-        <v>2.331156966140123E-05</v>
+        <v>1.772396399482044E-05</v>
       </c>
       <c r="FH4">
-        <v>0.003216694753277753</v>
+        <v>0.003214316507073287</v>
       </c>
       <c r="FI4">
-        <v>0.004140702439856613</v>
+        <v>0.004139252824086228</v>
       </c>
       <c r="FJ4">
-        <v>0.003202037953490642</v>
+        <v>0.003199644977159419</v>
       </c>
       <c r="FK4">
-        <v>0.0006100278611393916</v>
+        <v>0.0006050299070659215</v>
       </c>
       <c r="FL4">
-        <v>4.66567193223147E-05</v>
+        <v>4.109257559958805E-05</v>
       </c>
       <c r="FM4">
-        <v>0.001012284285296648</v>
+        <v>0.001007690600108818</v>
       </c>
       <c r="FN4">
-        <v>1.050257784745086E-05</v>
+        <v>4.902099106542765E-06</v>
       </c>
       <c r="FO4">
-        <v>0.001940805771809944</v>
+        <v>0.001937145253438364</v>
       </c>
       <c r="FP4">
-        <v>0.0004134212939950872</v>
+        <v>0.0004082257497452123</v>
       </c>
       <c r="FQ4">
-        <v>0.00267851596109476</v>
+        <v>0.002675596843626281</v>
       </c>
       <c r="FR4">
-        <v>1.615791676530749E-05</v>
+        <v>1.056312165659256E-05</v>
       </c>
       <c r="FS4">
-        <v>0.001010052885329059</v>
+        <v>0.00100545695757772</v>
       </c>
       <c r="FT4">
-        <v>0.0007010565898172064</v>
+        <v>0.0006961501198829418</v>
       </c>
       <c r="FU4">
-        <v>0.001032968184996216</v>
+        <v>0.001028395287188227</v>
       </c>
       <c r="FV4">
-        <v>0.0008581296875357316</v>
+        <v>0.0008533810765251917</v>
       </c>
       <c r="FW4">
-        <v>0.0002082424469752943</v>
+        <v>0.000202840697382607</v>
       </c>
       <c r="FX4">
-        <v>4.555873533826283E-05</v>
+        <v>3.999348813841307E-05</v>
       </c>
       <c r="FY4">
-        <v>0.001598593276780554</v>
+        <v>0.001594588833848148</v>
       </c>
       <c r="FZ4">
-        <v>0.002552820062920483</v>
+        <v>0.002549774620705814</v>
       </c>
       <c r="GA4">
-        <v>1.613582376562839E-05</v>
+        <v>1.0541006453384E-05</v>
       </c>
       <c r="GB4">
-        <v>0.0009745707358444342</v>
+        <v>0.0009699391484288346</v>
       </c>
       <c r="GC4">
-        <v>0.004013029941711046</v>
+        <v>0.004011452014705706</v>
       </c>
       <c r="GD4">
-        <v>0.00089644324697923</v>
+        <v>0.0008917331412082611</v>
       </c>
       <c r="GE4">
-        <v>7.969836884238727E-06</v>
+        <v>2.366812731236944E-06</v>
       </c>
       <c r="GF4">
-        <v>0.0001342675180497745</v>
+        <v>0.0001287914234366323</v>
       </c>
       <c r="GG4">
-        <v>0.0002902516257841172</v>
+        <v>0.000284932295656573</v>
       </c>
       <c r="GH4">
-        <v>0.003406506250520756</v>
+        <v>0.003404318765427522</v>
       </c>
       <c r="GI4">
-        <v>0.005211523224303021</v>
+        <v>0.005211149786560512</v>
       </c>
       <c r="GJ4">
-        <v>0.0001543928477574556</v>
+        <v>0.0001489369791596745</v>
       </c>
       <c r="GK4">
-        <v>2.160003468626114E-05</v>
+        <v>1.601070892201234E-05</v>
       </c>
       <c r="GL4">
-        <v>0.004411361935925303</v>
+        <v>0.004410184333742006</v>
       </c>
       <c r="GM4">
-        <v>0.001338382080560102</v>
+        <v>0.001334116124612589</v>
       </c>
       <c r="GN4">
-        <v>0.0001430249379225737</v>
+        <v>0.0001375576445420792</v>
       </c>
       <c r="GO4">
-        <v>0.001711729875137254</v>
+        <v>0.001707839134817897</v>
       </c>
       <c r="GP4">
-        <v>0.0004409367335954275</v>
+        <v>0.0004357688424430226</v>
       </c>
       <c r="GQ4">
-        <v>0.0008712820573446943</v>
+        <v>0.0008665466645043736</v>
       </c>
       <c r="GR4">
-        <v>0.0004477539234964083</v>
+        <v>0.000442592883639841</v>
       </c>
       <c r="GS4">
-        <v>0.00170104227529249</v>
+        <v>0.001697140793903955</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.04913417548998E-05</v>
+        <v>5.969549939926823E-06</v>
       </c>
       <c r="C5">
-        <v>1.588345438590768E-05</v>
+        <v>1.136601351070059E-05</v>
       </c>
       <c r="D5">
-        <v>3.271798379492288E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.734926042152121E-05</v>
+        <v>1.283300231718814E-05</v>
       </c>
       <c r="F5">
-        <v>2.998532472852963E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.855863445090441E-08</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.389731555246235E-05</v>
+        <v>5.941861745437417E-05</v>
       </c>
       <c r="I5">
-        <v>1.406441534171194E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.567592262382751E-07</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.526604809979323E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.571778038188243E-05</v>
+        <v>1.1200205822967E-05</v>
       </c>
       <c r="M5">
-        <v>1.359177383022854E-05</v>
+        <v>9.072483779245133E-06</v>
       </c>
       <c r="N5">
-        <v>3.308197480376648E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.161062076801816E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.982827296767593E-05</v>
+        <v>3.533015336234647E-05</v>
       </c>
       <c r="Q5">
-        <v>1.419285834483261E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.076231050444538E-05</v>
+        <v>1.624880641812806E-05</v>
       </c>
       <c r="S5">
-        <v>9.264463225091307E-06</v>
+        <v>4.741681431802121E-06</v>
       </c>
       <c r="T5">
-        <v>8.528683907214662E-07</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.844959944825527E-07</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>5.20086712636134E-05</v>
+        <v>4.752038012125138E-05</v>
       </c>
       <c r="W5">
-        <v>3.006085473036472E-05</v>
+        <v>2.555485371540477E-05</v>
       </c>
       <c r="X5">
-        <v>9.740281236651881E-06</v>
+        <v>5.217883384806336E-06</v>
       </c>
       <c r="Y5">
-        <v>5.762425540005079E-07</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>7.910890592204628E-05</v>
+        <v>7.464248218059167E-05</v>
       </c>
       <c r="AA5">
-        <v>3.195170077630511E-05</v>
+        <v>2.744722550047848E-05</v>
       </c>
       <c r="AB5">
-        <v>2.280427555405738E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3.609162487688956E-05</v>
+        <v>3.159049013966619E-05</v>
       </c>
       <c r="AD5">
-        <v>5.046178322602989E-05</v>
+        <v>4.597224388706356E-05</v>
       </c>
       <c r="AE5">
-        <v>4.267672103688241E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>9.610635233501976E-06</v>
+        <v>5.08813276923655E-06</v>
       </c>
       <c r="AG5">
-        <v>6.903743667734779E-07</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.657080888853191E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.631913161130329E-06</v>
+        <v>2.107007141671774E-06</v>
       </c>
       <c r="AJ5">
-        <v>2.979849872399047E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.308197480376648E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.135076427578051E-07</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>6.953755668949881E-06</v>
+        <v>2.429109346842151E-06</v>
       </c>
       <c r="AN5">
-        <v>1.64607633999341E-05</v>
+        <v>1.194378836009029E-05</v>
       </c>
       <c r="AO5">
-        <v>6.155613749558061E-07</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.141879076335742E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.196841877671129E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>2.822109868566563E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.280669631115413E-05</v>
+        <v>8.286772774702082E-06</v>
       </c>
       <c r="AT5">
-        <v>7.45081718102659E-06</v>
+        <v>2.926571941916747E-06</v>
       </c>
       <c r="AU5">
-        <v>2.709113965821191E-05</v>
+        <v>2.258274235588094E-05</v>
       </c>
       <c r="AV5">
-        <v>6.903743667734779E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.52979536146443E-05</v>
+        <v>2.078810937583434E-05</v>
       </c>
       <c r="AX5">
-        <v>1.897377046099064E-05</v>
+        <v>1.445882318708981E-05</v>
       </c>
       <c r="AY5">
-        <v>1.107559126909485E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.391306758099682E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.340461632568132E-05</v>
+        <v>8.885175255777366E-06</v>
       </c>
       <c r="BB5">
-        <v>5.655702437412112E-05</v>
+        <v>5.207240333506963E-05</v>
       </c>
       <c r="BC5">
-        <v>4.100329099622441E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.318498880626933E-05</v>
+        <v>2.868150868063699E-05</v>
       </c>
       <c r="BE5">
-        <v>0.0001063890725848509</v>
+        <v>0.000101944661432909</v>
       </c>
       <c r="BF5">
-        <v>4.615715712144381E-06</v>
+        <v>8.918280648055243E-08</v>
       </c>
       <c r="BG5">
-        <v>2.190298453215943E-05</v>
+        <v>1.73904008650408E-05</v>
       </c>
       <c r="BH5">
-        <v>5.024270722070717E-05</v>
+        <v>4.575299110752106E-05</v>
       </c>
       <c r="BI5">
-        <v>7.650176185870256E-06</v>
+        <v>3.126091811171307E-06</v>
       </c>
       <c r="BJ5">
-        <v>4.850724617854205E-05</v>
+        <v>4.401612970765252E-05</v>
       </c>
       <c r="BK5">
-        <v>1.01222882459332E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>3.141879076335742E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.418871107361803E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>2.536679261631682E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.52979536146443E-05</v>
+        <v>2.078810937583434E-05</v>
       </c>
       <c r="BP5">
-        <v>1.311087731854458E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>9.108457821300969E-07</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.695925089796958E-05</v>
+        <v>3.2458816255276E-05</v>
       </c>
       <c r="BS5">
-        <v>6.365076154647203E-05</v>
+        <v>5.917186450194068E-05</v>
       </c>
       <c r="BT5">
-        <v>3.528931085739638E-05</v>
+        <v>3.078752872643125E-05</v>
       </c>
       <c r="BU5">
-        <v>3.752447891170248E-05</v>
+        <v>3.302450035611428E-05</v>
       </c>
       <c r="BV5">
-        <v>5.170853125632113E-05</v>
+        <v>4.721999792853339E-05</v>
       </c>
       <c r="BW5">
-        <v>1.919631746639769E-05</v>
+        <v>1.468154976749499E-05</v>
       </c>
       <c r="BX5">
-        <v>5.486335133297129E-05</v>
+        <v>5.037736365529604E-05</v>
       </c>
       <c r="BY5">
-        <v>2.719569666075225E-05</v>
+        <v>2.268738372632145E-05</v>
       </c>
       <c r="BZ5">
-        <v>3.893571494599015E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.120302427219099E-05</v>
+        <v>6.681806719659665E-06</v>
       </c>
       <c r="CB5">
-        <v>1.41668413442005E-05</v>
+        <v>9.648015319895656E-06</v>
       </c>
       <c r="CC5">
-        <v>3.828478393017501E-05</v>
+        <v>3.378541887092219E-05</v>
       </c>
       <c r="CD5">
-        <v>1.03344322510875E-07</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.698153162739709E-05</v>
+        <v>6.250532220847519E-05</v>
       </c>
       <c r="CF5">
-        <v>2.422439858856098E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>4.370300906181732E-07</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>5.586261735724967E-05</v>
+        <v>5.137743599549904E-05</v>
       </c>
       <c r="CI5">
-        <v>2.190298453215943E-05</v>
+        <v>1.73904008650408E-05</v>
       </c>
       <c r="CJ5">
-        <v>8.952331217507685E-06</v>
+        <v>4.429297562349703E-06</v>
       </c>
       <c r="CK5">
-        <v>2.263139554985705E-05</v>
+        <v>1.811939964354383E-05</v>
       </c>
       <c r="CL5">
-        <v>7.477630581678054E-05</v>
+        <v>7.030638606487924E-05</v>
       </c>
       <c r="CM5">
-        <v>2.473433460095049E-05</v>
+        <v>2.022403557335045E-05</v>
       </c>
       <c r="CN5">
-        <v>0.1752804842586508</v>
+        <v>0.1754173892570633</v>
       </c>
       <c r="CO5">
-        <v>0.07912255192237783</v>
+        <v>0.07918186629903638</v>
       </c>
       <c r="CP5">
-        <v>0.1629125339581565</v>
+        <v>0.1630394591563557</v>
       </c>
       <c r="CQ5">
-        <v>0.006744789163872788</v>
+        <v>0.006745701332027617</v>
       </c>
       <c r="CR5">
-        <v>0.01999512348580564</v>
+        <v>0.02000672745705469</v>
       </c>
       <c r="CS5">
-        <v>5.112187124206753E-05</v>
+        <v>4.663286453351797E-05</v>
       </c>
       <c r="CT5">
-        <v>0.01276436831012572</v>
+        <v>0.01277013772590752</v>
       </c>
       <c r="CU5">
-        <v>0.01413287534337525</v>
+        <v>0.01413974901867059</v>
       </c>
       <c r="CV5">
-        <v>0.0001753533142604203</v>
+        <v>0.0001709645509189127</v>
       </c>
       <c r="CW5">
-        <v>0.01875609945570206</v>
+        <v>0.01876670364833141</v>
       </c>
       <c r="CX5">
-        <v>0.02370191457586661</v>
+        <v>0.02371650958715158</v>
       </c>
       <c r="CY5">
-        <v>0.05909107443568893</v>
+        <v>0.05913422524939351</v>
       </c>
       <c r="CZ5">
-        <v>0.0001380656333544711</v>
+        <v>0.0001336467822783902</v>
       </c>
       <c r="DA5">
-        <v>6.649601161560081E-07</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.001965795647761376</v>
+        <v>0.001962851606976767</v>
       </c>
       <c r="DC5">
-        <v>0.01668161040529985</v>
+        <v>0.01669054067575417</v>
       </c>
       <c r="DD5">
-        <v>0.007276304176786586</v>
+        <v>0.007277645228750807</v>
       </c>
       <c r="DE5">
-        <v>0.0006639270161309077</v>
+        <v>0.0006599324869038378</v>
       </c>
       <c r="DF5">
-        <v>0.01105066826848931</v>
+        <v>0.01105505488569694</v>
       </c>
       <c r="DG5">
-        <v>0.004265468703634707</v>
+        <v>0.00426438028784016</v>
       </c>
       <c r="DH5">
-        <v>0.02227898554129483</v>
+        <v>0.02229243237950846</v>
       </c>
       <c r="DI5">
-        <v>6.266932152262675E-05</v>
+        <v>5.818963254611627E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.04040113598159432</v>
+        <v>0.04042920573115825</v>
       </c>
       <c r="DK5">
-        <v>0.009079972220608877</v>
+        <v>0.009082768667063782</v>
       </c>
       <c r="DL5">
-        <v>0.01572418638203808</v>
+        <v>0.01573234409922048</v>
       </c>
       <c r="DM5">
-        <v>0.001306849131751476</v>
+        <v>0.001303373381635794</v>
       </c>
       <c r="DN5">
-        <v>0.01172266728481634</v>
+        <v>0.01172759614352425</v>
       </c>
       <c r="DO5">
-        <v>0.008832646214599792</v>
+        <v>0.008835243091678402</v>
       </c>
       <c r="DP5">
-        <v>0.01804978243854123</v>
+        <v>0.01805981669819485</v>
       </c>
       <c r="DQ5">
-        <v>0.0001578260338345739</v>
+        <v>0.0001534231275871941</v>
       </c>
       <c r="DR5">
-        <v>0.002237400554360345</v>
+        <v>0.002234675673795412</v>
       </c>
       <c r="DS5">
-        <v>0.0206331555013074</v>
+        <v>0.02064527430580607</v>
       </c>
       <c r="DT5">
-        <v>3.963367096294784E-05</v>
+        <v>3.513539433166977E-05</v>
       </c>
       <c r="DU5">
-        <v>0.007321144177876028</v>
+        <v>0.007322521411603723</v>
       </c>
       <c r="DV5">
-        <v>0.0004248082803212295</v>
+        <v>0.0004206208042312882</v>
       </c>
       <c r="DW5">
-        <v>0.02371617657621311</v>
+        <v>0.02373078309562276</v>
       </c>
       <c r="DX5">
-        <v>0.004195187301927135</v>
+        <v>0.004194042175494956</v>
       </c>
       <c r="DY5">
-        <v>0.0008201369199262158</v>
+        <v>0.0008162684377476328</v>
       </c>
       <c r="DZ5">
-        <v>0.003073192274666913</v>
+        <v>0.00307114180127422</v>
       </c>
       <c r="EA5">
-        <v>0.01114498727078091</v>
+        <v>0.0111494499947626</v>
       </c>
       <c r="EB5">
-        <v>0.002979189272382997</v>
+        <v>0.002977062947199227</v>
       </c>
       <c r="EC5">
-        <v>0.005739773139454712</v>
+        <v>0.005739874351962797</v>
       </c>
       <c r="ED5">
-        <v>0.001649303140071809</v>
+        <v>0.001646103718895219</v>
       </c>
       <c r="EE5">
-        <v>0.003630384388204567</v>
+        <v>0.003628783517683685</v>
       </c>
       <c r="EF5">
-        <v>0.0004316122104865393</v>
+        <v>0.0004274302245434748</v>
       </c>
       <c r="EG5">
-        <v>0.009690041235431239</v>
+        <v>0.009693329951561903</v>
       </c>
       <c r="EH5">
-        <v>0.001493134836277512</v>
+        <v>0.001489809401619815</v>
       </c>
       <c r="EI5">
-        <v>0.005115333124283188</v>
+        <v>0.00511493047103784</v>
       </c>
       <c r="EJ5">
-        <v>0.00492643911969378</v>
+        <v>0.004925884046331802</v>
       </c>
       <c r="EK5">
-        <v>0.01090187826487428</v>
+        <v>0.01090614482221154</v>
       </c>
       <c r="EL5">
-        <v>4.884847118683253E-06</v>
+        <v>3.585313773516794E-07</v>
       </c>
       <c r="EM5">
-        <v>0.01005615624432644</v>
+        <v>0.01005974038165101</v>
       </c>
       <c r="EN5">
-        <v>0.0007416515180193182</v>
+        <v>0.0007377197053282688</v>
       </c>
       <c r="EO5">
-        <v>0.0003000805272908184</v>
+        <v>0.0002957924073572287</v>
       </c>
       <c r="EP5">
-        <v>0.02090456350790159</v>
+        <v>0.02091690131373971</v>
       </c>
       <c r="EQ5">
-        <v>0.006188782550363936</v>
+        <v>0.00618924607223662</v>
       </c>
       <c r="ER5">
-        <v>0.005503671833718345</v>
+        <v>0.005503582534152555</v>
       </c>
       <c r="ES5">
-        <v>0.002432264059094789</v>
+        <v>0.002429696415484958</v>
       </c>
       <c r="ET5">
-        <v>0.001039083325245783</v>
+        <v>0.001035391512711677</v>
       </c>
       <c r="EU5">
-        <v>0.0007935220192795745</v>
+        <v>0.0007896320613200662</v>
       </c>
       <c r="EV5">
-        <v>0.006843145166262466</v>
+        <v>0.006844136698679746</v>
       </c>
       <c r="EW5">
-        <v>2.568741662410677E-06</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.008357551203056786</v>
+        <v>0.008359764722086381</v>
       </c>
       <c r="EY5">
-        <v>0.0004354692505802507</v>
+        <v>0.0004312903769143715</v>
       </c>
       <c r="EZ5">
-        <v>0.006948258468816321</v>
+        <v>0.006949334818016799</v>
       </c>
       <c r="FA5">
-        <v>0.002718885066058592</v>
+        <v>0.002716548699282588</v>
       </c>
       <c r="FB5">
-        <v>0.001236395130039711</v>
+        <v>0.001232862530014042</v>
       </c>
       <c r="FC5">
-        <v>0.0006434047156322936</v>
+        <v>0.0006393936267931686</v>
       </c>
       <c r="FD5">
-        <v>0.0020320497493711</v>
+        <v>0.002029159169562748</v>
       </c>
       <c r="FE5">
-        <v>0.0007961332593430177</v>
+        <v>0.0007922454084144651</v>
       </c>
       <c r="FF5">
-        <v>0.002444460359391113</v>
+        <v>0.002441902557075703</v>
       </c>
       <c r="FG5">
-        <v>0.001553380237741247</v>
+        <v>0.001550103415590536</v>
       </c>
       <c r="FH5">
-        <v>0.004615872712148195</v>
+        <v>0.004615067040212893</v>
       </c>
       <c r="FI5">
-        <v>0.005130802124659026</v>
+        <v>0.005130411953476552</v>
       </c>
       <c r="FJ5">
-        <v>0.001162992328256301</v>
+        <v>0.001159400498909759</v>
       </c>
       <c r="FK5">
-        <v>5.937754144264899E-05</v>
+        <v>5.489519630187959E-05</v>
       </c>
       <c r="FL5">
-        <v>0.0009171431222830983</v>
+        <v>0.0009133529152022841</v>
       </c>
       <c r="FM5">
-        <v>0.001487949636151531</v>
+        <v>0.001484620017513461</v>
       </c>
       <c r="FN5">
-        <v>6.978981169562764E-05</v>
+        <v>6.531586830085226E-05</v>
       </c>
       <c r="FO5">
-        <v>0.001934438146999508</v>
+        <v>0.001931468803591166</v>
       </c>
       <c r="FP5">
-        <v>0.0006644440761434703</v>
+        <v>0.0006604499641363517</v>
       </c>
       <c r="FQ5">
-        <v>0.002572796562509196</v>
+        <v>0.002570342315725312</v>
       </c>
       <c r="FR5">
-        <v>0.0002275418255284031</v>
+        <v>0.0002231951735233117</v>
       </c>
       <c r="FS5">
-        <v>0.003204644477860703</v>
+        <v>0.003202700074325472</v>
       </c>
       <c r="FT5">
-        <v>2.966438172073193E-05</v>
+        <v>2.515806078845909E-05</v>
       </c>
       <c r="FU5">
-        <v>0.003594478187332183</v>
+        <v>0.003592848343804261</v>
       </c>
       <c r="FV5">
-        <v>4.651758813020091E-05</v>
+        <v>4.202486618796547E-05</v>
       </c>
       <c r="FW5">
-        <v>0.0005108607724119787</v>
+        <v>0.0005067427327814388</v>
       </c>
       <c r="FX5">
-        <v>6.226668651284426E-05</v>
+        <v>5.778667264685258E-05</v>
       </c>
       <c r="FY5">
-        <v>0.003018073573327738</v>
+        <v>0.003015978624204304</v>
       </c>
       <c r="FZ5">
-        <v>7.873863191305002E-05</v>
+        <v>7.427190939447033E-05</v>
       </c>
       <c r="GA5">
-        <v>9.919084840996129E-05</v>
+        <v>9.474062895208273E-05</v>
       </c>
       <c r="GB5">
-        <v>0.001804505443842636</v>
+        <v>0.001801431256673836</v>
       </c>
       <c r="GC5">
-        <v>0.002401906558357217</v>
+        <v>0.002399314419031849</v>
       </c>
       <c r="GD5">
-        <v>0.0005396206531107346</v>
+        <v>0.0005355258200630608</v>
       </c>
       <c r="GE5">
-        <v>6.953755668949881E-06</v>
+        <v>2.429109346842151E-06</v>
       </c>
       <c r="GF5">
-        <v>0.0008719007211838796</v>
+        <v>0.0008680740076397333</v>
       </c>
       <c r="GG5">
-        <v>4.12732380027831E-05</v>
+        <v>3.677628435155397E-05</v>
       </c>
       <c r="GH5">
-        <v>0.007256170876297424</v>
+        <v>0.007257495682536877</v>
       </c>
       <c r="GI5">
-        <v>0.002805448668161759</v>
+        <v>0.002803182150264004</v>
       </c>
       <c r="GJ5">
-        <v>2.057283449984183E-05</v>
+        <v>1.605917752378731E-05</v>
       </c>
       <c r="GK5">
-        <v>0.0006775196164611563</v>
+        <v>0.000673536055214421</v>
       </c>
       <c r="GL5">
-        <v>0.002941143071458618</v>
+        <v>0.002938986046484271</v>
       </c>
       <c r="GM5">
-        <v>9.548524231992915E-06</v>
+        <v>5.025971649852575E-06</v>
       </c>
       <c r="GN5">
-        <v>0.001285729331238345</v>
+        <v>0.001282236539382962</v>
       </c>
       <c r="GO5">
-        <v>0.002077743650481288</v>
+        <v>0.002074889941455319</v>
       </c>
       <c r="GP5">
-        <v>5.091699823708988E-06</v>
+        <v>5.655509935162519E-07</v>
       </c>
       <c r="GQ5">
-        <v>6.275488152470553E-05</v>
+        <v>5.827526158726024E-05</v>
       </c>
       <c r="GR5">
-        <v>0.001433671634832782</v>
+        <v>0.00143029821883169</v>
       </c>
       <c r="GS5">
-        <v>8.709210211600767E-06</v>
+        <v>4.185980380115451E-06</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.259257164584527E-07</v>
+        <v>2.343182137426792E-07</v>
       </c>
       <c r="C6">
-        <v>6.426200414226566E-06</v>
+        <v>5.735313868082875E-06</v>
       </c>
       <c r="D6">
-        <v>1.082269319237481E-06</v>
+        <v>3.906823094887173E-07</v>
       </c>
       <c r="E6">
-        <v>4.974041088414241E-06</v>
+        <v>4.282964198357348E-06</v>
       </c>
       <c r="F6">
-        <v>5.556743498771854E-05</v>
+        <v>5.488298970096148E-05</v>
       </c>
       <c r="G6">
-        <v>6.065479607814706E-05</v>
+        <v>5.997101762470547E-05</v>
       </c>
       <c r="H6">
-        <v>2.533682645036546E-06</v>
+        <v>1.842285881417938E-06</v>
       </c>
       <c r="I6">
-        <v>7.818735138979054E-06</v>
+        <v>7.128031121366543E-06</v>
       </c>
       <c r="J6">
-        <v>7.22360112840047E-05</v>
+        <v>7.155375085532989E-05</v>
       </c>
       <c r="K6">
-        <v>1.75501813119568E-05</v>
+        <v>1.686075285792244E-05</v>
       </c>
       <c r="L6">
-        <v>1.619266428782676E-06</v>
+        <v>9.277498067175444E-07</v>
       </c>
       <c r="M6">
-        <v>1.554409627629838E-05</v>
+        <v>1.485440487172607E-05</v>
       </c>
       <c r="N6">
-        <v>3.148792055970197E-05</v>
+        <v>3.0800319015279E-05</v>
       </c>
       <c r="O6">
-        <v>4.631898382332609E-06</v>
+        <v>3.94077664541877E-06</v>
       </c>
       <c r="P6">
-        <v>6.916382122939611E-07</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.144201920338341E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>4.631950082333528E-09</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.070826219034078E-06</v>
+        <v>3.792377093641742E-07</v>
       </c>
       <c r="T6">
-        <v>0.0001123136719963904</v>
+        <v>0.0001116366648058668</v>
       </c>
       <c r="U6">
-        <v>6.211232110405476E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>7.028258124928222E-06</v>
+        <v>6.337450494381871E-06</v>
       </c>
       <c r="W6">
-        <v>9.125970162215331E-05</v>
+        <v>9.057993475158755E-05</v>
       </c>
       <c r="X6">
-        <v>9.015405160250023E-05</v>
+        <v>8.947413980723673E-05</v>
       </c>
       <c r="Y6">
-        <v>1.975788735119907E-05</v>
+        <v>1.906874827547137E-05</v>
       </c>
       <c r="Z6">
-        <v>7.076042625777598E-06</v>
+        <v>6.385241258654771E-06</v>
       </c>
       <c r="AA6">
-        <v>0.0001023929158200477</v>
+        <v>0.0001017146082518596</v>
       </c>
       <c r="AB6">
-        <v>0.0001080488519205827</v>
+        <v>0.0001073712857125133</v>
       </c>
       <c r="AC6">
-        <v>2.339455641584135E-05</v>
+        <v>2.270589402184442E-05</v>
       </c>
       <c r="AD6">
-        <v>2.255987440100476E-05</v>
+        <v>2.187110259983869E-05</v>
       </c>
       <c r="AE6">
-        <v>5.398227095954203E-05</v>
+        <v>5.329761789508536E-05</v>
       </c>
       <c r="AF6">
-        <v>5.76681710250594E-05</v>
+        <v>5.698400109535913E-05</v>
       </c>
       <c r="AG6">
-        <v>1.679648129855968E-06</v>
+        <v>9.881394224108542E-07</v>
       </c>
       <c r="AH6">
-        <v>9.562799169980026E-08</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.949474387977565E-06</v>
+        <v>4.258394277804387E-06</v>
       </c>
       <c r="AJ6">
-        <v>1.277562722708847E-05</v>
+        <v>1.208557294137562E-05</v>
       </c>
       <c r="AK6">
-        <v>2.406431942774647E-08</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.75501813119568E-05</v>
+        <v>1.686075285792244E-05</v>
       </c>
       <c r="AM6">
-        <v>4.914645687358479E-07</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.947549052393076E-06</v>
+        <v>2.256206536920741E-06</v>
       </c>
       <c r="AO6">
-        <v>5.921510505255636E-06</v>
+        <v>5.230557806142007E-06</v>
       </c>
       <c r="AP6">
-        <v>6.738685119781023E-05</v>
+        <v>6.670395515836591E-05</v>
       </c>
       <c r="AQ6">
-        <v>3.55178276313341E-05</v>
+        <v>3.483075431289034E-05</v>
       </c>
       <c r="AR6">
-        <v>5.369991495452313E-06</v>
+        <v>4.678966505175678E-06</v>
       </c>
       <c r="AS6">
-        <v>4.725051683988421E-05</v>
+        <v>4.656498140088428E-05</v>
       </c>
       <c r="AT6">
-        <v>5.257986493461408E-05</v>
+        <v>5.189502804773108E-05</v>
       </c>
       <c r="AU6">
-        <v>3.330485259199818E-05</v>
+        <v>3.261748920460584E-05</v>
       </c>
       <c r="AV6">
-        <v>2.372984842180121E-05</v>
+        <v>2.304122997669566E-05</v>
       </c>
       <c r="AW6">
-        <v>3.763708766900423E-06</v>
+        <v>3.072473230759554E-06</v>
       </c>
       <c r="AX6">
-        <v>3.651940764913732E-06</v>
+        <v>2.960690578618096E-06</v>
       </c>
       <c r="AY6">
-        <v>2.250338940000073E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.329995094741371E-07</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>4.312184776649657E-08</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>7.388224131326664E-06</v>
+        <v>6.697463683852486E-06</v>
       </c>
       <c r="BC6">
-        <v>2.496418544374171E-05</v>
+        <v>2.427572879117145E-05</v>
       </c>
       <c r="BD6">
-        <v>2.841081250500596E-05</v>
+        <v>2.772280762413219E-05</v>
       </c>
       <c r="BE6">
-        <v>8.70913715480607E-07</v>
+        <v>1.792990019861311E-07</v>
       </c>
       <c r="BF6">
-        <v>2.335378741511667E-06</v>
+        <v>1.643955984918095E-06</v>
       </c>
       <c r="BG6">
-        <v>1.394220524782455E-05</v>
+        <v>1.325230387303654E-05</v>
       </c>
       <c r="BH6">
-        <v>2.174035438643769E-05</v>
+        <v>2.105147516548389E-05</v>
       </c>
       <c r="BI6">
-        <v>2.269793540345882E-05</v>
+        <v>2.20091816988411E-05</v>
       </c>
       <c r="BJ6">
-        <v>1.011602517981369E-06</v>
+        <v>3.20006245477999E-07</v>
       </c>
       <c r="BK6">
-        <v>6.014389606906574E-10</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.836430232642791E-05</v>
+        <v>1.767498058449942E-05</v>
       </c>
       <c r="BM6">
-        <v>1.040725318499031E-05</v>
+        <v>9.716888461176703E-06</v>
       </c>
       <c r="BN6">
-        <v>7.915544540699855E-07</v>
+        <v>9.992933844394093E-08</v>
       </c>
       <c r="BO6">
-        <v>2.867285050966373E-09</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.092769437199255E-06</v>
+        <v>1.401314880235337E-06</v>
       </c>
       <c r="BQ6">
-        <v>1.687710129999272E-07</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.401344942684225E-05</v>
+        <v>2.332486815515434E-05</v>
       </c>
       <c r="BS6">
-        <v>1.954945034749408E-05</v>
+        <v>1.886028395058044E-05</v>
       </c>
       <c r="BT6">
-        <v>9.562799169980026E-08</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.593252581645674E-06</v>
+        <v>3.902125779176838E-06</v>
       </c>
       <c r="BV6">
-        <v>4.606110081874218E-05</v>
+        <v>4.537540947529302E-05</v>
       </c>
       <c r="BW6">
-        <v>3.762375066876717E-05</v>
+        <v>3.693695338727385E-05</v>
       </c>
       <c r="BX6">
-        <v>3.067331654522228E-06</v>
+        <v>2.376004839730127E-06</v>
       </c>
       <c r="BY6">
-        <v>2.072141836832597E-05</v>
+        <v>2.003240558883934E-05</v>
       </c>
       <c r="BZ6">
-        <v>2.862469250880771E-05</v>
+        <v>2.793671566256908E-05</v>
       </c>
       <c r="CA6">
-        <v>6.207377410336958E-06</v>
+        <v>5.516462181647132E-06</v>
       </c>
       <c r="CB6">
-        <v>2.694211847889973E-05</v>
+        <v>2.625392108680267E-05</v>
       </c>
       <c r="CC6">
-        <v>1.33729072377052E-06</v>
+        <v>6.45737141326341E-07</v>
       </c>
       <c r="CD6">
-        <v>5.601779799572379E-08</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>9.083418161458963E-06</v>
+        <v>8.392879914028264E-06</v>
       </c>
       <c r="CF6">
-        <v>1.504695126746156E-05</v>
+        <v>1.435719469887816E-05</v>
       </c>
       <c r="CG6">
-        <v>2.352263441811795E-06</v>
+        <v>1.660842898405076E-06</v>
       </c>
       <c r="CH6">
-        <v>9.086919761521206E-07</v>
+        <v>2.170822144985635E-07</v>
       </c>
       <c r="CI6">
-        <v>2.174035438643769E-05</v>
+        <v>2.105147516548389E-05</v>
       </c>
       <c r="CJ6">
-        <v>4.885117086833604E-06</v>
+        <v>4.1940285409328E-06</v>
       </c>
       <c r="CK6">
-        <v>1.679648129855968E-06</v>
+        <v>9.881394224108542E-07</v>
       </c>
       <c r="CL6">
-        <v>3.521132462588597E-06</v>
+        <v>2.829865130402906E-06</v>
       </c>
       <c r="CM6">
-        <v>8.024625142638777E-05</v>
+        <v>7.956504095168653E-05</v>
       </c>
       <c r="CN6">
-        <v>0.1585306428179032</v>
+        <v>0.1585507307255237</v>
       </c>
       <c r="CO6">
-        <v>0.0383743686821095</v>
+        <v>0.03837870692989018</v>
       </c>
       <c r="CP6">
-        <v>0.2013548235791087</v>
+        <v>0.2013805247290235</v>
       </c>
       <c r="CQ6">
-        <v>0.004156331073879337</v>
+        <v>0.004156184142200258</v>
       </c>
       <c r="CR6">
-        <v>0.03084990054836108</v>
+        <v>0.0308532525154466</v>
       </c>
       <c r="CS6">
-        <v>0.0001648163729296329</v>
+        <v>0.0001641462476076286</v>
       </c>
       <c r="CT6">
-        <v>0.01016076718060899</v>
+        <v>0.01016140728919802</v>
       </c>
       <c r="CU6">
-        <v>0.004250412075551639</v>
+        <v>0.004250277475677822</v>
       </c>
       <c r="CV6">
-        <v>0.002114353737582919</v>
+        <v>0.002113939150729955</v>
       </c>
       <c r="CW6">
-        <v>0.01848164432851368</v>
+        <v>0.01848337510827732</v>
       </c>
       <c r="CX6">
-        <v>0.01376060224459653</v>
+        <v>0.01376171420684568</v>
       </c>
       <c r="CY6">
-        <v>0.06467237114956</v>
+        <v>0.06468015644657973</v>
       </c>
       <c r="CZ6">
-        <v>0.002283073040581927</v>
+        <v>0.002282680568859028</v>
       </c>
       <c r="DA6">
-        <v>4.821180585697125E-06</v>
+        <v>4.130083659225671E-06</v>
       </c>
       <c r="DB6">
-        <v>0.003586095363743322</v>
+        <v>0.003585873687582294</v>
       </c>
       <c r="DC6">
-        <v>0.01297752223067718</v>
+        <v>0.01297853154956513</v>
       </c>
       <c r="DD6">
-        <v>0.008666693154051622</v>
+        <v>0.008667137424696582</v>
       </c>
       <c r="DE6">
-        <v>0.002121031537701617</v>
+        <v>0.002120617826151097</v>
       </c>
       <c r="DF6">
-        <v>0.009887628175753905</v>
+        <v>0.009888232482247319</v>
       </c>
       <c r="DG6">
-        <v>0.007338533730443411</v>
+        <v>0.007338803910644195</v>
       </c>
       <c r="DH6">
-        <v>0.02428855443173228</v>
+        <v>0.02429104636075345</v>
       </c>
       <c r="DI6">
-        <v>0.0002289436140695032</v>
+        <v>0.0002282818943196729</v>
       </c>
       <c r="DJ6">
-        <v>0.04493844579878684</v>
+        <v>0.04494364444260171</v>
       </c>
       <c r="DK6">
-        <v>0.009516017169148469</v>
+        <v>0.00951657276618423</v>
       </c>
       <c r="DL6">
-        <v>0.01242924522093149</v>
+        <v>0.01243018267360634</v>
       </c>
       <c r="DM6">
-        <v>0.001082530119242117</v>
+        <v>0.001081980284595224</v>
       </c>
       <c r="DN6">
-        <v>0.01450098225775689</v>
+        <v>0.01450219126640201</v>
       </c>
       <c r="DO6">
-        <v>0.006311567112188944</v>
+        <v>0.006311702681234209</v>
       </c>
       <c r="DP6">
-        <v>0.01514896526927487</v>
+        <v>0.01515025921324349</v>
       </c>
       <c r="DQ6">
-        <v>0.000285957245082928</v>
+        <v>0.0002853029984783925</v>
       </c>
       <c r="DR6">
-        <v>0.0007424477531971075</v>
+        <v>0.0007418533417553598</v>
       </c>
       <c r="DS6">
-        <v>0.01965732334941154</v>
+        <v>0.01965920823302695</v>
       </c>
       <c r="DT6">
-        <v>7.817984138965707E-05</v>
+        <v>7.74983600572299E-05</v>
       </c>
       <c r="DU6">
-        <v>0.009669515171876917</v>
+        <v>0.009670090888888488</v>
       </c>
       <c r="DV6">
-        <v>9.853064675139534E-06</v>
+        <v>9.162627310254291E-06</v>
       </c>
       <c r="DW6">
-        <v>0.02746647048822016</v>
+        <v>0.0274693789672488</v>
       </c>
       <c r="DX6">
-        <v>0.003473365061739525</v>
+        <v>0.003473128609288846</v>
       </c>
       <c r="DY6">
-        <v>7.577169634685197E-06</v>
+        <v>6.886433953519958E-06</v>
       </c>
       <c r="DZ6">
-        <v>0.006094423708329191</v>
+        <v>0.006094530814984357</v>
       </c>
       <c r="EA6">
-        <v>0.00936936516654171</v>
+        <v>0.009369901540951166</v>
       </c>
       <c r="EB6">
-        <v>0.004797968585284529</v>
+        <v>0.004797905757183209</v>
       </c>
       <c r="EC6">
-        <v>0.004777886484927567</v>
+        <v>0.004777821024535493</v>
       </c>
       <c r="ED6">
-        <v>0.003249598257762041</v>
+        <v>0.003249332474749379</v>
       </c>
       <c r="EE6">
-        <v>0.00309655405504166</v>
+        <v>0.003096268211535689</v>
       </c>
       <c r="EF6">
-        <v>3.09398645499602E-05</v>
+        <v>3.025219116829204E-05</v>
       </c>
       <c r="EG6">
-        <v>0.009899176175959172</v>
+        <v>0.009899781996123647</v>
       </c>
       <c r="EH6">
-        <v>0.001121432319933608</v>
+        <v>0.001120887584449721</v>
       </c>
       <c r="EI6">
-        <v>0.007267549729181662</v>
+        <v>0.007267810605050383</v>
       </c>
       <c r="EJ6">
-        <v>0.002869321351002568</v>
+        <v>0.002869005722636682</v>
       </c>
       <c r="EK6">
-        <v>0.01193474421214166</v>
+        <v>0.01193561684737161</v>
       </c>
       <c r="EL6">
-        <v>0.0001210909561524078</v>
+        <v>0.0001204150994572767</v>
       </c>
       <c r="EM6">
-        <v>0.0134458012390009</v>
+        <v>0.01344687193824659</v>
       </c>
       <c r="EN6">
-        <v>0.002973446052853398</v>
+        <v>0.002973144072785505</v>
       </c>
       <c r="EO6">
-        <v>0.0001792791331867104</v>
+        <v>0.0001786109035922162</v>
       </c>
       <c r="EP6">
-        <v>0.01829031332511275</v>
+        <v>0.01829201902588453</v>
       </c>
       <c r="EQ6">
-        <v>0.01062640018888567</v>
+        <v>0.01062710133100411</v>
       </c>
       <c r="ER6">
-        <v>0.005600988099558307</v>
+        <v>0.005601030528417437</v>
       </c>
       <c r="ES6">
-        <v>0.004852401086252074</v>
+        <v>0.004852345392970643</v>
       </c>
       <c r="ET6">
-        <v>0.0008795249156336722</v>
+        <v>0.0008789484717820126</v>
       </c>
       <c r="EU6">
-        <v>0.0006569798116779034</v>
+        <v>0.0006563741974003836</v>
       </c>
       <c r="EV6">
-        <v>0.009170968163015178</v>
+        <v>0.00917147853224645</v>
       </c>
       <c r="EW6">
-        <v>0.0007789628138461674</v>
+        <v>0.0007783731886695432</v>
       </c>
       <c r="EX6">
-        <v>0.00834916014840743</v>
+        <v>0.008349562797948018</v>
       </c>
       <c r="EY6">
-        <v>7.140467126922752E-05</v>
+        <v>7.072230187144114E-05</v>
       </c>
       <c r="EZ6">
-        <v>0.008881456157869063</v>
+        <v>0.008881928578889696</v>
       </c>
       <c r="FA6">
-        <v>0.003511097362410222</v>
+        <v>0.003510865855776187</v>
       </c>
       <c r="FB6">
-        <v>0.001353568624059862</v>
+        <v>0.001353054316182463</v>
       </c>
       <c r="FC6">
-        <v>8.970818659457493E-05</v>
+        <v>8.902821635690165E-05</v>
       </c>
       <c r="FD6">
-        <v>0.00270746954812563</v>
+        <v>0.002707132704797329</v>
       </c>
       <c r="FE6">
-        <v>0.000579793310305903</v>
+        <v>0.000579177578694523</v>
       </c>
       <c r="FF6">
-        <v>0.00261853964654489</v>
+        <v>0.002618191146599324</v>
       </c>
       <c r="FG6">
-        <v>0.0008547410151931351</v>
+        <v>0.0008541613227553799</v>
       </c>
       <c r="FH6">
-        <v>0.003508311762360707</v>
+        <v>0.00350807989060006</v>
       </c>
       <c r="FI6">
-        <v>0.003976817270688455</v>
+        <v>0.003976646808974368</v>
       </c>
       <c r="FJ6">
-        <v>0.00193292283435796</v>
+        <v>0.00193248446618329</v>
       </c>
       <c r="FK6">
-        <v>0.0004492977079863264</v>
+        <v>0.0004486648714725024</v>
       </c>
       <c r="FL6">
-        <v>0.0004188392274449229</v>
+        <v>0.0004182023985410949</v>
       </c>
       <c r="FM6">
-        <v>0.001437035925543504</v>
+        <v>0.00143653255826505</v>
       </c>
       <c r="FN6">
-        <v>0.0002198145439072327</v>
+        <v>0.0002191516275511433</v>
       </c>
       <c r="FO6">
-        <v>0.00186588703316639</v>
+        <v>0.001865439878175772</v>
       </c>
       <c r="FP6">
-        <v>0.0002056859036560943</v>
+        <v>0.0002050211353677645</v>
       </c>
       <c r="FQ6">
-        <v>0.002285320340621873</v>
+        <v>0.002284928163467122</v>
       </c>
       <c r="FR6">
-        <v>0.0003864541468692737</v>
+        <v>0.0003858130730435171</v>
       </c>
       <c r="FS6">
-        <v>0.00377803926715515</v>
+        <v>0.003777842750322745</v>
       </c>
       <c r="FT6">
-        <v>7.879177540053427E-05</v>
+        <v>7.811037427825496E-05</v>
       </c>
       <c r="FU6">
-        <v>0.003446051461254022</v>
+        <v>0.003445811428633104</v>
       </c>
       <c r="FV6">
-        <v>0.0001141667220293287</v>
+        <v>0.0001134899577300556</v>
       </c>
       <c r="FW6">
-        <v>0.0005024592089312792</v>
+        <v>0.0005018333406391521</v>
       </c>
       <c r="FX6">
-        <v>2.867381250968082E-06</v>
+        <v>2.176028227383611E-06</v>
       </c>
       <c r="FY6">
-        <v>0.002666279747393477</v>
+        <v>0.00266593750505164</v>
       </c>
       <c r="FZ6">
-        <v>0.0003265676258047829</v>
+        <v>0.0003259187022654551</v>
       </c>
       <c r="GA6">
-        <v>0.0001066595818958882</v>
+        <v>0.0001059818335872131</v>
       </c>
       <c r="GB6">
-        <v>0.00146689482607425</v>
+        <v>0.001466395372594971</v>
       </c>
       <c r="GC6">
-        <v>0.002895810951473424</v>
+        <v>0.002895498795270766</v>
       </c>
       <c r="GD6">
-        <v>0.000525234159336107</v>
+        <v>0.0005246112763040034</v>
       </c>
       <c r="GE6">
-        <v>6.298454111955859E-07</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0005022120389268857</v>
+        <v>0.0005015861382365879</v>
       </c>
       <c r="GG6">
-        <v>1.012826418003124E-05</v>
+        <v>9.437862887324678E-06</v>
       </c>
       <c r="GH6">
-        <v>0.006757256720111135</v>
+        <v>0.006757450708575355</v>
       </c>
       <c r="GI6">
-        <v>0.003873177868846251</v>
+        <v>0.003872993822445582</v>
       </c>
       <c r="GJ6">
-        <v>3.240984057608922E-05</v>
+        <v>3.172235987368437E-05</v>
       </c>
       <c r="GK6">
-        <v>0.0001754142031180108</v>
+        <v>0.0001747454669221399</v>
       </c>
       <c r="GL6">
-        <v>0.003331808159223332</v>
+        <v>0.003331553151994064</v>
       </c>
       <c r="GM6">
-        <v>0.0002054279236515086</v>
+        <v>0.0002047631215480714</v>
       </c>
       <c r="GN6">
-        <v>0.0009964614177122341</v>
+        <v>0.00099590030148407</v>
       </c>
       <c r="GO6">
-        <v>0.002373564542190425</v>
+        <v>0.002373183931773804</v>
       </c>
       <c r="GP6">
-        <v>7.028258124928222E-06</v>
+        <v>6.337450494381871E-06</v>
       </c>
       <c r="GQ6">
-        <v>0.000345387126139302</v>
+        <v>0.000344740669393579</v>
       </c>
       <c r="GR6">
-        <v>0.001995459235469553</v>
+        <v>0.001995029064345367</v>
       </c>
       <c r="GS6">
-        <v>0.0003084689454830764</v>
+        <v>0.000307817649632684</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.475609866214376E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.341337637527513E-06</v>
+        <v>6.819535197716296E-06</v>
       </c>
       <c r="D2">
-        <v>2.126923054096477E-05</v>
+        <v>1.697425074148553E-05</v>
       </c>
       <c r="E2">
-        <v>3.216834336648061E-05</v>
+        <v>2.60998578689872E-05</v>
       </c>
       <c r="F2">
-        <v>4.548711737526537E-05</v>
+        <v>3.764589842211378E-05</v>
       </c>
       <c r="G2">
-        <v>7.40724125403603E-05</v>
+        <v>6.446333248903054E-05</v>
       </c>
       <c r="H2">
-        <v>9.410921505797904E-05</v>
+        <v>8.272954563058335E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001071122780428514</v>
+        <v>9.3959774399647E-05</v>
       </c>
       <c r="J2">
-        <v>0.0001152033856556845</v>
+        <v>0.000100276480130911</v>
       </c>
       <c r="K2">
-        <v>0.0001217654277527038</v>
+        <v>0.000105063632340369</v>
       </c>
       <c r="L2">
-        <v>0.0001253269017224554</v>
+        <v>0.0001068492587819542</v>
       </c>
       <c r="M2">
-        <v>0.0001287260322799109</v>
+        <v>0.0001084724899988407</v>
       </c>
       <c r="N2">
-        <v>0.0001287326534404124</v>
+        <v>0.0001084724899988407</v>
       </c>
       <c r="O2">
-        <v>0.000130509070674961</v>
+        <v>0.0001084724899988407</v>
       </c>
       <c r="P2">
-        <v>0.00013058022018035</v>
+        <v>0.0001084724899988407</v>
       </c>
       <c r="Q2">
-        <v>0.0001331207528727739</v>
+        <v>0.0001092368493265294</v>
       </c>
       <c r="R2">
-        <v>0.0001414010884999395</v>
+        <v>0.0001157428434648323</v>
       </c>
       <c r="S2">
-        <v>0.0001538638384438876</v>
+        <v>0.0001264325867503924</v>
       </c>
       <c r="T2">
-        <v>0.0001685699705577531</v>
+        <v>0.0001393664281882331</v>
       </c>
       <c r="U2">
-        <v>0.0001860671798830191</v>
+        <v>0.0001550922376184052</v>
       </c>
       <c r="V2">
-        <v>0.0002039303152360009</v>
+        <v>0.0001711840898627176</v>
       </c>
       <c r="W2">
-        <v>0.0002246586018059937</v>
+        <v>0.0001901420077459201</v>
       </c>
       <c r="X2">
-        <v>0.0002547808740875017</v>
+        <v>0.0002184969094602538</v>
       </c>
       <c r="Y2">
-        <v>0.0002888454366676049</v>
+        <v>0.0002507953596673338</v>
       </c>
       <c r="Z2">
-        <v>0.0003103737362981919</v>
+        <v>0.0002705535459377751</v>
       </c>
       <c r="AA2">
-        <v>0.0003321044059441068</v>
+        <v>0.0002905141668105609</v>
       </c>
       <c r="AB2">
-        <v>0.000357639635878185</v>
+        <v>0.0003142805622087019</v>
       </c>
       <c r="AC2">
-        <v>0.0003701023858221332</v>
+        <v>0.000324970305494262</v>
       </c>
       <c r="AD2">
-        <v>0.0003737897737014217</v>
+        <v>0.000326881886031198</v>
       </c>
       <c r="AE2">
-        <v>0.0003752880449149031</v>
+        <v>0.000326881886031198</v>
       </c>
       <c r="AF2">
-        <v>0.0003755900801977798</v>
+        <v>0.000326881886031198</v>
       </c>
       <c r="AG2">
-        <v>0.0003755915133400883</v>
+        <v>0.000326881886031198</v>
       </c>
       <c r="AH2">
-        <v>0.0003760101843317991</v>
+        <v>0.000326881886031198</v>
       </c>
       <c r="AI2">
-        <v>0.0003787978103429383</v>
+        <v>0.0003278934175381995</v>
       </c>
       <c r="AJ2">
-        <v>0.0003847080934905923</v>
+        <v>0.0003320286027874063</v>
       </c>
       <c r="AK2">
-        <v>0.0003883521591665996</v>
+        <v>0.0003338968472946457</v>
       </c>
       <c r="AL2">
-        <v>0.0003966927072983257</v>
+        <v>0.0003404630731545164</v>
       </c>
       <c r="AM2">
-        <v>0.0004071651150915223</v>
+        <v>0.000349161839065467</v>
       </c>
       <c r="AN2">
-        <v>0.000426050291521915</v>
+        <v>0.0003662760585747635</v>
       </c>
       <c r="AO2">
-        <v>0.0004379781844253523</v>
+        <v>0.0003764307741185328</v>
       </c>
       <c r="AP2">
-        <v>0.0004466999950859559</v>
+        <v>0.0003833783841883971</v>
       </c>
       <c r="AQ2">
-        <v>0.0004543035791618632</v>
+        <v>0.0003892074107880894</v>
       </c>
       <c r="AR2">
-        <v>0.0004600041825936358</v>
+        <v>0.0003931328494014845</v>
       </c>
       <c r="AS2">
-        <v>0.0004658091520333133</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AT2">
-        <v>0.0004672798545447066</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AU2">
-        <v>0.0004672806060502635</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AV2">
-        <v>0.0004673055556871532</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AW2">
-        <v>0.0004673161909344587</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AX2">
-        <v>0.0004683734427145366</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AY2">
-        <v>0.0004693007289847707</v>
+        <v>0.0003971626873315187</v>
       </c>
       <c r="AZ2">
-        <v>0.0004763762715206834</v>
+        <v>0.0004024635038651246</v>
       </c>
       <c r="BA2">
-        <v>0.0004802326678127729</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BB2">
-        <v>0.0004807882723148552</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BC2">
-        <v>0.0004816741301119515</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BD2">
-        <v>0.0004824799712729872</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BE2">
-        <v>0.0004831023383201262</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BF2">
-        <v>0.0004831623544146719</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BG2">
-        <v>0.0004835676198853673</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BH2">
-        <v>0.0004835700376160505</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BI2">
-        <v>0.0004837190073873337</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BJ2">
-        <v>0.0004840087353092781</v>
+        <v>0.0004045441467544196</v>
       </c>
       <c r="BK2">
-        <v>0.0004876528009852854</v>
+        <v>0.0004064123912616591</v>
       </c>
       <c r="BL2">
-        <v>0.0004951368711521405</v>
+        <v>0.0004121218658090653</v>
       </c>
       <c r="BM2">
-        <v>0.0005032279787649737</v>
+        <v>0.0004184385715403293</v>
       </c>
       <c r="BN2">
-        <v>0.0005069555828473082</v>
+        <v>0.000420390381115437</v>
       </c>
       <c r="BO2">
-        <v>0.0005127605522869857</v>
+        <v>0.0004244202190454713</v>
       </c>
       <c r="BP2">
-        <v>0.0005243897741678012</v>
+        <v>0.0004342761682448374</v>
       </c>
       <c r="BQ2">
-        <v>0.0005311766426818492</v>
+        <v>0.000439288218625371</v>
       </c>
       <c r="BR2">
-        <v>0.0005350741639770536</v>
+        <v>0.000441409999642953</v>
       </c>
       <c r="BS2">
-        <v>0.0005360216719488193</v>
+        <v>0.000441409999642953</v>
       </c>
       <c r="BT2">
-        <v>0.0005360665784092206</v>
+        <v>0.000441409999642953</v>
       </c>
       <c r="BU2">
-        <v>0.0005372623161997876</v>
+        <v>0.000441409999642953</v>
       </c>
       <c r="BV2">
-        <v>0.0005408666200727832</v>
+        <v>0.0004432384696570783</v>
       </c>
       <c r="BW2">
-        <v>0.000548532725653426</v>
+        <v>0.0004491300377154379</v>
       </c>
       <c r="BX2">
-        <v>0.0005617753826564456</v>
+        <v>0.0004605999369698213</v>
       </c>
       <c r="BY2">
-        <v>0.0005801945070515389</v>
+        <v>0.0004772479557018688</v>
       </c>
       <c r="BZ2">
-        <v>0.0006023327587283247</v>
+        <v>0.0004976162886865922</v>
       </c>
       <c r="CA2">
-        <v>0.0006361438312892281</v>
+        <v>0.0005296611679723482</v>
       </c>
       <c r="CB2">
-        <v>0.0006825954548075467</v>
+        <v>0.0005743506324864825</v>
       </c>
       <c r="CC2">
-        <v>0.0007261287201048242</v>
+        <v>0.0006161208073765166</v>
       </c>
       <c r="CD2">
-        <v>0.0007708179634896573</v>
+        <v>0.0006590473292880909</v>
       </c>
       <c r="CE2">
-        <v>0.0008155072068744904</v>
+        <v>0.0007019738511996652</v>
       </c>
       <c r="CF2">
-        <v>0.0008540260057919645</v>
+        <v>0.0007387279593274298</v>
       </c>
       <c r="CG2">
-        <v>0.0008922752156890195</v>
+        <v>0.000775212392394605</v>
       </c>
       <c r="CH2">
-        <v>0.0009186975596902891</v>
+        <v>0.0007998661849851378</v>
       </c>
       <c r="CI2">
-        <v>0.0009349438519208087</v>
+        <v>0.0008143406780865009</v>
       </c>
       <c r="CJ2">
-        <v>0.0009445236536463978</v>
+        <v>0.0008221465530518548</v>
       </c>
       <c r="CK2">
-        <v>0.0009472047930494715</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="CL2">
-        <v>0.0009483534221364704</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="CM2">
-        <v>0.001181454019791874</v>
+        <v>0.001054449572214292</v>
       </c>
       <c r="CN2">
-        <v>0.1447966848974339</v>
+        <v>0.1447137387111256</v>
       </c>
       <c r="CO2">
-        <v>0.152065838448011</v>
+        <v>0.1519834352503742</v>
       </c>
       <c r="CP2">
-        <v>0.4259887791953627</v>
+        <v>0.4259920223679289</v>
       </c>
       <c r="CQ2">
-        <v>0.4276881580240763</v>
+        <v>0.427690166574472</v>
       </c>
       <c r="CR2">
-        <v>0.4506860937659759</v>
+        <v>0.4506936651945633</v>
       </c>
       <c r="CS2">
-        <v>0.4527129412194925</v>
+        <v>0.4527193825385346</v>
       </c>
       <c r="CT2">
-        <v>0.4565355480090227</v>
+        <v>0.4565414323406699</v>
       </c>
       <c r="CU2">
-        <v>0.4571893690585442</v>
+        <v>0.4571936850750193</v>
       </c>
       <c r="CV2">
-        <v>0.4576418889928188</v>
+        <v>0.457644572448248</v>
       </c>
       <c r="CW2">
-        <v>0.4743310062568786</v>
+        <v>0.4743372391115552</v>
       </c>
       <c r="CX2">
-        <v>0.499592690170238</v>
+        <v>0.4996052083853421</v>
       </c>
       <c r="CY2">
-        <v>0.5544914643283569</v>
+        <v>0.5545197266729728</v>
       </c>
       <c r="CZ2">
-        <v>0.5560702244479347</v>
+        <v>0.5560972136745457</v>
       </c>
       <c r="DA2">
-        <v>0.5597239567246741</v>
+        <v>0.5597503350670666</v>
       </c>
       <c r="DB2">
-        <v>0.5626972871498788</v>
+        <v>0.562722837455696</v>
       </c>
       <c r="DC2">
-        <v>0.5982032258391541</v>
+        <v>0.5982383309910184</v>
       </c>
       <c r="DD2">
-        <v>0.6068612094949233</v>
+        <v>0.606897300884886</v>
       </c>
       <c r="DE2">
-        <v>0.6144170200672122</v>
+        <v>0.6144537459333222</v>
       </c>
       <c r="DF2">
-        <v>0.6268245920069812</v>
+        <v>0.6268635008038961</v>
       </c>
       <c r="DG2">
-        <v>0.633213222790866</v>
+        <v>0.6332523935548862</v>
       </c>
       <c r="DH2">
-        <v>0.6586550407178691</v>
+        <v>0.6587005543326446</v>
       </c>
       <c r="DI2">
-        <v>0.658655198548951</v>
+        <v>0.6587005543326446</v>
       </c>
       <c r="DJ2">
-        <v>0.6874672327312196</v>
+        <v>0.6875200069806179</v>
       </c>
       <c r="DK2">
-        <v>0.6929900486495263</v>
+        <v>0.6930428085385355</v>
       </c>
       <c r="DL2">
-        <v>0.6963804223063185</v>
+        <v>0.6964324872593906</v>
       </c>
       <c r="DM2">
-        <v>0.6971580842252199</v>
+        <v>0.6972086203873167</v>
       </c>
       <c r="DN2">
-        <v>0.7076668960211737</v>
+        <v>0.7077190091188985</v>
       </c>
       <c r="DO2">
-        <v>0.7126583273992325</v>
+        <v>0.7127102565435475</v>
       </c>
       <c r="DP2">
-        <v>0.7323223238886143</v>
+        <v>0.7323787518740893</v>
       </c>
       <c r="DQ2">
-        <v>0.7323907705437985</v>
+        <v>0.7324454433900518</v>
       </c>
       <c r="DR2">
-        <v>0.7347074358192663</v>
+        <v>0.7347610710522292</v>
       </c>
       <c r="DS2">
-        <v>0.757226177524871</v>
+        <v>0.7572852226997657</v>
       </c>
       <c r="DT2">
-        <v>0.7572602420874511</v>
+        <v>0.7573175211499727</v>
       </c>
       <c r="DU2">
-        <v>0.7631111662306093</v>
+        <v>0.7631685356494974</v>
       </c>
       <c r="DV2">
-        <v>0.763166125020772</v>
+        <v>0.7632217349957444</v>
       </c>
       <c r="DW2">
-        <v>0.7855349317150203</v>
+        <v>0.7855959037797017</v>
       </c>
       <c r="DX2">
-        <v>0.7875295456660955</v>
+        <v>0.7875893773338095</v>
       </c>
       <c r="DY2">
-        <v>0.7875318163462675</v>
+        <v>0.7875898717544925</v>
       </c>
       <c r="DZ2">
-        <v>0.794146818047298</v>
+        <v>0.7942052076696071</v>
       </c>
       <c r="EA2">
-        <v>0.799744260471257</v>
+        <v>0.7998026595504574</v>
       </c>
       <c r="EB2">
-        <v>0.8089407681678149</v>
+        <v>0.8090003253567281</v>
       </c>
       <c r="EC2">
-        <v>0.8199962540051747</v>
+        <v>0.8200575626024282</v>
       </c>
       <c r="ED2">
-        <v>0.8247073083619973</v>
+        <v>0.8247683435226469</v>
       </c>
       <c r="EE2">
-        <v>0.8261507817713283</v>
+        <v>0.8262105006368007</v>
       </c>
       <c r="EF2">
-        <v>0.8270928555426824</v>
+        <v>0.8271510980897312</v>
       </c>
       <c r="EG2">
-        <v>0.8350606661461768</v>
+        <v>0.8351196746604581</v>
       </c>
       <c r="EH2">
-        <v>0.8363404361431086</v>
+        <v>0.836398076115762</v>
       </c>
       <c r="EI2">
-        <v>0.8394748639805151</v>
+        <v>0.8395317273313309</v>
       </c>
       <c r="EJ2">
-        <v>0.841898460164082</v>
+        <v>0.8419543200289378</v>
       </c>
       <c r="EK2">
-        <v>0.8499246387719973</v>
+        <v>0.8499812832324148</v>
       </c>
       <c r="EL2">
-        <v>0.8499323628165824</v>
+        <v>0.8499872327579689</v>
       </c>
       <c r="EM2">
-        <v>0.8680243161868951</v>
+        <v>0.8680831832470146</v>
       </c>
       <c r="EN2">
-        <v>0.8721556317998075</v>
+        <v>0.8722140403979084</v>
       </c>
       <c r="EO2">
-        <v>0.8724227918600426</v>
+        <v>0.87247950873892</v>
       </c>
       <c r="EP2">
-        <v>0.8985563738394409</v>
+        <v>0.8986196543477122</v>
       </c>
       <c r="EQ2">
-        <v>0.9069672184764914</v>
+        <v>0.9070314063476783</v>
       </c>
       <c r="ER2">
-        <v>0.9155242751246163</v>
+        <v>0.9155894170227347</v>
       </c>
       <c r="ES2">
-        <v>0.9190851788943247</v>
+        <v>0.9191496802817193</v>
       </c>
       <c r="ET2">
-        <v>0.9205870947080822</v>
+        <v>0.9206502984523738</v>
       </c>
       <c r="EU2">
-        <v>0.9218459053034265</v>
+        <v>0.9219077338168322</v>
       </c>
       <c r="EV2">
-        <v>0.9308390779845834</v>
+        <v>0.9309019997127025</v>
       </c>
       <c r="EW2">
-        <v>0.9315113638855034</v>
+        <v>0.931572723191565</v>
       </c>
       <c r="EX2">
-        <v>0.9364598482603094</v>
+        <v>0.9365210099062922</v>
       </c>
       <c r="EY2">
-        <v>0.936908673194304</v>
+        <v>0.9369682010999701</v>
       </c>
       <c r="EZ2">
-        <v>0.9444473970652988</v>
+        <v>0.9445075539938386</v>
       </c>
       <c r="FA2">
-        <v>0.9461378187933339</v>
+        <v>0.9461967382410168</v>
       </c>
       <c r="FB2">
-        <v>0.9469610262556849</v>
+        <v>0.9470184314483938</v>
       </c>
       <c r="FC2">
-        <v>0.9470296458168822</v>
+        <v>0.9470852959255529</v>
       </c>
       <c r="FD2">
-        <v>0.9512170881340456</v>
+        <v>0.9512722976937092</v>
       </c>
       <c r="FE2">
-        <v>0.9512510207566157</v>
+        <v>0.9513044641617973</v>
       </c>
       <c r="FF2">
-        <v>0.9540593811693253</v>
+        <v>0.9541119438872414</v>
       </c>
       <c r="FG2">
-        <v>0.9541040704127102</v>
+        <v>0.954154870409153</v>
       </c>
       <c r="FH2">
-        <v>0.9553994543108246</v>
+        <v>0.9554488907488644</v>
       </c>
       <c r="FI2">
-        <v>0.959066349788561</v>
+        <v>0.9591151795434587</v>
       </c>
       <c r="FJ2">
-        <v>0.9608538775239511</v>
+        <v>0.9609015007896747</v>
       </c>
       <c r="FK2">
-        <v>0.9620950271179577</v>
+        <v>0.9621412695162322</v>
       </c>
       <c r="FL2">
-        <v>0.9621631142531147</v>
+        <v>0.9622076013974256</v>
       </c>
       <c r="FM2">
-        <v>0.9631375144669173</v>
+        <v>0.9631805356098887</v>
       </c>
       <c r="FN2">
-        <v>0.9631385717186974</v>
+        <v>0.9631805356098887</v>
       </c>
       <c r="FO2">
-        <v>0.9646590947338642</v>
+        <v>0.9646997669204985</v>
       </c>
       <c r="FP2">
-        <v>0.9649717705075468</v>
+        <v>0.9650107655014384</v>
       </c>
       <c r="FQ2">
-        <v>0.9677847447206058</v>
+        <v>0.9678228604997406</v>
       </c>
       <c r="FR2">
-        <v>0.9679917281062831</v>
+        <v>0.9680281329606225</v>
       </c>
       <c r="FS2">
-        <v>0.9720340294124533</v>
+        <v>0.9720699473955827</v>
       </c>
       <c r="FT2">
-        <v>0.973075448491332</v>
+        <v>0.9731099218624003</v>
       </c>
       <c r="FU2">
-        <v>0.9738689651914342</v>
+        <v>0.9739019148316298</v>
       </c>
       <c r="FV2">
-        <v>0.9739292065199969</v>
+        <v>0.9739603984022155</v>
       </c>
       <c r="FW2">
-        <v>0.9739724531602725</v>
+        <v>0.9740018818606065</v>
       </c>
       <c r="FX2">
-        <v>0.9739728718312642</v>
+        <v>0.9740018818606065</v>
       </c>
       <c r="FY2">
-        <v>0.9765245042245289</v>
+        <v>0.9765525516310637</v>
       </c>
       <c r="FZ2">
-        <v>0.9781828763501366</v>
+        <v>0.9782096760470846</v>
       </c>
       <c r="GA2">
-        <v>0.9781919879443267</v>
+        <v>0.9782170135650846</v>
       </c>
       <c r="GB2">
-        <v>0.9793215283298798</v>
+        <v>0.9793451374627644</v>
       </c>
       <c r="GC2">
-        <v>0.9809852207558905</v>
+        <v>0.9810075838771787</v>
       </c>
       <c r="GD2">
-        <v>0.9811426738178162</v>
+        <v>0.9811633102065529</v>
       </c>
       <c r="GE2">
-        <v>0.9811577155799555</v>
+        <v>0.9811765797851335</v>
       </c>
       <c r="GF2">
-        <v>0.981169049917814</v>
+        <v>0.9811861407561974</v>
       </c>
       <c r="GG2">
-        <v>0.9811909839064753</v>
+        <v>0.9812063047609755</v>
       </c>
       <c r="GH2">
-        <v>0.9871372193568525</v>
+        <v>0.9871526609866178</v>
       </c>
       <c r="GI2">
-        <v>0.9914523306836858</v>
+        <v>0.9914673725104036</v>
       </c>
       <c r="GJ2">
-        <v>0.9914977442371254</v>
+        <v>0.9915110235735358</v>
       </c>
       <c r="GK2">
-        <v>0.9915005697702395</v>
+        <v>0.9915120730242438</v>
       </c>
       <c r="GL2">
-        <v>0.9940073850601095</v>
+        <v>0.9940179113877892</v>
       </c>
       <c r="GM2">
-        <v>0.9943884750689739</v>
+        <v>0.9943973460385258</v>
       </c>
       <c r="GN2">
-        <v>0.9952444629338077</v>
+        <v>0.9952518301103526</v>
       </c>
       <c r="GO2">
-        <v>0.9969546214633378</v>
+        <v>0.996960757458087</v>
       </c>
       <c r="GP2">
-        <v>0.9972505987357556</v>
+        <v>0.9972550522083837</v>
       </c>
       <c r="GQ2">
-        <v>0.9973055575259183</v>
+        <v>0.9973082515546308</v>
       </c>
       <c r="GR2">
-        <v>0.9994064936850465</v>
+        <v>0.9994080812498534</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.569387130724346E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.673755386801171E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.479713954339937E-05</v>
+        <v>4.990638850933619E-05</v>
       </c>
       <c r="E3">
-        <v>9.307270810605539E-05</v>
+        <v>6.992087890426436E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001015497112747394</v>
+        <v>7.010756321719006E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001236730557149722</v>
+        <v>8.396074321184218E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001901744270382841</v>
+        <v>0.0001422574924161852</v>
       </c>
       <c r="I3">
-        <v>0.0002080027193930496</v>
+        <v>0.000151809276922421</v>
       </c>
       <c r="J3">
-        <v>0.0002323652778778406</v>
+        <v>0.0001679049780779808</v>
       </c>
       <c r="K3">
-        <v>0.0002860238329455931</v>
+        <v>0.0002133399433502641</v>
       </c>
       <c r="L3">
-        <v>0.0002922573965696349</v>
+        <v>0.0002133399433502641</v>
       </c>
       <c r="M3">
-        <v>0.0003134541149914287</v>
+        <v>0.0002262651287837679</v>
       </c>
       <c r="N3">
-        <v>0.0003255344852318162</v>
+        <v>0.0002300605020152232</v>
       </c>
       <c r="O3">
-        <v>0.0003268252206575006</v>
+        <v>0.0002300605020152232</v>
       </c>
       <c r="P3">
-        <v>0.0003446535130122661</v>
+        <v>0.000239612286521459</v>
       </c>
       <c r="Q3">
-        <v>0.0003460207541394728</v>
+        <v>0.000239612286521459</v>
       </c>
       <c r="R3">
-        <v>0.0003565467543489298</v>
+        <v>0.0002418509940582196</v>
       </c>
       <c r="S3">
-        <v>0.0003648373485139045</v>
+        <v>0.0002418509940582196</v>
       </c>
       <c r="T3">
-        <v>0.0003658460853339774</v>
+        <v>0.0002418509940582196</v>
       </c>
       <c r="U3">
-        <v>0.0004120212012528169</v>
+        <v>0.0002797914678197044</v>
       </c>
       <c r="V3">
-        <v>0.0004729764654657667</v>
+        <v>0.0003325339188157663</v>
       </c>
       <c r="W3">
-        <v>0.0004965365789345898</v>
+        <v>0.000347825989816743</v>
       </c>
       <c r="X3">
-        <v>0.0005069551881419099</v>
+        <v>0.0003499571477445823</v>
       </c>
       <c r="Y3">
-        <v>0.0005402074488035973</v>
+        <v>0.0003749556803620581</v>
       </c>
       <c r="Z3">
-        <v>0.0005870615537359479</v>
+        <v>0.0004135761459423344</v>
       </c>
       <c r="AA3">
-        <v>0.0006417115928234299</v>
+        <v>0.0004600040595664508</v>
       </c>
       <c r="AB3">
-        <v>0.0006740139164662143</v>
+        <v>0.0004840512521940778</v>
       </c>
       <c r="AC3">
-        <v>0.0006767963698215824</v>
+        <v>0.0004840512521940778</v>
       </c>
       <c r="AD3">
-        <v>0.0007003564832904056</v>
+        <v>0.0004993433231950545</v>
       </c>
       <c r="AE3">
-        <v>0.000727420657828956</v>
+        <v>0.0005181446304466133</v>
       </c>
       <c r="AF3">
-        <v>0.0007292061253644851</v>
+        <v>0.0005181446304466133</v>
       </c>
       <c r="AG3">
-        <v>0.0007292720150097962</v>
+        <v>0.0005181446304466133</v>
       </c>
       <c r="AH3">
-        <v>0.0007435177492932724</v>
+        <v>0.0005241085657677427</v>
       </c>
       <c r="AI3">
-        <v>0.0007441138266751338</v>
+        <v>0.0005241085657677427</v>
       </c>
       <c r="AJ3">
-        <v>0.0007445440462836947</v>
+        <v>0.0005241085657677427</v>
       </c>
       <c r="AK3">
-        <v>0.0008319574680231359</v>
+        <v>0.0006033482505927804</v>
       </c>
       <c r="AL3">
-        <v>0.000865007192680793</v>
+        <v>0.0006281439480788906</v>
       </c>
       <c r="AM3">
-        <v>0.0008754193758879852</v>
+        <v>0.0006302686705159818</v>
       </c>
       <c r="AN3">
-        <v>0.0009262004928984796</v>
+        <v>0.0006728219480155915</v>
       </c>
       <c r="AO3">
-        <v>0.00105256254541296</v>
+        <v>0.000791067787215942</v>
       </c>
       <c r="AP3">
-        <v>0.001097159339300393</v>
+        <v>0.0008274276079073199</v>
       </c>
       <c r="AQ3">
-        <v>0.001118662731728289</v>
+        <v>0.0008406599202766594</v>
       </c>
       <c r="AR3">
-        <v>0.001165503208660368</v>
+        <v>0.0008792667377293423</v>
       </c>
       <c r="AS3">
-        <v>0.001190359641154987</v>
+        <v>0.0008958570423019145</v>
       </c>
       <c r="AT3">
-        <v>0.001215882281662862</v>
+        <v>0.000913114538816644</v>
       </c>
       <c r="AU3">
-        <v>0.001229631404936456</v>
+        <v>0.0009185811296784053</v>
       </c>
       <c r="AV3">
-        <v>0.001232870740000916</v>
+        <v>0.0009185811296784053</v>
       </c>
       <c r="AW3">
-        <v>0.001235540329054038</v>
+        <v>0.0009185811296784053</v>
       </c>
       <c r="AX3">
-        <v>0.001235970548662599</v>
+        <v>0.0009185811296784053</v>
       </c>
       <c r="AY3">
-        <v>0.001271361119366837</v>
+        <v>0.0009457211304287082</v>
       </c>
       <c r="AZ3">
-        <v>0.001298252926901957</v>
+        <v>0.0009643498161063834</v>
       </c>
       <c r="BA3">
-        <v>0.001311886626173254</v>
+        <v>0.0009697008124950499</v>
       </c>
       <c r="BB3">
-        <v>0.001405634832038752</v>
+        <v>0.001055284637348588</v>
       </c>
       <c r="BC3">
-        <v>0.001459065126101962</v>
+        <v>0.001100491004495498</v>
       </c>
       <c r="BD3">
-        <v>0.0014944556968062</v>
+        <v>0.001127631005245801</v>
       </c>
       <c r="BE3">
-        <v>0.001520493932324335</v>
+        <v>0.001145404858257926</v>
       </c>
       <c r="BF3">
-        <v>0.001569182899293197</v>
+        <v>0.001185862895799768</v>
       </c>
       <c r="BG3">
-        <v>0.001670133277302011</v>
+        <v>0.001278659529752614</v>
       </c>
       <c r="BH3">
-        <v>0.001710000353095326</v>
+        <v>0.001310282646984597</v>
       </c>
       <c r="BI3">
-        <v>0.00171772754574909</v>
+        <v>0.001310282646984597</v>
       </c>
       <c r="BJ3">
-        <v>0.001752528331441591</v>
+        <v>0.001336831991664115</v>
       </c>
       <c r="BK3">
-        <v>0.00182885615296044</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BL3">
-        <v>0.001835688393096395</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BM3">
-        <v>0.001835688470433766</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BN3">
-        <v>0.001841281525945062</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BO3">
-        <v>0.001845415059027316</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BP3">
-        <v>0.001845415136364687</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BQ3">
-        <v>0.00184841996542448</v>
+        <v>0.001404969703841001</v>
       </c>
       <c r="BR3">
-        <v>0.001857993107614976</v>
+        <v>0.001406254146073803</v>
       </c>
       <c r="BS3">
-        <v>0.001883852154129546</v>
+        <v>0.001423848545436432</v>
       </c>
       <c r="BT3">
-        <v>0.00191982552284538</v>
+        <v>0.001451572204938214</v>
       </c>
       <c r="BU3">
-        <v>0.001973241263908301</v>
+        <v>0.001496763997591371</v>
       </c>
       <c r="BV3">
-        <v>0.002005721128554619</v>
+        <v>0.001520988993434514</v>
       </c>
       <c r="BW3">
-        <v>0.002035426021145717</v>
+        <v>0.001542434918840027</v>
       </c>
       <c r="BX3">
-        <v>0.002068285241799583</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="BY3">
-        <v>0.002073952314312352</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="BZ3">
-        <v>0.002076676400366559</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="CA3">
-        <v>0.002078203260696942</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="CB3">
-        <v>0.00208187418056999</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="CC3">
-        <v>0.002083749435207305</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="CD3">
-        <v>0.002084452402521294</v>
+        <v>0.001567039830965186</v>
       </c>
       <c r="CE3">
-        <v>0.00209833226979749</v>
+        <v>0.0015726373589266</v>
       </c>
       <c r="CF3">
-        <v>0.002126972520367402</v>
+        <v>0.001593017069931082</v>
       </c>
       <c r="CG3">
-        <v>0.002132959998486547</v>
+        <v>0.001593017069931082</v>
       </c>
       <c r="CH3">
-        <v>0.002148493648795651</v>
+        <v>0.00160027082341317</v>
       </c>
       <c r="CI3">
-        <v>0.002265005811114129</v>
+        <v>0.001708652225021753</v>
       </c>
       <c r="CJ3">
-        <v>0.002291213658635639</v>
+        <v>0.00172659594053882</v>
       </c>
       <c r="CK3">
-        <v>0.002301103572832439</v>
+        <v>0.00172819762262149</v>
       </c>
       <c r="CL3">
-        <v>0.002339311991592749</v>
+        <v>0.001758159633134246</v>
       </c>
       <c r="CM3">
-        <v>0.002347989200765416</v>
+        <v>0.001758546819137292</v>
       </c>
       <c r="CN3">
-        <v>0.1306645417541387</v>
+        <v>0.1302563084610259</v>
       </c>
       <c r="CO3">
-        <v>0.1312358641055074</v>
+        <v>0.1308201717651441</v>
       </c>
       <c r="CP3">
-        <v>0.4166884697857337</v>
+        <v>0.4166860622533326</v>
       </c>
       <c r="CQ3">
-        <v>0.4248196014475352</v>
+        <v>0.4248209000215812</v>
       </c>
       <c r="CR3">
-        <v>0.4478827659064695</v>
+        <v>0.4479098238470849</v>
       </c>
       <c r="CS3">
-        <v>0.4505431645594088</v>
+        <v>0.450565848829274</v>
       </c>
       <c r="CT3">
-        <v>0.455269940653467</v>
+        <v>0.4552913031049211</v>
       </c>
       <c r="CU3">
-        <v>0.4553028112881211</v>
+        <v>0.4553159194479039</v>
       </c>
       <c r="CV3">
-        <v>0.459813228377874</v>
+        <v>0.4598246951765909</v>
       </c>
       <c r="CW3">
-        <v>0.4764028497079911</v>
+        <v>0.4764305150363524</v>
       </c>
       <c r="CX3">
-        <v>0.4798268337761251</v>
+        <v>0.4798512531802402</v>
       </c>
       <c r="CY3">
-        <v>0.5498207111689344</v>
+        <v>0.5499402023523439</v>
       </c>
       <c r="CZ3">
-        <v>0.5541262382546102</v>
+        <v>0.5542437854729735</v>
       </c>
       <c r="DA3">
-        <v>0.5541322257327294</v>
+        <v>0.5542437854729735</v>
       </c>
       <c r="DB3">
-        <v>0.5613369568760964</v>
+        <v>0.5614508545131214</v>
       </c>
       <c r="DC3">
-        <v>0.5737088436222848</v>
+        <v>0.5738327105769526</v>
       </c>
       <c r="DD3">
-        <v>0.5953821740535628</v>
+        <v>0.5955297477158115</v>
       </c>
       <c r="DE3">
-        <v>0.5979157454039783</v>
+        <v>0.5980587580830371</v>
       </c>
       <c r="DF3">
-        <v>0.6019406161840692</v>
+        <v>0.6020812703941363</v>
       </c>
       <c r="DG3">
-        <v>0.616718972478144</v>
+        <v>0.6168731501434344</v>
       </c>
       <c r="DH3">
-        <v>0.6311128167645673</v>
+        <v>0.6312799499956691</v>
       </c>
       <c r="DI3">
-        <v>0.6358671473591738</v>
+        <v>0.6360329994673662</v>
       </c>
       <c r="DJ3">
-        <v>0.6703937580462195</v>
+        <v>0.6706022999928736</v>
       </c>
       <c r="DK3">
-        <v>0.6870518383776989</v>
+        <v>0.6872766799617424</v>
       </c>
       <c r="DL3">
-        <v>0.6909909774560838</v>
+        <v>0.6912133339531764</v>
       </c>
       <c r="DM3">
-        <v>0.6919125205744217</v>
+        <v>0.6921279352686187</v>
       </c>
       <c r="DN3">
-        <v>0.7094206709228166</v>
+        <v>0.7096536407308315</v>
       </c>
       <c r="DO3">
-        <v>0.7109070622523943</v>
+        <v>0.7111339244871663</v>
       </c>
       <c r="DP3">
-        <v>0.7328305656886505</v>
+        <v>0.7330815041138747</v>
       </c>
       <c r="DQ3">
-        <v>0.733393983439862</v>
+        <v>0.7336374511434571</v>
       </c>
       <c r="DR3">
-        <v>0.7335494830229562</v>
+        <v>0.7337848775467312</v>
       </c>
       <c r="DS3">
-        <v>0.7560964774716192</v>
+        <v>0.7563568690256054</v>
       </c>
       <c r="DT3">
-        <v>0.7583335900161355</v>
+        <v>0.7585889827441242</v>
       </c>
       <c r="DU3">
-        <v>0.765400792756766</v>
+        <v>0.7656583202645398</v>
       </c>
       <c r="DV3">
-        <v>0.7662242908731528</v>
+        <v>0.7664747317744427</v>
       </c>
       <c r="DW3">
-        <v>0.7901983893502138</v>
+        <v>0.7904759349851191</v>
       </c>
       <c r="DX3">
-        <v>0.79028211919188</v>
+        <v>0.7905514856495567</v>
       </c>
       <c r="DY3">
-        <v>0.7908798686037746</v>
+        <v>0.7911418150445758</v>
       </c>
       <c r="DZ3">
-        <v>0.7989663537646877</v>
+        <v>0.7992319403730976</v>
       </c>
       <c r="EA3">
-        <v>0.8034056011530244</v>
+        <v>0.8036694412891648</v>
       </c>
       <c r="EB3">
-        <v>0.8123647583313028</v>
+        <v>0.8126335274925881</v>
       </c>
       <c r="EC3">
-        <v>0.8174281478320593</v>
+        <v>0.8176960923224498</v>
       </c>
       <c r="ED3">
-        <v>0.8255682589940395</v>
+        <v>0.8258399228527856</v>
       </c>
       <c r="EE3">
-        <v>0.8263937201104654</v>
+        <v>0.8266583002619009</v>
       </c>
       <c r="EF3">
-        <v>0.8265045714426712</v>
+        <v>0.8267610124728635</v>
       </c>
       <c r="EG3">
-        <v>0.8369295886501188</v>
+        <v>0.8371931236479634</v>
       </c>
       <c r="EH3">
-        <v>0.8369372183692706</v>
+        <v>0.8371931236479634</v>
       </c>
       <c r="EI3">
-        <v>0.8443205013161906</v>
+        <v>0.8445790081965076</v>
       </c>
       <c r="EJ3">
-        <v>0.8455030338397219</v>
+        <v>0.8457549843748583</v>
       </c>
       <c r="EK3">
-        <v>0.8562868610543095</v>
+        <v>0.8565464354869832</v>
       </c>
       <c r="EL3">
-        <v>0.8577937161842945</v>
+        <v>0.8580472132669051</v>
       </c>
       <c r="EM3">
-        <v>0.8683617313945876</v>
+        <v>0.8686225336399502</v>
       </c>
       <c r="EN3">
-        <v>0.8746353169194258</v>
+        <v>0.8748970818438199</v>
       </c>
       <c r="EO3">
-        <v>0.8747243073711966</v>
+        <v>0.8749779008878068</v>
       </c>
       <c r="EP3">
-        <v>0.8914770057045588</v>
+        <v>0.8917470386007781</v>
       </c>
       <c r="EQ3">
-        <v>0.9083372580400613</v>
+        <v>0.9086238891634102</v>
       </c>
       <c r="ER3">
-        <v>0.910970238092455</v>
+        <v>0.9112524550502639</v>
       </c>
       <c r="ES3">
-        <v>0.9163428301993644</v>
+        <v>0.9166246791505247</v>
       </c>
       <c r="ET3">
-        <v>0.9172815788680445</v>
+        <v>0.9175565114273491</v>
       </c>
       <c r="EU3">
-        <v>0.917509806272586</v>
+        <v>0.9177767730644759</v>
       </c>
       <c r="EV3">
-        <v>0.9242461984066336</v>
+        <v>0.9245148114010027</v>
       </c>
       <c r="EW3">
-        <v>0.9257971706374964</v>
+        <v>0.9260597714387651</v>
       </c>
       <c r="EX3">
-        <v>0.9321260762634355</v>
+        <v>0.9323897214465148</v>
       </c>
       <c r="EY3">
-        <v>0.9323685880782612</v>
+        <v>0.9326242885907062</v>
       </c>
       <c r="EZ3">
-        <v>0.939050615811227</v>
+        <v>0.9393078822348543</v>
       </c>
       <c r="FA3">
-        <v>0.9416513413629788</v>
+        <v>0.9419041459840898</v>
       </c>
       <c r="FB3">
-        <v>0.9426104738320645</v>
+        <v>0.9428563921663469</v>
       </c>
       <c r="FC3">
-        <v>0.9427569784849799</v>
+        <v>0.9429948103547446</v>
       </c>
       <c r="FD3">
-        <v>0.9472518081744226</v>
+        <v>0.9474879756619429</v>
       </c>
       <c r="FE3">
-        <v>0.9472700678157859</v>
+        <v>0.9474979594325211</v>
       </c>
       <c r="FF3">
-        <v>0.9508411197868464</v>
+        <v>0.9510659826853088</v>
       </c>
       <c r="FG3">
-        <v>0.9508414859782537</v>
+        <v>0.9510659826853088</v>
       </c>
       <c r="FH3">
-        <v>0.9535310625317737</v>
+        <v>0.9537512286611952</v>
       </c>
       <c r="FI3">
-        <v>0.9566458410937547</v>
+        <v>0.9568623046304008</v>
       </c>
       <c r="FJ3">
-        <v>0.9583714491280926</v>
+        <v>0.9585821583929041</v>
       </c>
       <c r="FK3">
-        <v>0.9587649607159231</v>
+        <v>0.9589679483230897</v>
       </c>
       <c r="FL3">
-        <v>0.9587659038937819</v>
+        <v>0.9589679483230897</v>
       </c>
       <c r="FM3">
-        <v>0.960404332426385</v>
+        <v>0.9606004938276296</v>
       </c>
       <c r="FN3">
-        <v>0.9604964618182182</v>
+        <v>0.9606844564476091</v>
       </c>
       <c r="FO3">
-        <v>0.9618043248442434</v>
+        <v>0.9619859482302555</v>
       </c>
       <c r="FP3">
-        <v>0.9618201132685575</v>
+        <v>0.9619934571340208</v>
       </c>
       <c r="FQ3">
-        <v>0.9659105146499525</v>
+        <v>0.9660815968291874</v>
       </c>
       <c r="FR3">
-        <v>0.9659717292811706</v>
+        <v>0.9661345990302501</v>
       </c>
       <c r="FS3">
-        <v>0.9690976303433729</v>
+        <v>0.9692568139266025</v>
       </c>
       <c r="FT3">
-        <v>0.9700313019619521</v>
+        <v>0.9701835616549825</v>
       </c>
       <c r="FU3">
-        <v>0.9718348870978416</v>
+        <v>0.9719815076841545</v>
       </c>
       <c r="FV3">
-        <v>0.9724865374108088</v>
+        <v>0.9726258175869955</v>
       </c>
       <c r="FW3">
-        <v>0.9728328421176999</v>
+        <v>0.9729643309159539</v>
       </c>
       <c r="FX3">
-        <v>0.9729368156497689</v>
+        <v>0.9730601551688917</v>
       </c>
       <c r="FY3">
-        <v>0.9748987598888096</v>
+        <v>0.9750166941832683</v>
       </c>
       <c r="FZ3">
-        <v>0.9764185246190514</v>
+        <v>0.9765304006297575</v>
       </c>
       <c r="GA3">
-        <v>0.9765332526313344</v>
+        <v>0.9766369952463025</v>
       </c>
       <c r="GB3">
-        <v>0.9771124866828605</v>
+        <v>0.9772087819354428</v>
       </c>
       <c r="GC3">
-        <v>0.9794607244295882</v>
+        <v>0.9795521849780325</v>
       </c>
       <c r="GD3">
-        <v>0.9797576341754964</v>
+        <v>0.9798412303941241</v>
       </c>
       <c r="GE3">
-        <v>0.9797595067046337</v>
+        <v>0.9798412303941241</v>
       </c>
       <c r="GF3">
-        <v>0.9798992624574148</v>
+        <v>0.9799728897148733</v>
       </c>
       <c r="GG3">
-        <v>0.9799633505286901</v>
+        <v>0.980028769599804</v>
       </c>
       <c r="GH3">
-        <v>0.9853897342366698</v>
+        <v>0.9854548647464584</v>
       </c>
       <c r="GI3">
-        <v>0.9910783369498674</v>
+        <v>0.9911435661720536</v>
       </c>
       <c r="GJ3">
-        <v>0.9911470374212344</v>
+        <v>0.9912040652691733</v>
       </c>
       <c r="GK3">
-        <v>0.9911507121569075</v>
+        <v>0.9912040652691733</v>
       </c>
       <c r="GL3">
-        <v>0.9945205404239638</v>
+        <v>0.9945705676287698</v>
       </c>
       <c r="GM3">
-        <v>0.9948907098713298</v>
+        <v>0.9949329809442635</v>
       </c>
       <c r="GN3">
-        <v>0.9953253609799789</v>
+        <v>0.9953599711546143</v>
       </c>
       <c r="GO3">
-        <v>0.9967185080077012</v>
+        <v>0.9967468728957044</v>
       </c>
       <c r="GP3">
-        <v>0.9975883514950102</v>
+        <v>0.9976096982244451</v>
       </c>
       <c r="GQ3">
-        <v>0.9976361186229608</v>
+        <v>0.9976492330614959</v>
       </c>
       <c r="GR3">
-        <v>0.9985656778714581</v>
+        <v>0.998571862346196</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.626599576373765E-05</v>
+        <v>1.067130927473301E-05</v>
       </c>
       <c r="C4">
-        <v>1.712795415121777E-05</v>
+        <v>1.067130927473301E-05</v>
       </c>
       <c r="D4">
-        <v>1.714233080550895E-05</v>
+        <v>1.067130927473301E-05</v>
       </c>
       <c r="E4">
-        <v>2.274773122409093E-05</v>
+        <v>1.067130927473301E-05</v>
       </c>
       <c r="F4">
-        <v>2.939271412757306E-05</v>
+        <v>1.17119365430784E-05</v>
       </c>
       <c r="G4">
-        <v>3.968672197805338E-05</v>
+        <v>1.640525603919217E-05</v>
       </c>
       <c r="H4">
-        <v>6.472003161444646E-05</v>
+        <v>3.585269036272725E-05</v>
       </c>
       <c r="I4">
-        <v>7.095471592388814E-05</v>
+        <v>3.648260668574225E-05</v>
       </c>
       <c r="J4">
-        <v>8.735140568572747E-05</v>
+        <v>4.728474130642821E-05</v>
       </c>
       <c r="K4">
-        <v>0.0001207540712005563</v>
+        <v>7.510994273559471E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001231847341652511</v>
+        <v>7.510994273559471E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001300821717650663</v>
+        <v>7.640327841798319E-05</v>
       </c>
       <c r="N4">
-        <v>0.000130979617922031</v>
+        <v>7.640327841798319E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001364329268428221</v>
+        <v>7.640327841798319E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001667336444027065</v>
+        <v>0.000101123414425416</v>
       </c>
       <c r="Q4">
-        <v>0.0001996094359251881</v>
+        <v>0.0001284212123523283</v>
       </c>
       <c r="R4">
-        <v>0.0002049254151479739</v>
+        <v>0.0001284212123523283</v>
       </c>
       <c r="S4">
-        <v>0.0002093726554833781</v>
+        <v>0.0001284212123523283</v>
       </c>
       <c r="T4">
-        <v>0.0002325283371470435</v>
+        <v>0.0001459891316815182</v>
       </c>
       <c r="U4">
-        <v>0.0003782734750301065</v>
+        <v>0.0002862697099930223</v>
       </c>
       <c r="V4">
-        <v>0.0004028509536731205</v>
+        <v>0.0003052608552116936</v>
       </c>
       <c r="W4">
-        <v>0.0004105492425613034</v>
+        <v>0.0003073558470403425</v>
       </c>
       <c r="X4">
-        <v>0.0004719502416694586</v>
+        <v>0.0003632075204701841</v>
       </c>
       <c r="Y4">
-        <v>0.0004912364583893277</v>
+        <v>0.0003769020860319644</v>
       </c>
       <c r="Z4">
-        <v>0.0005219247159435832</v>
+        <v>0.0004020101515125988</v>
       </c>
       <c r="AA4">
-        <v>0.000567520562281307</v>
+        <v>0.0004420407879471361</v>
       </c>
       <c r="AB4">
-        <v>0.0005720479568155469</v>
+        <v>0.0004420407879471361</v>
       </c>
       <c r="AC4">
-        <v>0.0005804808326930601</v>
+        <v>0.0004448711050271933</v>
       </c>
       <c r="AD4">
-        <v>0.0005862536192092108</v>
+        <v>0.0004450386593482808</v>
       </c>
       <c r="AE4">
-        <v>0.0006087648988822363</v>
+        <v>0.0004619615290609407</v>
       </c>
       <c r="AF4">
-        <v>0.0006352756844971692</v>
+        <v>0.0004828879242307058</v>
       </c>
       <c r="AG4">
-        <v>0.0006370590398712661</v>
+        <v>0.0004828879242307058</v>
       </c>
       <c r="AH4">
-        <v>0.0006905782330939038</v>
+        <v>0.0005308498705370066</v>
       </c>
       <c r="AI4">
-        <v>0.0007079044308422422</v>
+        <v>0.0005425824473024432</v>
       </c>
       <c r="AJ4">
-        <v>0.0007126286600736231</v>
+        <v>0.0005425824473024432</v>
       </c>
       <c r="AK4">
-        <v>0.0007145363326459143</v>
+        <v>0.0005425824473024432</v>
       </c>
       <c r="AL4">
-        <v>0.0007280593534494934</v>
+        <v>0.0005505080249191408</v>
       </c>
       <c r="AM4">
-        <v>0.0007639360699283869</v>
+        <v>0.0005808097637408444</v>
       </c>
       <c r="AN4">
-        <v>0.0007812622676767252</v>
+        <v>0.000592542340506281</v>
       </c>
       <c r="AO4">
-        <v>0.0007816929594704694</v>
+        <v>0.000592542340506281</v>
       </c>
       <c r="AP4">
-        <v>0.000783878055238731</v>
+        <v>0.000592542340506281</v>
       </c>
       <c r="AQ4">
-        <v>0.0008465091643290189</v>
+        <v>0.0006496253601823939</v>
       </c>
       <c r="AR4">
-        <v>0.000848372430101955</v>
+        <v>0.0006496253601823939</v>
       </c>
       <c r="AS4">
-        <v>0.000858684085952179</v>
+        <v>0.0006543363454145428</v>
       </c>
       <c r="AT4">
-        <v>0.0008602109233300019</v>
+        <v>0.0006543363454145428</v>
       </c>
       <c r="AU4">
-        <v>0.0008693951831966012</v>
+        <v>0.0006579188016267982</v>
       </c>
       <c r="AV4">
-        <v>0.0008697844725309468</v>
+        <v>0.0006579188016267982</v>
       </c>
       <c r="AW4">
-        <v>0.0008703278222230548</v>
+        <v>0.0006579188016267982</v>
       </c>
       <c r="AX4">
-        <v>0.0008706971947876897</v>
+        <v>0.0006579188016267982</v>
       </c>
       <c r="AY4">
-        <v>0.0008877779195395934</v>
+        <v>0.0006694056586947191</v>
       </c>
       <c r="AZ4">
-        <v>0.0009229165560292073</v>
+        <v>0.0006989685757545901</v>
       </c>
       <c r="BA4">
-        <v>0.0009771883752409134</v>
+        <v>0.0007476839044412846</v>
       </c>
       <c r="BB4">
-        <v>0.00101329208771651</v>
+        <v>0.0007782128673913334</v>
       </c>
       <c r="BC4">
-        <v>0.001023397087569735</v>
+        <v>0.000782716988936601</v>
       </c>
       <c r="BD4">
-        <v>0.001065565811957238</v>
+        <v>0.0008193170591533092</v>
       </c>
       <c r="BE4">
-        <v>0.001078872071263965</v>
+        <v>0.0008270256574272153</v>
       </c>
       <c r="BF4">
-        <v>0.00108319537920117</v>
+        <v>0.0008270256574272153</v>
       </c>
       <c r="BG4">
-        <v>0.001092994317058841</v>
+        <v>0.0008312234093837257</v>
       </c>
       <c r="BH4">
-        <v>0.001106182867867278</v>
+        <v>0.0008388141808619556</v>
       </c>
       <c r="BI4">
-        <v>0.001106679585560063</v>
+        <v>0.0008388141808619556</v>
       </c>
       <c r="BJ4">
-        <v>0.001110738099501114</v>
+        <v>0.0008388141808619556</v>
       </c>
       <c r="BK4">
-        <v>0.001112836585670634</v>
+        <v>0.0008388141808619556</v>
       </c>
       <c r="BL4">
-        <v>0.00111883136618356</v>
+        <v>0.0008392039522844364</v>
       </c>
       <c r="BM4">
-        <v>0.001142142935844961</v>
+        <v>0.0008569279162792568</v>
       </c>
       <c r="BN4">
-        <v>0.001142760155775996</v>
+        <v>0.0008569279162792568</v>
       </c>
       <c r="BO4">
-        <v>0.001231151134492124</v>
+        <v>0.0009397966943257082</v>
       </c>
       <c r="BP4">
-        <v>0.001249710063222557</v>
+        <v>0.0009527632409714906</v>
       </c>
       <c r="BQ4">
-        <v>0.001250273379444374</v>
+        <v>0.0009527632409714906</v>
       </c>
       <c r="BR4">
-        <v>0.001270687704147858</v>
+        <v>0.0009675870482687163</v>
       </c>
       <c r="BS4">
-        <v>0.001332045633256639</v>
+        <v>0.001023395608413708</v>
       </c>
       <c r="BT4">
-        <v>0.001349237475006929</v>
+        <v>0.001034993694152924</v>
       </c>
       <c r="BU4">
-        <v>0.00135431970723311</v>
+        <v>0.001034993694152924</v>
       </c>
       <c r="BV4">
-        <v>0.001366228984060128</v>
+        <v>0.001041303905975633</v>
       </c>
       <c r="BW4">
-        <v>0.001398888181585756</v>
+        <v>0.00106838489222809</v>
       </c>
       <c r="BX4">
-        <v>0.001399234915380719</v>
+        <v>0.00106838489222809</v>
       </c>
       <c r="BY4">
-        <v>0.001414244021162713</v>
+        <v>0.001077798048342962</v>
       </c>
       <c r="BZ4">
-        <v>0.001415362918546461</v>
+        <v>0.001077798048342962</v>
       </c>
       <c r="CA4">
-        <v>0.001450660855033762</v>
+        <v>0.001107520425497484</v>
       </c>
       <c r="CB4">
-        <v>0.001461820056871675</v>
+        <v>0.001113079808503525</v>
       </c>
       <c r="CC4">
-        <v>0.001488693413481342</v>
+        <v>0.001134369139052937</v>
       </c>
       <c r="CD4">
-        <v>0.001488875860498692</v>
+        <v>0.001134369139052937</v>
       </c>
       <c r="CE4">
-        <v>0.001490746638471519</v>
+        <v>0.001134369139052937</v>
       </c>
       <c r="CF4">
-        <v>0.001500954706323247</v>
+        <v>0.001138976432180348</v>
       </c>
       <c r="CG4">
-        <v>0.001505761537653428</v>
+        <v>0.001138976432180348</v>
       </c>
       <c r="CH4">
-        <v>0.001519304784456714</v>
+        <v>0.001146922256123941</v>
       </c>
       <c r="CI4">
-        <v>0.001520395468240872</v>
+        <v>0.001146922256123941</v>
       </c>
       <c r="CJ4">
-        <v>0.00152096291843263</v>
+        <v>0.001146922256123941</v>
       </c>
       <c r="CK4">
-        <v>0.001525559387765866</v>
+        <v>0.001146922256123941</v>
       </c>
       <c r="CL4">
-        <v>0.001527565221736732</v>
+        <v>0.001146922256123941</v>
       </c>
       <c r="CM4">
-        <v>0.001546851438456601</v>
+        <v>0.001160616821685721</v>
       </c>
       <c r="CN4">
-        <v>0.07728675533834026</v>
+        <v>0.0769710285131858</v>
       </c>
       <c r="CO4">
-        <v>0.1110091218485255</v>
+        <v>0.1107216750667208</v>
       </c>
       <c r="CP4">
-        <v>0.3918649477691159</v>
+        <v>0.3918541508819314</v>
       </c>
       <c r="CQ4">
-        <v>0.4297351602190539</v>
+        <v>0.4297568119725497</v>
       </c>
       <c r="CR4">
-        <v>0.4605647957712559</v>
+        <v>0.4606118203650076</v>
       </c>
       <c r="CS4">
-        <v>0.4714612166129862</v>
+        <v>0.4715135811077683</v>
       </c>
       <c r="CT4">
-        <v>0.4739121309773868</v>
+        <v>0.4739613476144284</v>
       </c>
       <c r="CU4">
-        <v>0.4769483207332864</v>
+        <v>0.476994977716072</v>
       </c>
       <c r="CV4">
-        <v>0.4840634011299404</v>
+        <v>0.4841115977555226</v>
       </c>
       <c r="CW4">
-        <v>0.4909704357296162</v>
+        <v>0.4910199629113592</v>
       </c>
       <c r="CX4">
-        <v>0.4932035930971798</v>
+        <v>0.4932497535747621</v>
       </c>
       <c r="CY4">
-        <v>0.5498403802745347</v>
+        <v>0.5499378498554195</v>
       </c>
       <c r="CZ4">
-        <v>0.5561760421825097</v>
+        <v>0.5562742680883249</v>
       </c>
       <c r="DA4">
-        <v>0.5562169250969159</v>
+        <v>0.5563095810563174</v>
       </c>
       <c r="DB4">
-        <v>0.5664944749476353</v>
+        <v>0.5665918488409067</v>
       </c>
       <c r="DC4">
-        <v>0.5749707908245174</v>
+        <v>0.5750710724062342</v>
       </c>
       <c r="DD4">
-        <v>0.607709643348988</v>
+        <v>0.6078372165396155</v>
       </c>
       <c r="DE4">
-        <v>0.6118586742887236</v>
+        <v>0.6119848062337476</v>
       </c>
       <c r="DF4">
-        <v>0.6122488703830561</v>
+        <v>0.6123697834424364</v>
       </c>
       <c r="DG4">
-        <v>0.6404954759727763</v>
+        <v>0.6406391659197272</v>
       </c>
       <c r="DH4">
-        <v>0.6507402653239716</v>
+        <v>0.6508886402803944</v>
       </c>
       <c r="DI4">
-        <v>0.6605639311812835</v>
+        <v>0.6607165679168323</v>
       </c>
       <c r="DJ4">
-        <v>0.6963918656608855</v>
+        <v>0.6965748985417667</v>
       </c>
       <c r="DK4">
-        <v>0.7131289204177811</v>
+        <v>0.7133231630539013</v>
       </c>
       <c r="DL4">
-        <v>0.7143516028000217</v>
+        <v>0.7145414632016585</v>
       </c>
       <c r="DM4">
-        <v>0.7154822260835996</v>
+        <v>0.7156676117310886</v>
       </c>
       <c r="DN4">
-        <v>0.7337637658180616</v>
+        <v>0.7339619134327204</v>
       </c>
       <c r="DO4">
-        <v>0.7338093245533999</v>
+        <v>0.7340019069208589</v>
       </c>
       <c r="DP4">
-        <v>0.748577997338886</v>
+        <v>0.7487798112319318</v>
       </c>
       <c r="DQ4">
-        <v>0.7498394308205637</v>
+        <v>0.7500369014240946</v>
       </c>
       <c r="DR4">
-        <v>0.7498985299817053</v>
+        <v>0.750090448946204</v>
       </c>
       <c r="DS4">
-        <v>0.7663972427420627</v>
+        <v>0.7666001319273953</v>
       </c>
       <c r="DT4">
-        <v>0.7689530540049397</v>
+        <v>0.7691529007542224</v>
       </c>
       <c r="DU4">
-        <v>0.774327318326879</v>
+        <v>0.7745269551936993</v>
       </c>
       <c r="DV4">
-        <v>0.7746936162215585</v>
+        <v>0.7748880101849746</v>
       </c>
       <c r="DW4">
-        <v>0.7942011819382127</v>
+        <v>0.7944095700285051</v>
       </c>
       <c r="DX4">
-        <v>0.7943814944655936</v>
+        <v>0.7945844527366424</v>
       </c>
       <c r="DY4">
-        <v>0.7952481717530052</v>
+        <v>0.7954463900034063</v>
       </c>
       <c r="DZ4">
-        <v>0.807110345580708</v>
+        <v>0.8073148743167219</v>
       </c>
       <c r="EA4">
-        <v>0.8073913061266271</v>
+        <v>0.8075905061949509</v>
       </c>
       <c r="EB4">
-        <v>0.8182377209690838</v>
+        <v>0.818442210682262</v>
       </c>
       <c r="EC4">
-        <v>0.8228580739019735</v>
+        <v>0.8230615960495331</v>
       </c>
       <c r="ED4">
-        <v>0.8299845347984622</v>
+        <v>0.8301896080262542</v>
       </c>
       <c r="EE4">
-        <v>0.8304820718912356</v>
+        <v>0.8306820341114021</v>
       </c>
       <c r="EF4">
-        <v>0.8310841382224906</v>
+        <v>0.8312790944872227</v>
       </c>
       <c r="EG4">
-        <v>0.8402096130899438</v>
+        <v>0.8404081294498099</v>
       </c>
       <c r="EH4">
-        <v>0.840335037398122</v>
+        <v>0.8405280687759231</v>
       </c>
       <c r="EI4">
-        <v>0.8464487220093212</v>
+        <v>0.8466422866242187</v>
       </c>
       <c r="EJ4">
-        <v>0.8466975881357064</v>
+        <v>0.8468857918279281</v>
       </c>
       <c r="EK4">
-        <v>0.8545429650217529</v>
+        <v>0.8547334423068843</v>
       </c>
       <c r="EL4">
-        <v>0.8574924637789116</v>
+        <v>0.8576802942850791</v>
       </c>
       <c r="EM4">
-        <v>0.8661840026526677</v>
+        <v>0.8663749571470233</v>
       </c>
       <c r="EN4">
-        <v>0.8736889235436593</v>
+        <v>0.8738818094716513</v>
       </c>
       <c r="EO4">
-        <v>0.873697077027541</v>
+        <v>0.8738843601159456</v>
       </c>
       <c r="EP4">
-        <v>0.8851749578608256</v>
+        <v>0.8853681652192569</v>
       </c>
       <c r="EQ4">
-        <v>0.9034470095954255</v>
+        <v>0.9036529693855588</v>
       </c>
       <c r="ER4">
-        <v>0.9061912004555663</v>
+        <v>0.9063943071316973</v>
       </c>
       <c r="ES4">
-        <v>0.9172848822944315</v>
+        <v>0.9174935271194733</v>
       </c>
       <c r="ET4">
-        <v>0.9174437270921243</v>
+        <v>0.9176469205227911</v>
       </c>
       <c r="EU4">
-        <v>0.9176682217988635</v>
+        <v>0.9178660298135063</v>
       </c>
       <c r="EV4">
-        <v>0.9242538637032076</v>
+        <v>0.92445267927341</v>
       </c>
       <c r="EW4">
-        <v>0.9269457866641077</v>
+        <v>0.9271416965909157</v>
       </c>
       <c r="EX4">
-        <v>0.929930217520759</v>
+        <v>0.9301235157754656</v>
       </c>
       <c r="EY4">
-        <v>0.9301087971381652</v>
+        <v>0.9302966638320483</v>
       </c>
       <c r="EZ4">
-        <v>0.9373613975328218</v>
+        <v>0.9375509420775028</v>
       </c>
       <c r="FA4">
-        <v>0.940316167489904</v>
+        <v>0.9405030705531924</v>
       </c>
       <c r="FB4">
-        <v>0.9412320813166004</v>
+        <v>0.9414142938421075</v>
       </c>
       <c r="FC4">
-        <v>0.9414753670030667</v>
+        <v>0.9416522129975395</v>
       </c>
       <c r="FD4">
-        <v>0.9453600221466424</v>
+        <v>0.9455351611970614</v>
       </c>
       <c r="FE4">
-        <v>0.9454744109649809</v>
+        <v>0.9456440539426353</v>
       </c>
       <c r="FF4">
-        <v>0.9484892541211905</v>
+        <v>0.9486563159911936</v>
       </c>
       <c r="FG4">
-        <v>0.9485125656908518</v>
+        <v>0.9486740399551884</v>
       </c>
       <c r="FH4">
-        <v>0.9517292604441296</v>
+        <v>0.9518883564622617</v>
       </c>
       <c r="FI4">
-        <v>0.9558699628839863</v>
+        <v>0.9560276092863479</v>
       </c>
       <c r="FJ4">
-        <v>0.9590720008374769</v>
+        <v>0.9592272542635073</v>
       </c>
       <c r="FK4">
-        <v>0.9596820286986163</v>
+        <v>0.9598322841705732</v>
       </c>
       <c r="FL4">
-        <v>0.9597286854179387</v>
+        <v>0.9598733767461728</v>
       </c>
       <c r="FM4">
-        <v>0.9607409697032353</v>
+        <v>0.9608810673462816</v>
       </c>
       <c r="FN4">
-        <v>0.9607514722810827</v>
+        <v>0.9608859694453882</v>
       </c>
       <c r="FO4">
-        <v>0.9626922780528927</v>
+        <v>0.9628231146988265</v>
       </c>
       <c r="FP4">
-        <v>0.9631056993468878</v>
+        <v>0.9632313404485717</v>
       </c>
       <c r="FQ4">
-        <v>0.9657842153079826</v>
+        <v>0.965906937292198</v>
       </c>
       <c r="FR4">
-        <v>0.965800373224748</v>
+        <v>0.9659175004138546</v>
       </c>
       <c r="FS4">
-        <v>0.9668104261100771</v>
+        <v>0.9669229573714323</v>
       </c>
       <c r="FT4">
-        <v>0.9675114826998943</v>
+        <v>0.9676191074913152</v>
       </c>
       <c r="FU4">
-        <v>0.9685444508848905</v>
+        <v>0.9686475027785034</v>
       </c>
       <c r="FV4">
-        <v>0.9694025805724262</v>
+        <v>0.9695008838550286</v>
       </c>
       <c r="FW4">
-        <v>0.9696108230194015</v>
+        <v>0.9697037245524113</v>
       </c>
       <c r="FX4">
-        <v>0.9696563817547398</v>
+        <v>0.9697437180405497</v>
       </c>
       <c r="FY4">
-        <v>0.9712549750315204</v>
+        <v>0.9713383068743978</v>
       </c>
       <c r="FZ4">
-        <v>0.9738077950944408</v>
+        <v>0.9738880814951036</v>
       </c>
       <c r="GA4">
-        <v>0.9738239309182064</v>
+        <v>0.973898622501557</v>
       </c>
       <c r="GB4">
-        <v>0.9747985016540508</v>
+        <v>0.9748685616499858</v>
       </c>
       <c r="GC4">
-        <v>0.9788115315957618</v>
+        <v>0.9788800136646915</v>
       </c>
       <c r="GD4">
-        <v>0.9797079748427411</v>
+        <v>0.9797717468058997</v>
       </c>
       <c r="GE4">
-        <v>0.9797159446796253</v>
+        <v>0.979774113618631</v>
       </c>
       <c r="GF4">
-        <v>0.9798502121976751</v>
+        <v>0.9799029050420676</v>
       </c>
       <c r="GG4">
-        <v>0.9801404638234592</v>
+        <v>0.9801878373377242</v>
       </c>
       <c r="GH4">
-        <v>0.98354697007398</v>
+        <v>0.9835921561031518</v>
       </c>
       <c r="GI4">
-        <v>0.988758493298283</v>
+        <v>0.9888033058897123</v>
       </c>
       <c r="GJ4">
-        <v>0.9889128861460404</v>
+        <v>0.988952242868872</v>
       </c>
       <c r="GK4">
-        <v>0.9889344861807267</v>
+        <v>0.9889682535777939</v>
       </c>
       <c r="GL4">
-        <v>0.9933458481166519</v>
+        <v>0.9933784379115359</v>
       </c>
       <c r="GM4">
-        <v>0.9946842301972121</v>
+        <v>0.9947125540361484</v>
       </c>
       <c r="GN4">
-        <v>0.9948272551351347</v>
+        <v>0.9948501116806905</v>
       </c>
       <c r="GO4">
-        <v>0.9965389850102719</v>
+        <v>0.9965579508155084</v>
       </c>
       <c r="GP4">
-        <v>0.9969799217438674</v>
+        <v>0.9969937196579514</v>
       </c>
       <c r="GQ4">
-        <v>0.9978512038012121</v>
+        <v>0.9978602663224557</v>
       </c>
       <c r="GR4">
-        <v>0.9982989577247084</v>
+        <v>0.9983028592060955</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.04913417548998E-05</v>
+        <v>5.969549939926823E-06</v>
       </c>
       <c r="C5">
-        <v>2.637479614080748E-05</v>
+        <v>1.733556345062741E-05</v>
       </c>
       <c r="D5">
-        <v>2.964659452029977E-05</v>
+        <v>1.733556345062741E-05</v>
       </c>
       <c r="E5">
-        <v>4.699585494182098E-05</v>
+        <v>3.016856576781555E-05</v>
       </c>
       <c r="F5">
-        <v>4.999438741467394E-05</v>
+        <v>3.016856576781555E-05</v>
       </c>
       <c r="G5">
-        <v>5.001294604912484E-05</v>
+        <v>3.016856576781555E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001139102616015872</v>
+        <v>8.958718322218972E-05</v>
       </c>
       <c r="I5">
-        <v>0.0001153167031357584</v>
+        <v>8.958718322218972E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001155734623619967</v>
+        <v>8.958718322218972E-05</v>
       </c>
       <c r="K5">
-        <v>0.000120100067171976</v>
+        <v>8.958718322218972E-05</v>
       </c>
       <c r="L5">
-        <v>0.0001358178475538584</v>
+        <v>0.0001007873890451567</v>
       </c>
       <c r="M5">
-        <v>0.000149409621384087</v>
+        <v>0.0001098598728244019</v>
       </c>
       <c r="N5">
-        <v>0.0001527178188644636</v>
+        <v>0.0001098598728244019</v>
       </c>
       <c r="O5">
-        <v>0.0001558788809412654</v>
+        <v>0.0001098598728244019</v>
       </c>
       <c r="P5">
-        <v>0.0001957071539089414</v>
+        <v>0.0001451900261867483</v>
       </c>
       <c r="Q5">
-        <v>0.0001971264397434246</v>
+        <v>0.0001451900261867483</v>
       </c>
       <c r="R5">
-        <v>0.00021788875024787</v>
+        <v>0.0001614388326048764</v>
       </c>
       <c r="S5">
-        <v>0.0002271532134729613</v>
+        <v>0.0001661805140366785</v>
       </c>
       <c r="T5">
-        <v>0.0002280060818636828</v>
+        <v>0.0001661805140366785</v>
       </c>
       <c r="U5">
-        <v>0.0002281905778581653</v>
+        <v>0.0001661805140366785</v>
       </c>
       <c r="V5">
-        <v>0.0002801992491217787</v>
+        <v>0.0002137008941579299</v>
       </c>
       <c r="W5">
-        <v>0.0003102601038521434</v>
+        <v>0.0002392557478733347</v>
       </c>
       <c r="X5">
-        <v>0.0003200003850887953</v>
+        <v>0.000244473631258141</v>
       </c>
       <c r="Y5">
-        <v>0.0003205766276427958</v>
+        <v>0.000244473631258141</v>
       </c>
       <c r="Z5">
-        <v>0.0003996855335648421</v>
+        <v>0.0003191161134387327</v>
       </c>
       <c r="AA5">
-        <v>0.0004316372343411472</v>
+        <v>0.0003465633389392112</v>
       </c>
       <c r="AB5">
-        <v>0.0004339176618965529</v>
+        <v>0.0003465633389392112</v>
       </c>
       <c r="AC5">
-        <v>0.0004700092867734425</v>
+        <v>0.0003781538290788773</v>
       </c>
       <c r="AD5">
-        <v>0.0005204710699994724</v>
+        <v>0.0004241260729659409</v>
       </c>
       <c r="AE5">
-        <v>0.0005247387421031606</v>
+        <v>0.0004241260729659409</v>
       </c>
       <c r="AF5">
-        <v>0.0005343493773366625</v>
+        <v>0.0004292142057351775</v>
       </c>
       <c r="AG5">
-        <v>0.000535039751703436</v>
+        <v>0.0004292142057351775</v>
       </c>
       <c r="AH5">
-        <v>0.0005354054597923213</v>
+        <v>0.0004292142057351775</v>
       </c>
       <c r="AI5">
-        <v>0.0005420373729534516</v>
+        <v>0.0004313212128768493</v>
       </c>
       <c r="AJ5">
-        <v>0.0005450172228258507</v>
+        <v>0.0004313212128768493</v>
       </c>
       <c r="AK5">
-        <v>0.0005483254203062273</v>
+        <v>0.0004313212128768493</v>
       </c>
       <c r="AL5">
-        <v>0.0005484389279489852</v>
+        <v>0.0004313212128768493</v>
       </c>
       <c r="AM5">
-        <v>0.0005553926836179351</v>
+        <v>0.0004337503222236914</v>
       </c>
       <c r="AN5">
-        <v>0.0005718534470178692</v>
+        <v>0.0004456941105837817</v>
       </c>
       <c r="AO5">
-        <v>0.000572469008392825</v>
+        <v>0.0004456941105837817</v>
       </c>
       <c r="AP5">
-        <v>0.0005756108874691607</v>
+        <v>0.0004456941105837817</v>
       </c>
       <c r="AQ5">
-        <v>0.0005788077293468318</v>
+        <v>0.0004456941105837817</v>
       </c>
       <c r="AR5">
-        <v>0.0005816298392153984</v>
+        <v>0.0004456941105837817</v>
       </c>
       <c r="AS5">
-        <v>0.0005944365355265525</v>
+        <v>0.0004539808833584838</v>
       </c>
       <c r="AT5">
-        <v>0.0006018873527075791</v>
+        <v>0.0004569074553004005</v>
       </c>
       <c r="AU5">
-        <v>0.000628978492365791</v>
+        <v>0.0004794901976562815</v>
       </c>
       <c r="AV5">
-        <v>0.0006296688667325645</v>
+        <v>0.0004794901976562815</v>
       </c>
       <c r="AW5">
-        <v>0.0006549668203472088</v>
+        <v>0.0005002783070321158</v>
       </c>
       <c r="AX5">
-        <v>0.0006739405908081994</v>
+        <v>0.0005147371302192057</v>
       </c>
       <c r="AY5">
-        <v>0.0006750481499351088</v>
+        <v>0.0005147371302192057</v>
       </c>
       <c r="AZ5">
-        <v>0.0006774394566932085</v>
+        <v>0.0005147371302192057</v>
       </c>
       <c r="BA5">
-        <v>0.0006908440730188898</v>
+        <v>0.000523622305474983</v>
       </c>
       <c r="BB5">
-        <v>0.0007474010973930109</v>
+        <v>0.0005756947088100527</v>
       </c>
       <c r="BC5">
-        <v>0.0007515014264926334</v>
+        <v>0.0005756947088100527</v>
       </c>
       <c r="BD5">
-        <v>0.0007846864152989027</v>
+        <v>0.0006043762174906897</v>
       </c>
       <c r="BE5">
-        <v>0.0008910754878837535</v>
+        <v>0.0007063208789235988</v>
       </c>
       <c r="BF5">
-        <v>0.000895691203595898</v>
+        <v>0.0007064100617300794</v>
       </c>
       <c r="BG5">
-        <v>0.0009175941881280574</v>
+        <v>0.0007238004625951201</v>
       </c>
       <c r="BH5">
-        <v>0.0009678368953487646</v>
+        <v>0.0007695534537026412</v>
       </c>
       <c r="BI5">
-        <v>0.0009754870715346348</v>
+        <v>0.0007726795455138125</v>
       </c>
       <c r="BJ5">
-        <v>0.001023994317713177</v>
+        <v>0.000816695675221465</v>
       </c>
       <c r="BK5">
-        <v>0.00102500654653777</v>
+        <v>0.000816695675221465</v>
       </c>
       <c r="BL5">
-        <v>0.001028148425614106</v>
+        <v>0.000816695675221465</v>
       </c>
       <c r="BM5">
-        <v>0.001032567296721468</v>
+        <v>0.000816695675221465</v>
       </c>
       <c r="BN5">
-        <v>0.001035103975983099</v>
+        <v>0.000816695675221465</v>
       </c>
       <c r="BO5">
-        <v>0.001060401929597744</v>
+        <v>0.0008374837845972993</v>
       </c>
       <c r="BP5">
-        <v>0.001061713017329598</v>
+        <v>0.0008374837845972993</v>
       </c>
       <c r="BQ5">
-        <v>0.001062623863111728</v>
+        <v>0.0008374837845972993</v>
       </c>
       <c r="BR5">
-        <v>0.001099583114009698</v>
+        <v>0.0008699426008525753</v>
       </c>
       <c r="BS5">
-        <v>0.00116323387555617</v>
+        <v>0.000929114465354516</v>
       </c>
       <c r="BT5">
-        <v>0.001198523186413566</v>
+        <v>0.0009599019940809472</v>
       </c>
       <c r="BU5">
-        <v>0.001236047665325269</v>
+        <v>0.0009929264944370615</v>
       </c>
       <c r="BV5">
-        <v>0.00128775619658159</v>
+        <v>0.001040146492365595</v>
       </c>
       <c r="BW5">
-        <v>0.001306952514047988</v>
+        <v>0.00105482804213309</v>
       </c>
       <c r="BX5">
-        <v>0.001361815865380959</v>
+        <v>0.001105205405788386</v>
       </c>
       <c r="BY5">
-        <v>0.001389011562041711</v>
+        <v>0.001127892789514707</v>
       </c>
       <c r="BZ5">
-        <v>0.001392905133536311</v>
+        <v>0.001127892789514707</v>
       </c>
       <c r="CA5">
-        <v>0.001404108157808502</v>
+        <v>0.001134574596234367</v>
       </c>
       <c r="CB5">
-        <v>0.001418274999152702</v>
+        <v>0.001144222611554263</v>
       </c>
       <c r="CC5">
-        <v>0.001456559783082877</v>
+        <v>0.001178008030425185</v>
       </c>
       <c r="CD5">
-        <v>0.001456663127405388</v>
+        <v>0.001178008030425185</v>
       </c>
       <c r="CE5">
-        <v>0.001523644659032785</v>
+        <v>0.00124051335263366</v>
       </c>
       <c r="CF5">
-        <v>0.001526067098891641</v>
+        <v>0.00124051335263366</v>
       </c>
       <c r="CG5">
-        <v>0.001526504128982259</v>
+        <v>0.00124051335263366</v>
       </c>
       <c r="CH5">
-        <v>0.001582366746339509</v>
+        <v>0.001291890788629159</v>
       </c>
       <c r="CI5">
-        <v>0.001604269730871668</v>
+        <v>0.0013092811894942</v>
       </c>
       <c r="CJ5">
-        <v>0.001613222062089176</v>
+        <v>0.00131371048705655</v>
       </c>
       <c r="CK5">
-        <v>0.001635853457639033</v>
+        <v>0.001331829886700094</v>
       </c>
       <c r="CL5">
-        <v>0.001710629763455814</v>
+        <v>0.001402136272764973</v>
       </c>
       <c r="CM5">
-        <v>0.001735364098056764</v>
+        <v>0.001422360308338323</v>
       </c>
       <c r="CN5">
-        <v>0.1770158483567076</v>
+        <v>0.1768397495654016</v>
       </c>
       <c r="CO5">
-        <v>0.2561384002790854</v>
+        <v>0.2560216158644379</v>
       </c>
       <c r="CP5">
-        <v>0.4190509342372419</v>
+        <v>0.4190610750207936</v>
       </c>
       <c r="CQ5">
-        <v>0.4257957234011147</v>
+        <v>0.4258067763528213</v>
       </c>
       <c r="CR5">
-        <v>0.4457908468869203</v>
+        <v>0.4458135038098759</v>
       </c>
       <c r="CS5">
-        <v>0.4458419687581624</v>
+        <v>0.4458601366744094</v>
       </c>
       <c r="CT5">
-        <v>0.4586063370682881</v>
+        <v>0.458630274400317</v>
       </c>
       <c r="CU5">
-        <v>0.4727392124116634</v>
+        <v>0.4727700234189876</v>
       </c>
       <c r="CV5">
-        <v>0.4729145657259238</v>
+        <v>0.4729409879699065</v>
       </c>
       <c r="CW5">
-        <v>0.4916706651816259</v>
+        <v>0.4917076916182379</v>
       </c>
       <c r="CX5">
-        <v>0.5153725797574925</v>
+        <v>0.5154242012053895</v>
       </c>
       <c r="CY5">
-        <v>0.5744636541931815</v>
+        <v>0.5745584264547829</v>
       </c>
       <c r="CZ5">
-        <v>0.574601719826536</v>
+        <v>0.5746920732370613</v>
       </c>
       <c r="DA5">
-        <v>0.5746023847866522</v>
+        <v>0.5746920732370613</v>
       </c>
       <c r="DB5">
-        <v>0.5765681804344135</v>
+        <v>0.576654924844038</v>
       </c>
       <c r="DC5">
-        <v>0.5932497908397133</v>
+        <v>0.5933454655197922</v>
       </c>
       <c r="DD5">
-        <v>0.6005260950164999</v>
+        <v>0.600623110748543</v>
       </c>
       <c r="DE5">
-        <v>0.6011900220326308</v>
+        <v>0.6012830432354469</v>
       </c>
       <c r="DF5">
-        <v>0.6122406903011202</v>
+        <v>0.6123380981211438</v>
       </c>
       <c r="DG5">
-        <v>0.6165061590047549</v>
+        <v>0.616602478408984</v>
       </c>
       <c r="DH5">
-        <v>0.6387851445460497</v>
+        <v>0.6388949107884925</v>
       </c>
       <c r="DI5">
-        <v>0.6388478138675724</v>
+        <v>0.6389531004210386</v>
       </c>
       <c r="DJ5">
-        <v>0.6792489498491667</v>
+        <v>0.6793823061521969</v>
       </c>
       <c r="DK5">
-        <v>0.6883289220697756</v>
+        <v>0.6884650748192607</v>
       </c>
       <c r="DL5">
-        <v>0.7040531084518137</v>
+        <v>0.7041974189184812</v>
       </c>
       <c r="DM5">
-        <v>0.7053599575835652</v>
+        <v>0.705500792300117</v>
       </c>
       <c r="DN5">
-        <v>0.7170826248683815</v>
+        <v>0.7172283884436412</v>
       </c>
       <c r="DO5">
-        <v>0.7259152710829813</v>
+        <v>0.7260636315353196</v>
       </c>
       <c r="DP5">
-        <v>0.7439650535215225</v>
+        <v>0.7441234482335145</v>
       </c>
       <c r="DQ5">
-        <v>0.7441228795553572</v>
+        <v>0.7442768713611017</v>
       </c>
       <c r="DR5">
-        <v>0.7463602801097176</v>
+        <v>0.7465115470348971</v>
       </c>
       <c r="DS5">
-        <v>0.766993435611025</v>
+        <v>0.7671568213407032</v>
       </c>
       <c r="DT5">
-        <v>0.7670330692819879</v>
+        <v>0.7671919567350348</v>
       </c>
       <c r="DU5">
-        <v>0.7743542134598639</v>
+        <v>0.7745144781466385</v>
       </c>
       <c r="DV5">
-        <v>0.7747790217401851</v>
+        <v>0.7749350989508699</v>
       </c>
       <c r="DW5">
-        <v>0.7984951983163983</v>
+        <v>0.7986658820464927</v>
       </c>
       <c r="DX5">
-        <v>0.8026903856183254</v>
+        <v>0.8028599242219876</v>
       </c>
       <c r="DY5">
-        <v>0.8035105225382516</v>
+        <v>0.8036761926597352</v>
       </c>
       <c r="DZ5">
-        <v>0.8065837148129186</v>
+        <v>0.8067473344610094</v>
       </c>
       <c r="EA5">
-        <v>0.8177287020836995</v>
+        <v>0.8178967844557721</v>
       </c>
       <c r="EB5">
-        <v>0.8207078913560825</v>
+        <v>0.8208738474029713</v>
       </c>
       <c r="EC5">
-        <v>0.8264476644955372</v>
+        <v>0.8266137217549341</v>
       </c>
       <c r="ED5">
-        <v>0.828096967635609</v>
+        <v>0.8282598254738293</v>
       </c>
       <c r="EE5">
-        <v>0.8317273520238136</v>
+        <v>0.831888608991513</v>
       </c>
       <c r="EF5">
-        <v>0.8321589642343001</v>
+        <v>0.8323160392160565</v>
       </c>
       <c r="EG5">
-        <v>0.8418490054697314</v>
+        <v>0.8420093691676184</v>
       </c>
       <c r="EH5">
-        <v>0.843342140306009</v>
+        <v>0.8434991785692382</v>
       </c>
       <c r="EI5">
-        <v>0.8484574734302921</v>
+        <v>0.848614109040276</v>
       </c>
       <c r="EJ5">
-        <v>0.8533839125499859</v>
+        <v>0.8535399930866078</v>
       </c>
       <c r="EK5">
-        <v>0.8642857908148602</v>
+        <v>0.8644461379088193</v>
       </c>
       <c r="EL5">
-        <v>0.8642906756619789</v>
+        <v>0.8644464964401967</v>
       </c>
       <c r="EM5">
-        <v>0.8743468319063054</v>
+        <v>0.8745062368218477</v>
       </c>
       <c r="EN5">
-        <v>0.8750884834243247</v>
+        <v>0.875243956527176</v>
       </c>
       <c r="EO5">
-        <v>0.8753885639516155</v>
+        <v>0.8755397489345332</v>
       </c>
       <c r="EP5">
-        <v>0.8962931274595171</v>
+        <v>0.8964566502482729</v>
       </c>
       <c r="EQ5">
-        <v>0.902481910009881</v>
+        <v>0.9026458963205095</v>
       </c>
       <c r="ER5">
-        <v>0.9079855818435993</v>
+        <v>0.908149478854662</v>
       </c>
       <c r="ES5">
-        <v>0.9104178459026941</v>
+        <v>0.910579175270147</v>
       </c>
       <c r="ET5">
-        <v>0.91145692922794</v>
+        <v>0.9116145667828587</v>
       </c>
       <c r="EU5">
-        <v>0.9122504512472196</v>
+        <v>0.9124041988441788</v>
       </c>
       <c r="EV5">
-        <v>0.9190935964134821</v>
+        <v>0.9192483355428586</v>
       </c>
       <c r="EW5">
-        <v>0.9190961651551445</v>
+        <v>0.9192483355428586</v>
       </c>
       <c r="EX5">
-        <v>0.9274537163582013</v>
+        <v>0.9276081002649449</v>
       </c>
       <c r="EY5">
-        <v>0.9278891856087815</v>
+        <v>0.9280393906418593</v>
       </c>
       <c r="EZ5">
-        <v>0.9348374440775978</v>
+        <v>0.9349887254598761</v>
       </c>
       <c r="FA5">
-        <v>0.9375563291436564</v>
+        <v>0.9377052741591587</v>
       </c>
       <c r="FB5">
-        <v>0.9387927242736961</v>
+        <v>0.9389381366891728</v>
       </c>
       <c r="FC5">
-        <v>0.9394361289893284</v>
+        <v>0.939577530315966</v>
       </c>
       <c r="FD5">
-        <v>0.9414681787386995</v>
+        <v>0.9416066894855287</v>
       </c>
       <c r="FE5">
-        <v>0.9422643119980425</v>
+        <v>0.9423989348939432</v>
       </c>
       <c r="FF5">
-        <v>0.9447087723574337</v>
+        <v>0.9448408374510189</v>
       </c>
       <c r="FG5">
-        <v>0.9462621525951749</v>
+        <v>0.9463909408666095</v>
       </c>
       <c r="FH5">
-        <v>0.9508780253073231</v>
+        <v>0.9510060079068223</v>
       </c>
       <c r="FI5">
-        <v>0.9560088274319821</v>
+        <v>0.9561364198602988</v>
       </c>
       <c r="FJ5">
-        <v>0.9571718197602385</v>
+        <v>0.9572958203592086</v>
       </c>
       <c r="FK5">
-        <v>0.9572311973016812</v>
+        <v>0.9573507155555104</v>
       </c>
       <c r="FL5">
-        <v>0.9581483404239642</v>
+        <v>0.9582640684707128</v>
       </c>
       <c r="FM5">
-        <v>0.9596362900601157</v>
+        <v>0.9597486884882263</v>
       </c>
       <c r="FN5">
-        <v>0.9597060798718113</v>
+        <v>0.9598140043565271</v>
       </c>
       <c r="FO5">
-        <v>0.9616405180188109</v>
+        <v>0.9617454731601183</v>
       </c>
       <c r="FP5">
-        <v>0.9623049620949544</v>
+        <v>0.9624059231242547</v>
       </c>
       <c r="FQ5">
-        <v>0.9648777586574636</v>
+        <v>0.9649762654399799</v>
       </c>
       <c r="FR5">
-        <v>0.965105300482992</v>
+        <v>0.9651994606135033</v>
       </c>
       <c r="FS5">
-        <v>0.9683099449608528</v>
+        <v>0.9684021606878287</v>
       </c>
       <c r="FT5">
-        <v>0.9683396093425735</v>
+        <v>0.9684273187486172</v>
       </c>
       <c r="FU5">
-        <v>0.9719340875299056</v>
+        <v>0.9720201670924214</v>
       </c>
       <c r="FV5">
-        <v>0.9719806051180359</v>
+        <v>0.9720621919586094</v>
       </c>
       <c r="FW5">
-        <v>0.9724914658904479</v>
+        <v>0.9725689346913908</v>
       </c>
       <c r="FX5">
-        <v>0.9725537325769608</v>
+        <v>0.9726267213640377</v>
       </c>
       <c r="FY5">
-        <v>0.9755718061502885</v>
+        <v>0.975642699988242</v>
       </c>
       <c r="FZ5">
-        <v>0.9756505447822016</v>
+        <v>0.9757169718976365</v>
       </c>
       <c r="GA5">
-        <v>0.9757497356306115</v>
+        <v>0.9758117125265886</v>
       </c>
       <c r="GB5">
-        <v>0.9775542410744541</v>
+        <v>0.9776131437832625</v>
       </c>
       <c r="GC5">
-        <v>0.9799561476328114</v>
+        <v>0.9800124582022943</v>
       </c>
       <c r="GD5">
-        <v>0.9804957682859221</v>
+        <v>0.9805479840223574</v>
       </c>
       <c r="GE5">
-        <v>0.9805027220415911</v>
+        <v>0.9805504131317043</v>
       </c>
       <c r="GF5">
-        <v>0.981374622762775</v>
+        <v>0.9814184871393441</v>
       </c>
       <c r="GG5">
-        <v>0.9814158960007777</v>
+        <v>0.9814552634236956</v>
       </c>
       <c r="GH5">
-        <v>0.9886720668770751</v>
+        <v>0.9887127591062325</v>
       </c>
       <c r="GI5">
-        <v>0.9914775155452369</v>
+        <v>0.9915159412564964</v>
       </c>
       <c r="GJ5">
-        <v>0.9914980883797367</v>
+        <v>0.9915320004340202</v>
       </c>
       <c r="GK5">
-        <v>0.9921756079961979</v>
+        <v>0.9922055364892347</v>
       </c>
       <c r="GL5">
-        <v>0.9951167510676565</v>
+        <v>0.9951445225357189</v>
       </c>
       <c r="GM5">
-        <v>0.9951262995918885</v>
+        <v>0.9951495485073688</v>
       </c>
       <c r="GN5">
-        <v>0.9964120289231269</v>
+        <v>0.9964317850467518</v>
       </c>
       <c r="GO5">
-        <v>0.9984897725736082</v>
+        <v>0.9985066749882071</v>
       </c>
       <c r="GP5">
-        <v>0.9984948642734318</v>
+        <v>0.9985072405392006</v>
       </c>
       <c r="GQ5">
-        <v>0.9985576191549566</v>
+        <v>0.9985655158007879</v>
       </c>
       <c r="GR5">
-        <v>0.9999912907897893</v>
+        <v>0.9999958140196196</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.259257164584527E-07</v>
+        <v>2.343182137426792E-07</v>
       </c>
       <c r="C6">
-        <v>7.352126130685018E-06</v>
+        <v>5.969632081825554E-06</v>
       </c>
       <c r="D6">
-        <v>8.4343954499225E-06</v>
+        <v>6.360314391314271E-06</v>
       </c>
       <c r="E6">
-        <v>1.340843653833674E-05</v>
+        <v>1.064327858967162E-05</v>
       </c>
       <c r="F6">
-        <v>6.897587152605527E-05</v>
+        <v>6.55262682906331E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001296306676042023</v>
+        <v>0.0001254972859153386</v>
       </c>
       <c r="H6">
-        <v>0.0001321643502492389</v>
+        <v>0.0001273395717967565</v>
       </c>
       <c r="I6">
-        <v>0.0001399830853882179</v>
+        <v>0.000134467602918123</v>
       </c>
       <c r="J6">
-        <v>0.0002122190966722226</v>
+        <v>0.0002060213537734529</v>
       </c>
       <c r="K6">
-        <v>0.0002297692779841794</v>
+        <v>0.0002228821066313754</v>
       </c>
       <c r="L6">
-        <v>0.0002313885444129621</v>
+        <v>0.0002238098564380929</v>
       </c>
       <c r="M6">
-        <v>0.0002469326406892605</v>
+        <v>0.000238664261309819</v>
       </c>
       <c r="N6">
-        <v>0.0002784205612489625</v>
+        <v>0.0002694645803250979</v>
       </c>
       <c r="O6">
-        <v>0.0002830524596312951</v>
+        <v>0.0002734053569705167</v>
       </c>
       <c r="P6">
-        <v>0.0002837440978435891</v>
+        <v>0.0002734053569705167</v>
       </c>
       <c r="Q6">
-        <v>0.0002838585180356229</v>
+        <v>0.0002734053569705167</v>
       </c>
       <c r="R6">
-        <v>0.0002838631499857053</v>
+        <v>0.0002734053569705167</v>
       </c>
       <c r="S6">
-        <v>0.0002849339762047393</v>
+        <v>0.0002737845946798809</v>
       </c>
       <c r="T6">
-        <v>0.0003972476482011298</v>
+        <v>0.0003854212594857477</v>
       </c>
       <c r="U6">
-        <v>0.0003978687714121704</v>
+        <v>0.0003854212594857477</v>
       </c>
       <c r="V6">
-        <v>0.0004048970295370986</v>
+        <v>0.0003917587099801296</v>
       </c>
       <c r="W6">
-        <v>0.0004961567311592519</v>
+        <v>0.0004823386447317171</v>
       </c>
       <c r="X6">
-        <v>0.0005863107827617522</v>
+        <v>0.0005718127845389539</v>
       </c>
       <c r="Y6">
-        <v>0.0006060686701129512</v>
+        <v>0.0005908815328144252</v>
       </c>
       <c r="Z6">
-        <v>0.0006131447127387289</v>
+        <v>0.00059726677407308</v>
       </c>
       <c r="AA6">
-        <v>0.0007155376285587766</v>
+        <v>0.0006989813823249396</v>
       </c>
       <c r="AB6">
-        <v>0.0008235864804793593</v>
+        <v>0.0008063526680374529</v>
       </c>
       <c r="AC6">
-        <v>0.0008469810368952007</v>
+        <v>0.0008290585620592974</v>
       </c>
       <c r="AD6">
-        <v>0.0008695409112962054</v>
+        <v>0.000850929664659136</v>
       </c>
       <c r="AE6">
-        <v>0.0009235231822557475</v>
+        <v>0.0009042272825542214</v>
       </c>
       <c r="AF6">
-        <v>0.0009811913532808069</v>
+        <v>0.0009612112836495805</v>
       </c>
       <c r="AG6">
-        <v>0.0009828710014106628</v>
+        <v>0.0009621994230719913</v>
       </c>
       <c r="AH6">
-        <v>0.0009829666294023625</v>
+        <v>0.0009621994230719913</v>
       </c>
       <c r="AI6">
-        <v>0.0009879161037903402</v>
+        <v>0.0009664578173497957</v>
       </c>
       <c r="AJ6">
-        <v>0.001000691731017429</v>
+        <v>0.0009785433902911712</v>
       </c>
       <c r="AK6">
-        <v>0.001000715795336856</v>
+        <v>0.0009785433902911712</v>
       </c>
       <c r="AL6">
-        <v>0.001018265976648813</v>
+        <v>0.0009954041431490938</v>
       </c>
       <c r="AM6">
-        <v>0.001018757441217549</v>
+        <v>0.0009954041431490938</v>
       </c>
       <c r="AN6">
-        <v>0.001021704990269942</v>
+        <v>0.0009976603496860146</v>
       </c>
       <c r="AO6">
-        <v>0.001027626500775198</v>
+        <v>0.001002890907492156</v>
       </c>
       <c r="AP6">
-        <v>0.001095013351973008</v>
+        <v>0.001069594862650522</v>
       </c>
       <c r="AQ6">
-        <v>0.001130531179604342</v>
+        <v>0.001104425616963413</v>
       </c>
       <c r="AR6">
-        <v>0.001135901171099794</v>
+        <v>0.001109104583468588</v>
       </c>
       <c r="AS6">
-        <v>0.001183151687939678</v>
+        <v>0.001155669564869473</v>
       </c>
       <c r="AT6">
-        <v>0.001235731552874292</v>
+        <v>0.001207564592917204</v>
       </c>
       <c r="AU6">
-        <v>0.001269036405466291</v>
+        <v>0.00124018208212181</v>
       </c>
       <c r="AV6">
-        <v>0.001292766253888092</v>
+        <v>0.001263223312098505</v>
       </c>
       <c r="AW6">
-        <v>0.001296529962654992</v>
+        <v>0.001266295785329265</v>
       </c>
       <c r="AX6">
-        <v>0.001300181903419906</v>
+        <v>0.001269256475907883</v>
       </c>
       <c r="AY6">
-        <v>0.001300406937313906</v>
+        <v>0.001269256475907883</v>
       </c>
       <c r="AZ6">
-        <v>0.00130093993682338</v>
+        <v>0.001269256475907883</v>
       </c>
       <c r="BA6">
-        <v>0.001300983058671147</v>
+        <v>0.001269256475907883</v>
       </c>
       <c r="BB6">
-        <v>0.001308371282802474</v>
+        <v>0.001275953939591735</v>
       </c>
       <c r="BC6">
-        <v>0.001333335468246215</v>
+        <v>0.001300229668382907</v>
       </c>
       <c r="BD6">
-        <v>0.001361746280751221</v>
+        <v>0.001327952476007039</v>
       </c>
       <c r="BE6">
-        <v>0.001362617194466702</v>
+        <v>0.001328131775009025</v>
       </c>
       <c r="BF6">
-        <v>0.001364952573208214</v>
+        <v>0.001329775730993943</v>
       </c>
       <c r="BG6">
-        <v>0.001378894778456038</v>
+        <v>0.00134302803486698</v>
       </c>
       <c r="BH6">
-        <v>0.001400635132842476</v>
+        <v>0.001364079510032464</v>
       </c>
       <c r="BI6">
-        <v>0.001423333068245934</v>
+        <v>0.001386088691731305</v>
       </c>
       <c r="BJ6">
-        <v>0.001424344670763916</v>
+        <v>0.001386408697976783</v>
       </c>
       <c r="BK6">
-        <v>0.001424345272202877</v>
+        <v>0.001386408697976783</v>
       </c>
       <c r="BL6">
-        <v>0.001442709574529304</v>
+        <v>0.001404083678561282</v>
       </c>
       <c r="BM6">
-        <v>0.001453116827714295</v>
+        <v>0.001413800567022459</v>
       </c>
       <c r="BN6">
-        <v>0.001453908382168365</v>
+        <v>0.001413900496360903</v>
       </c>
       <c r="BO6">
-        <v>0.001453911249453416</v>
+        <v>0.001413900496360903</v>
       </c>
       <c r="BP6">
-        <v>0.001456004018890615</v>
+        <v>0.001415301811241138</v>
       </c>
       <c r="BQ6">
-        <v>0.001456172789903615</v>
+        <v>0.001415301811241138</v>
       </c>
       <c r="BR6">
-        <v>0.001480186239330457</v>
+        <v>0.001438626679396293</v>
       </c>
       <c r="BS6">
-        <v>0.001499735689677951</v>
+        <v>0.001457486963346873</v>
       </c>
       <c r="BT6">
-        <v>0.001499831317669651</v>
+        <v>0.001457486963346873</v>
       </c>
       <c r="BU6">
-        <v>0.001504424570251297</v>
+        <v>0.00146138908912605</v>
       </c>
       <c r="BV6">
-        <v>0.001550485671070039</v>
+        <v>0.001506764498601343</v>
       </c>
       <c r="BW6">
-        <v>0.001588109421738806</v>
+        <v>0.001543701451988617</v>
       </c>
       <c r="BX6">
-        <v>0.001591176753393329</v>
+        <v>0.001546077456828347</v>
       </c>
       <c r="BY6">
-        <v>0.001611898171761654</v>
+        <v>0.001566109862417186</v>
       </c>
       <c r="BZ6">
-        <v>0.001640522864270462</v>
+        <v>0.001594046578079755</v>
       </c>
       <c r="CA6">
-        <v>0.001646730241680799</v>
+        <v>0.001599563040261402</v>
       </c>
       <c r="CB6">
-        <v>0.001673672360159699</v>
+        <v>0.001625816961348205</v>
       </c>
       <c r="CC6">
-        <v>0.001675009650883469</v>
+        <v>0.001626462698489531</v>
       </c>
       <c r="CD6">
-        <v>0.001675065668681465</v>
+        <v>0.001626462698489531</v>
       </c>
       <c r="CE6">
-        <v>0.001684149086842924</v>
+        <v>0.00163485557840356</v>
       </c>
       <c r="CF6">
-        <v>0.001699196038110386</v>
+        <v>0.001649212773102438</v>
       </c>
       <c r="CG6">
-        <v>0.001701548301552197</v>
+        <v>0.001650873616000843</v>
       </c>
       <c r="CH6">
-        <v>0.00170245699352835</v>
+        <v>0.001651090698215341</v>
       </c>
       <c r="CI6">
-        <v>0.001724197347914787</v>
+        <v>0.001672142173380825</v>
       </c>
       <c r="CJ6">
-        <v>0.001729082465001621</v>
+        <v>0.001676336201921758</v>
       </c>
       <c r="CK6">
-        <v>0.001730762113131477</v>
+        <v>0.001677324341344169</v>
       </c>
       <c r="CL6">
-        <v>0.001734283245594065</v>
+        <v>0.001680154206474571</v>
       </c>
       <c r="CM6">
-        <v>0.001814529497020453</v>
+        <v>0.001759719247426258</v>
       </c>
       <c r="CN6">
-        <v>0.1603451723149237</v>
+        <v>0.16031044997295</v>
       </c>
       <c r="CO6">
-        <v>0.1987195409970332</v>
+        <v>0.1986891569028402</v>
       </c>
       <c r="CP6">
-        <v>0.4000743645761419</v>
+        <v>0.4000696816318637</v>
       </c>
       <c r="CQ6">
-        <v>0.4042306956500213</v>
+        <v>0.4042258657740639</v>
       </c>
       <c r="CR6">
-        <v>0.4350805961983824</v>
+        <v>0.4350791182895106</v>
       </c>
       <c r="CS6">
-        <v>0.435245412571312</v>
+        <v>0.4352432645371182</v>
       </c>
       <c r="CT6">
-        <v>0.445406179751921</v>
+        <v>0.4454046718263162</v>
       </c>
       <c r="CU6">
-        <v>0.4496565918274726</v>
+        <v>0.449654949301994</v>
       </c>
       <c r="CV6">
-        <v>0.4517709455650555</v>
+        <v>0.4517688884527239</v>
       </c>
       <c r="CW6">
-        <v>0.4702525898935692</v>
+        <v>0.4702522635610012</v>
       </c>
       <c r="CX6">
-        <v>0.4840131921381657</v>
+        <v>0.4840139777678469</v>
       </c>
       <c r="CY6">
-        <v>0.5486855632877258</v>
+        <v>0.5486941342144267</v>
       </c>
       <c r="CZ6">
-        <v>0.5509686363283077</v>
+        <v>0.5509768147832858</v>
       </c>
       <c r="DA6">
-        <v>0.5509734575088934</v>
+        <v>0.5509809448669449</v>
       </c>
       <c r="DB6">
-        <v>0.5545595528726367</v>
+        <v>0.5545668185545273</v>
       </c>
       <c r="DC6">
-        <v>0.5675370751033139</v>
+        <v>0.5675453501040923</v>
       </c>
       <c r="DD6">
-        <v>0.5762037682573655</v>
+        <v>0.576212487528789</v>
       </c>
       <c r="DE6">
-        <v>0.5783247997950671</v>
+        <v>0.5783331053549401</v>
       </c>
       <c r="DF6">
-        <v>0.5882124279708211</v>
+        <v>0.5882213378371874</v>
       </c>
       <c r="DG6">
-        <v>0.5955509617012645</v>
+        <v>0.5955601417478317</v>
       </c>
       <c r="DH6">
-        <v>0.6198395161329968</v>
+        <v>0.6198511881085851</v>
       </c>
       <c r="DI6">
-        <v>0.6200684597470664</v>
+        <v>0.6200794700029048</v>
       </c>
       <c r="DJ6">
-        <v>0.6650069055458532</v>
+        <v>0.6650231144455064</v>
       </c>
       <c r="DK6">
-        <v>0.6745229227150017</v>
+        <v>0.6745396872116907</v>
       </c>
       <c r="DL6">
-        <v>0.6869521679359332</v>
+        <v>0.686969869885297</v>
       </c>
       <c r="DM6">
-        <v>0.6880346980551753</v>
+        <v>0.6880518501698922</v>
       </c>
       <c r="DN6">
-        <v>0.7025356803129321</v>
+        <v>0.7025540414362943</v>
       </c>
       <c r="DO6">
-        <v>0.7088472474251211</v>
+        <v>0.7088657441175285</v>
       </c>
       <c r="DP6">
-        <v>0.723996212694396</v>
+        <v>0.724016003330772</v>
       </c>
       <c r="DQ6">
-        <v>0.7242821699394789</v>
+        <v>0.7243013063292504</v>
       </c>
       <c r="DR6">
-        <v>0.725024617692676</v>
+        <v>0.7250431596710057</v>
       </c>
       <c r="DS6">
-        <v>0.7446819410420875</v>
+        <v>0.7447023679040327</v>
       </c>
       <c r="DT6">
-        <v>0.7447601208834772</v>
+        <v>0.7447798662640899</v>
       </c>
       <c r="DU6">
-        <v>0.7544296360553541</v>
+        <v>0.7544499571529784</v>
       </c>
       <c r="DV6">
-        <v>0.7544394891200292</v>
+        <v>0.7544591197802886</v>
       </c>
       <c r="DW6">
-        <v>0.7819059596082494</v>
+        <v>0.7819284987475373</v>
       </c>
       <c r="DX6">
-        <v>0.7853793246699889</v>
+        <v>0.7854016273568262</v>
       </c>
       <c r="DY6">
-        <v>0.7853869018396237</v>
+        <v>0.7854085137907797</v>
       </c>
       <c r="DZ6">
-        <v>0.7914813255479529</v>
+        <v>0.791503044605764</v>
       </c>
       <c r="EA6">
-        <v>0.8008506907144947</v>
+        <v>0.8008729461467152</v>
       </c>
       <c r="EB6">
-        <v>0.8056486592997791</v>
+        <v>0.8056708519038984</v>
       </c>
       <c r="EC6">
-        <v>0.8104265457847067</v>
+        <v>0.8104486729284339</v>
       </c>
       <c r="ED6">
-        <v>0.8136761440424688</v>
+        <v>0.8136980054031833</v>
       </c>
       <c r="EE6">
-        <v>0.8167726980975104</v>
+        <v>0.8167942736147189</v>
       </c>
       <c r="EF6">
-        <v>0.8168036379620603</v>
+        <v>0.8168245258058872</v>
       </c>
       <c r="EG6">
-        <v>0.8267028141380195</v>
+        <v>0.8267243078020108</v>
       </c>
       <c r="EH6">
-        <v>0.8278242464579531</v>
+        <v>0.8278451953864605</v>
       </c>
       <c r="EI6">
-        <v>0.8350917961871347</v>
+        <v>0.8351130059915108</v>
       </c>
       <c r="EJ6">
-        <v>0.8379611175381373</v>
+        <v>0.8379820117141475</v>
       </c>
       <c r="EK6">
-        <v>0.849895861750279</v>
+        <v>0.8499176285615192</v>
       </c>
       <c r="EL6">
-        <v>0.8500169527064314</v>
+        <v>0.8500380436609765</v>
       </c>
       <c r="EM6">
-        <v>0.8634627539454323</v>
+        <v>0.863484915599223</v>
       </c>
       <c r="EN6">
-        <v>0.8664361999982857</v>
+        <v>0.8664580596720085</v>
       </c>
       <c r="EO6">
-        <v>0.8666154791314724</v>
+        <v>0.8666366705756007</v>
       </c>
       <c r="EP6">
-        <v>0.8849057924565852</v>
+        <v>0.8849286896014852</v>
       </c>
       <c r="EQ6">
-        <v>0.8955321926454709</v>
+        <v>0.8955557909324893</v>
       </c>
       <c r="ER6">
-        <v>0.9011331807450292</v>
+        <v>0.9011568214609067</v>
       </c>
       <c r="ES6">
-        <v>0.9059855818312813</v>
+        <v>0.9060091668538773</v>
       </c>
       <c r="ET6">
-        <v>0.906865106746915</v>
+        <v>0.9068881153256594</v>
       </c>
       <c r="EU6">
-        <v>0.9075220865585929</v>
+        <v>0.9075444895230598</v>
       </c>
       <c r="EV6">
-        <v>0.9166930547216081</v>
+        <v>0.9167159680553062</v>
       </c>
       <c r="EW6">
-        <v>0.9174720175354543</v>
+        <v>0.9174943412439758</v>
       </c>
       <c r="EX6">
-        <v>0.9258211776838617</v>
+        <v>0.9258439040419237</v>
       </c>
       <c r="EY6">
-        <v>0.9258925823551309</v>
+        <v>0.9259146263437952</v>
       </c>
       <c r="EZ6">
-        <v>0.934774038513</v>
+        <v>0.9347965549226849</v>
       </c>
       <c r="FA6">
-        <v>0.9382851358754102</v>
+        <v>0.9383074207784611</v>
       </c>
       <c r="FB6">
-        <v>0.9396387044994701</v>
+        <v>0.9396604750946436</v>
       </c>
       <c r="FC6">
-        <v>0.9397284126860647</v>
+        <v>0.9397495033110005</v>
       </c>
       <c r="FD6">
-        <v>0.9424358822341903</v>
+        <v>0.9424566360157978</v>
       </c>
       <c r="FE6">
-        <v>0.9430156755444962</v>
+        <v>0.9430358135944923</v>
       </c>
       <c r="FF6">
-        <v>0.9456342151910411</v>
+        <v>0.9456540047410916</v>
       </c>
       <c r="FG6">
-        <v>0.9464889562062342</v>
+        <v>0.946508166063847</v>
       </c>
       <c r="FH6">
-        <v>0.9499972679685948</v>
+        <v>0.9500162459544471</v>
       </c>
       <c r="FI6">
-        <v>0.9539740852392833</v>
+        <v>0.9539928927634215</v>
       </c>
       <c r="FJ6">
-        <v>0.9559070080736413</v>
+        <v>0.9559253772296048</v>
       </c>
       <c r="FK6">
-        <v>0.9563563057816276</v>
+        <v>0.9563740421010773</v>
       </c>
       <c r="FL6">
-        <v>0.9567751450090725</v>
+        <v>0.9567922444996184</v>
       </c>
       <c r="FM6">
-        <v>0.9582121809346159</v>
+        <v>0.9582287770578835</v>
       </c>
       <c r="FN6">
-        <v>0.9584319954785231</v>
+        <v>0.9584479286854346</v>
       </c>
       <c r="FO6">
-        <v>0.9602978825116895</v>
+        <v>0.9603133685636104</v>
       </c>
       <c r="FP6">
-        <v>0.9605035684153456</v>
+        <v>0.9605183896989782</v>
       </c>
       <c r="FQ6">
-        <v>0.9627888887559675</v>
+        <v>0.9628033178624453</v>
       </c>
       <c r="FR6">
-        <v>0.9631753429028367</v>
+        <v>0.9631891309354889</v>
       </c>
       <c r="FS6">
-        <v>0.9669533821699918</v>
+        <v>0.9669669736858116</v>
       </c>
       <c r="FT6">
-        <v>0.9670321739453923</v>
+        <v>0.9670450840600899</v>
       </c>
       <c r="FU6">
-        <v>0.9704782254066463</v>
+        <v>0.970490895488723</v>
       </c>
       <c r="FV6">
-        <v>0.9705923921286757</v>
+        <v>0.9706043854464531</v>
       </c>
       <c r="FW6">
-        <v>0.971094851337607</v>
+        <v>0.9711062187870922</v>
       </c>
       <c r="FX6">
-        <v>0.971097718718858</v>
+        <v>0.9711083948153196</v>
       </c>
       <c r="FY6">
-        <v>0.9737639984662515</v>
+        <v>0.9737743323203712</v>
       </c>
       <c r="FZ6">
-        <v>0.9740905660920562</v>
+        <v>0.9741002510226368</v>
       </c>
       <c r="GA6">
-        <v>0.9741972256739522</v>
+        <v>0.974206232856224</v>
       </c>
       <c r="GB6">
-        <v>0.9756641205000264</v>
+        <v>0.975672628228819</v>
       </c>
       <c r="GC6">
-        <v>0.9785599314514998</v>
+        <v>0.9785681270240897</v>
       </c>
       <c r="GD6">
-        <v>0.9790851656108359</v>
+        <v>0.9790927383003937</v>
       </c>
       <c r="GE6">
-        <v>0.9790857954562471</v>
+        <v>0.9790927383003937</v>
       </c>
       <c r="GF6">
-        <v>0.9795880074951739</v>
+        <v>0.9795943244386303</v>
       </c>
       <c r="GG6">
-        <v>0.9795981357593539</v>
+        <v>0.9796037623015176</v>
       </c>
       <c r="GH6">
-        <v>0.9863553924794651</v>
+        <v>0.9863612130100929</v>
       </c>
       <c r="GI6">
-        <v>0.9902285703483114</v>
+        <v>0.9902342068325385</v>
       </c>
       <c r="GJ6">
-        <v>0.9902609801888874</v>
+        <v>0.9902659291924122</v>
       </c>
       <c r="GK6">
-        <v>0.9904363943920055</v>
+        <v>0.9904406746593343</v>
       </c>
       <c r="GL6">
-        <v>0.9937682025512288</v>
+        <v>0.9937722278113283</v>
       </c>
       <c r="GM6">
-        <v>0.9939736304748803</v>
+        <v>0.9939769909328764</v>
       </c>
       <c r="GN6">
-        <v>0.9949700918925926</v>
+        <v>0.9949728912343605</v>
       </c>
       <c r="GO6">
-        <v>0.997343656434783</v>
+        <v>0.9973460751661343</v>
       </c>
       <c r="GP6">
-        <v>0.9973506846929079</v>
+        <v>0.9973524126166287</v>
       </c>
       <c r="GQ6">
-        <v>0.9976960718190472</v>
+        <v>0.9976971532860223</v>
       </c>
       <c r="GR6">
-        <v>0.9996915310545167</v>
+        <v>0.9996921823503676</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0009445236536463978</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="F2">
-        <v>0.5544914643283569</v>
+        <v>0.5545197266729728</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.002291213658635639</v>
+        <v>0.001758159633134246</v>
       </c>
       <c r="F3">
-        <v>0.5498207111689344</v>
+        <v>0.5499402023523439</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.001525559387765866</v>
+        <v>0.001160616821685721</v>
       </c>
       <c r="F4">
-        <v>0.5498403802745347</v>
+        <v>0.5499378498554195</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.001613222062089176</v>
+        <v>0.001402136272764973</v>
       </c>
       <c r="F5">
-        <v>0.5153725797574925</v>
+        <v>0.5154242012053895</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6">
-        <v>0.001729082465001621</v>
+        <v>0.001680154206474571</v>
       </c>
       <c r="F6">
-        <v>0.5486855632877258</v>
+        <v>0.5486941342144267</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.0009445236536463978</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="F2">
-        <v>0.7076668960211737</v>
+        <v>0.7077190091188985</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>0.002291213658635639</v>
+        <v>0.001758159633134246</v>
       </c>
       <c r="F3">
-        <v>0.7094206709228166</v>
+        <v>0.7096536407308315</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001525559387765866</v>
+        <v>0.001160616821685721</v>
       </c>
       <c r="F4">
-        <v>0.7131289204177811</v>
+        <v>0.7133231630539013</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.001613222062089176</v>
+        <v>0.001402136272764973</v>
       </c>
       <c r="F5">
-        <v>0.7040531084518137</v>
+        <v>0.7041974189184812</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.001729082465001621</v>
+        <v>0.001680154206474571</v>
       </c>
       <c r="F6">
-        <v>0.7025356803129321</v>
+        <v>0.7025540414362943</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0009445236536463978</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="F2">
-        <v>0.8089407681678149</v>
+        <v>0.8090003253567281</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.002291213658635639</v>
+        <v>0.001758159633134246</v>
       </c>
       <c r="F3">
-        <v>0.8034056011530244</v>
+        <v>0.8036694412891648</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.001525559387765866</v>
+        <v>0.001160616821685721</v>
       </c>
       <c r="F4">
-        <v>0.807110345580708</v>
+        <v>0.8073148743167219</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.001613222062089176</v>
+        <v>0.001402136272764973</v>
       </c>
       <c r="F5">
-        <v>0.8026903856183254</v>
+        <v>0.8028599242219876</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.001729082465001621</v>
+        <v>0.001680154206474571</v>
       </c>
       <c r="F6">
-        <v>0.8008506907144947</v>
+        <v>0.8008729461467152</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.0009445236536463978</v>
+        <v>0.0008230515639652602</v>
       </c>
       <c r="F2">
-        <v>0.9069672184764914</v>
+        <v>0.9070314063476783</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.002291213658635639</v>
+        <v>0.001758159633134246</v>
       </c>
       <c r="F3">
-        <v>0.9083372580400613</v>
+        <v>0.9086238891634102</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.001525559387765866</v>
+        <v>0.001160616821685721</v>
       </c>
       <c r="F4">
-        <v>0.9034470095954255</v>
+        <v>0.9036529693855588</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.001613222062089176</v>
+        <v>0.001402136272764973</v>
       </c>
       <c r="F5">
-        <v>0.902481910009881</v>
+        <v>0.9026458963205095</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.001729082465001621</v>
+        <v>0.001680154206474571</v>
       </c>
       <c r="F6">
-        <v>0.9011331807450292</v>
+        <v>0.9011568214609067</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>62</v>

--- a/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
@@ -1997,37 +1997,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.819535197716296E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.015471554376924E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.125607127501673E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.154604055312657E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.681743406691676E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.826621314155281E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.123022876906366E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.316705731263994E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.787152209458043E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.785626441585139E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.623231216886476E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2039,46 +2039,46 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.643593276887718E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.505994138302894E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.068974328556011E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.293384143784064E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.572580943017216E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.609185224431233E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.895791788320249E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.835490171433377E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>3.229845020707998E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.975818627044122E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.996062087278581E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.3766395398141E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.068974328556011E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.911580536936014E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -2093,37 +2093,37 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.011531507001478E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.135185249206786E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.868244507239454E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.566225859870684E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>8.698765910950563E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.71142195092966E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.015471554376924E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.94761006986428E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.829026599692407E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.925438613394992E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4.029837930034293E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>5.30081653360583E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>2.080642889295036E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.868244507239454E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>5.709474547406241E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.316705731263994E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.951809575107731E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>4.029837930034293E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>9.855949199366108E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>5.012050380533626E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.121781017581942E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -2210,388 +2210,388 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.828470014125331E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>5.891568058359635E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.146989925438337E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.66480187320475E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.036833298472341E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>3.204487928575602E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.468946451413424E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>4.177017489003407E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.292652191157428E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>4.292652191157428E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>3.675410812776464E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>3.648443306717525E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.465379259053275E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.447449310136311E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>7.805874965353912E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>9.05010913405454E-07</v>
+        <v>0</v>
       </c>
       <c r="CL2">
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0002313980082490315</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1436592891389113</v>
+        <v>0.2928658713051577</v>
       </c>
       <c r="CO2">
-        <v>0.007269696539248615</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.2740085871175547</v>
+        <v>0.6287599296455533</v>
       </c>
       <c r="CQ2">
-        <v>0.001698144206543107</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02300349862009129</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.00202571734397128</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.003822049802135227</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0006522527343494842</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0004508873732286244</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01669266666330724</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0252679692737868</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.05491451828763075</v>
+        <v>0.06418154618812487</v>
       </c>
       <c r="CZ2">
-        <v>0.001577487001572898</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.003653121392520949</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.002972502388629351</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.03551549353532245</v>
+        <v>0.01419265286116412</v>
       </c>
       <c r="DD2">
-        <v>0.008658969893867559</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.007556445048436207</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01240975487057381</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.006388892750990058</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.02544816077775843</v>
+        <v>0</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.02881945264797325</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.005522801557917665</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.003389678720855051</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0007761331279261605</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0105103887315818</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004991247424649007</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.01966849533054187</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>6.669151596250758E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.002315627662177455</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0225241516475365</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>3.229845020707998E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.005851014499524618</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>5.319934624704628E-05</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.02237416878395723</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001993473554107791</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>4.944206829825741E-07</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.006615335915114616</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005597451880850256</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.009197665806270671</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01105723724570013</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.004710780920218661</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001442157114153755</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0009405974529305694</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.007968576570726917</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.001278401455303841</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003133651215568854</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.002422592697606863</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.008026963203477072</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>5.94952555416061E-06</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.01809595048904562</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.004130857150893815</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0002654683410116517</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0261401456087922</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.008411751999966096</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.008558010675056313</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.003560263258984631</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001500618170654538</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001257435364458453</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.008994265895870232</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0006707234788625172</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.004948286714727117</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0004471911936779832</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.007539352893868429</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001689184247178277</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.0008216932073770157</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>6.6864477159093E-05</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.004187001768156324</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>3.216646808802407E-05</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.002807479725444161</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>4.292652191157428E-05</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.001294020339711353</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003666288794594292</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001786321246216048</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00123976872655754</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>6.633188119334748E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0009729342124631891</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0015192313106098</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0003109985809399101</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.002812094998302279</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0002052724608818322</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.004041814434960218</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001039974466817529</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0007919929692295204</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>5.848357058563492E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>4.14834583910618E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002550669770457148</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001657124416020975</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>7.337518000007E-06</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001128123897679753</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001662446414414284</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0001557263293741964</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>1.326957858062324E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>9.560971063882679E-06</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>2.016400477807859E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.005946356225642352</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.004314711523785772</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>4.365106313223055E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>1.049450708041833E-06</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002505838363545364</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0003794346507366254</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.000854484071826769</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.00170892734773446</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002942947502967756</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>5.319934624704628E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.00209982969522259</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0005919187501469282</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,49 +2773,49 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.990638850933619E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.001449039492818E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.86684312925709E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.385317999465212E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.829674920434301E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.551784506235821E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.609570115555975E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.543496527228335E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.292518543350379E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.795373231455259E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>9.551784506235821E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.238707536760609E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,37 +2824,37 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.794047376148475E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5.274245099606193E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.52920710009767E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.131157927839341E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.499853261747577E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.86204655802763E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.642791362411633E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.404719262762705E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.52920710009767E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.880130725155888E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.963935321129393E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2872,37 +2872,37 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.923968482503773E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.479569748611023E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.124722437091251E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.255327749960967E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001182458392003505</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.635982069137799E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.32323123693394E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.860681745268294E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.659030457257219E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.725749651472954E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.466590861761286E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2914,43 +2914,43 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>2.71400007503029E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1.86286856776753E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.350996388666441E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>8.558382485353837E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>4.520636714690993E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.71400007503029E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1.777385301212469E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.045803754184197E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.279663395284571E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>3.162311723198299E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.65493446795183E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>6.813771217688639E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -2971,25 +2971,25 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.28444223280122E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.759439936262898E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.772365950178207E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>4.51917926531569E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>2.422499584314317E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.144592540551364E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.460491212515877E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -3010,361 +3010,361 @@
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.59752796141398E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.03797110044823E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>7.253753482087439E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0001083814016085828</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.794371551706787E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1.601682082669536E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>2.996201051275582E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>3.871860030458457E-07</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1284977616418886</v>
+        <v>0.2468468700188054</v>
       </c>
       <c r="CO3">
-        <v>0.0005638633041182161</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.2858658904881885</v>
+        <v>0.6413739549714147</v>
       </c>
       <c r="CQ3">
-        <v>0.00813483776824862</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.0230889238255037</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002656024982189074</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.004725454275647084</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>2.461634298283052E-05</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.004508775728686939</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01660581985976151</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.003420738143887829</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.07008894917210363</v>
+        <v>0.1004140523435403</v>
       </c>
       <c r="CZ3">
-        <v>0.004303583120629663</v>
+        <v>0</v>
       </c>
       <c r="DA3">
         <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.007207069040147865</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01238185606383127</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0216970371388588</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.002529010367225619</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.004022512311099159</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01479187974929804</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.01440679985223465</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.004753049471697228</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.03456930052550731</v>
+        <v>0.01136512266623965</v>
       </c>
       <c r="DK3">
-        <v>0.01667437996886881</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.003936653991434052</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0009146013154423462</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.01752570546221278</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001480283756334812</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.02194757962670844</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0005559470295823698</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0001474264032739856</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.02257199147887418</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002232113718518849</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.007069337520415599</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0008164115099029078</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.02400120321067646</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>7.555066443757315E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0005903293950191194</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.008090125328521795</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004437500916067222</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.008964086203423248</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.00506256482986167</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.008143830530335839</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0008183774091152483</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0001027122109625344</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01043211117509994</v>
+        <v>0</v>
       </c>
       <c r="EH3">
         <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00738588454854418</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.001175976178350753</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01079145111212483</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.00150077777992192</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01057532037304505</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.006274548203869587</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>8.081904398695176E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01676913771297132</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01687685056263207</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.00262856588685363</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.005372224100260862</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0009318322768243554</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0002202616371268825</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.006738038336526721</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.00154496003776234</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.006329950007749666</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.000234567144191451</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.006683593644148036</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.002596263749235477</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0009522461822571138</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0001384181883977465</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.004493165307198179</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>9.98377057823981E-06</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.003568023252787758</v>
+        <v>0</v>
       </c>
       <c r="FG3">
         <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002685245975886348</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.003111075969205541</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001719853762503267</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0003857899301856366</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001632545504539828</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>8.396261997960783E-05</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001301491782646337</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>7.508903765289076E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.004088139695166503</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>5.300220106280014E-05</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003122214896352386</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0009267477283801307</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.001797946029171933</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0006443099028410453</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0003385133289584082</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>9.582425293775852E-05</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001956539014376691</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.00151370644648923</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0001065946165450591</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0005717866891402608</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002343403042589746</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002890454160915783</v>
+        <v>0</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001316593207491656</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>5.587988493071023E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.005426095146654409</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.005688701425595162</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>6.049909711970615E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
         <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003366502359596608</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.000362413315493665</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0004269902103507224</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001386901741090169</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0008628253287407202</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>3.95348370507545E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0009226292847001244</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001428137653804402</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.067130927473301E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3552,28 +3552,28 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.040627268345387E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.693319496113774E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.944743432353508E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6.299163230149912E-07</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.080213462068596E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.78252014291665E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.293335682388481E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.472013600743284E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.729779792691228E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3594,52 +3594,52 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1.756791932918994E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001402805783115041</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.899114521867121E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.094991828648978E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5.585167342984158E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.369456556178034E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.510806548063441E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.00306364345373E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>2.830317080057147E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.675543210875401E-07</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.692286971265993E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.092639516976505E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>4.796194630630084E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.173257676543656E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3648,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>7.925577616697512E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.030173882170358E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.173257676543656E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>5.708301967611288E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.710985232148922E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.582456212255343E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3687,34 +3687,34 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.148685706792092E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.956291705987095E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>4.871532868669462E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>3.05289629500487E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>4.504121545267714E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.660007021670813E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>7.708598273906105E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>4.197751956510373E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.590771478229924E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -3726,58 +3726,58 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.897714224807107E-07</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.772396399482044E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>8.286877804645126E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.296654664578244E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.482380729722565E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>5.580856014499151E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.159808573921611E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.310211822709293E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.708098625245643E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>9.413156114872555E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.972237715452186E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.559383006040902E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>2.128933054941145E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.607293127411335E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>7.945823943592735E-06</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>1.369456556178034E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07581041169150007</v>
+        <v>0.132879269423109</v>
       </c>
       <c r="CO4">
-        <v>0.03375064655353505</v>
+        <v>0.01081386929629546</v>
       </c>
       <c r="CP4">
-        <v>0.2811324758152106</v>
+        <v>0.7287627659170368</v>
       </c>
       <c r="CQ4">
-        <v>0.03790266109061829</v>
+        <v>0.02286380143783128</v>
       </c>
       <c r="CR4">
-        <v>0.03085500839245786</v>
+        <v>0.0024101792234921</v>
       </c>
       <c r="CS4">
-        <v>0.01090176074276069</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0024477665066602</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.003033630101643527</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.007116620039450681</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.006908365155836605</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.002229790663402848</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.05668809628065741</v>
+        <v>0.07738269034524077</v>
       </c>
       <c r="CZ4">
-        <v>0.006336418232905401</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>3.531296799258338E-05</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01028226778458933</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.008479223565327432</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.03276614413338134</v>
+        <v>0.007956656911782977</v>
       </c>
       <c r="DE4">
-        <v>0.004147589694132054</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0003849772086888024</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.02826938247729078</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.01024947436066711</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.009827927636437863</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.03585833062493435</v>
+        <v>0.01693076744521161</v>
       </c>
       <c r="DK4">
-        <v>0.01674826451213465</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001218300147757091</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.001126148529430181</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0182943017016318</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>3.999348813841307E-05</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01477790431107294</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001257090192162781</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>5.354752210937051E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01650968298119124</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002552768826827094</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.005374054439476971</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0003610549912752044</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01952155984353052</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0001748827081372078</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0008619372667639743</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.01186848431331557</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0002756318782290206</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01085170448731115</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.004619385367271111</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.007128011976721081</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0004924260851478253</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0005970603758206863</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.009129034962587221</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0001199393261132312</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.006114217848295537</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0002435052037094615</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.007847650478956154</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.002946851978194806</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.008694662861944199</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.00750685232462805</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>2.550644294340233E-06</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01148380510331131</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.01828480416630194</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002741337746138449</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01109921998777596</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0001533934033177478</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0002191092907152565</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00658664945990372</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.002689017317505656</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.002981819184549827</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0001731480565827729</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.007254278245454398</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002952128475689619</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0009112232889151536</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0002379191554320373</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.003882948199521835</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0001088927455738774</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.003012262048558311</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>1.772396399482044E-05</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.003214316507073287</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.004139252824086228</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.003199644977159419</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0006050299070659215</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>4.109257559958805E-05</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.001007690600108818</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>4.902099106542765E-06</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.001937145253438364</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0004082257497452123</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002675596843626281</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>1.056312165659256E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00100545695757772</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0006961501198829418</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001028395287188227</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0008533810765251917</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.000202840697382607</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>3.999348813841307E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001594588833848148</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.002549774620705814</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>1.0541006453384E-05</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0009699391484288346</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004011452014705706</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0008917331412082611</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>2.366812731236944E-06</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0001287914234366323</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.000284932295656573</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.003404318765427522</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.005211149786560512</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001489369791596745</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>1.601070892201234E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.004410184333742006</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001334116124612589</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0001375576445420792</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.001707839134817897</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0004357688424430226</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0008665466645043736</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.000442592883639841</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001697140793903955</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.969549939926823E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.136601351070059E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.283300231718814E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.941861745437417E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4343,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.1200205822967E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.072483779245133E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4355,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3.533015336234647E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.624880641812806E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.741681431802121E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4373,37 +4373,37 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>4.752038012125138E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.555485371540477E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5.217883384806336E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>7.464248218059167E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.744722550047848E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>3.159049013966619E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.597224388706356E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.08813276923655E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.107007141671774E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -4424,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>2.429109346842151E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.194378836009029E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -4442,22 +4442,22 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>8.286772774702082E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.926571941916747E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.258274235588094E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.078810937583434E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.445882318708981E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -4466,34 +4466,34 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>8.885175255777366E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>5.207240333506963E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>2.868150868063699E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.000101944661432909</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8.918280648055243E-08</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.73904008650408E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>4.575299110752106E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.126091811171307E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>4.401612970765252E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.078810937583434E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.2458816255276E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.917186450194068E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>3.078752872643125E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>3.302450035611428E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.721999792853339E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.468154976749499E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>5.037736365529604E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.268738372632145E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>6.681806719659665E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>9.648015319895656E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.378541887092219E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.250532220847519E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
         <v>0</v>
@@ -4565,352 +4565,352 @@
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>5.137743599549904E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.73904008650408E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>4.429297562349703E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.811939964354383E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>7.030638606487924E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.022403557335045E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1754173892570633</v>
+        <v>0.3960670737088837</v>
       </c>
       <c r="CO5">
-        <v>0.07918186629903638</v>
+        <v>0.1339190565910464</v>
       </c>
       <c r="CP5">
-        <v>0.1630394591563557</v>
+        <v>0.3623492766607093</v>
       </c>
       <c r="CQ5">
-        <v>0.006745701332027617</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.02000672745705469</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>4.663286453351797E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01277013772590752</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01413974901867059</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0001709645509189127</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01876670364833141</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.02371650958715158</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.05913422524939351</v>
+        <v>0.07930877145396456</v>
       </c>
       <c r="CZ5">
-        <v>0.0001336467822783902</v>
+        <v>0</v>
       </c>
       <c r="DA5">
         <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.001962851606976767</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01669054067575417</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.007277645228750807</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0006599324869038378</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01105505488569694</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00426438028784016</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.02229243237950846</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>5.818963254611627E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.04042920573115825</v>
+        <v>0.02835582158539606</v>
       </c>
       <c r="DK5">
-        <v>0.009082768667063782</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01573234409922048</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001303373381635794</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01172759614352425</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.008835243091678402</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01805981669819485</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0001534231275871941</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002234675673795412</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.02064527430580607</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>3.513539433166977E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.007322521411603723</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0004206208042312882</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.02373078309562276</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.004194042175494956</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0008162684377476328</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.00307114180127422</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0111494499947626</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.002977062947199227</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005739874351962797</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001646103718895219</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.003628783517683685</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0004274302245434748</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.009693329951561903</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001489809401619815</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.00511493047103784</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.004925884046331802</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01090614482221154</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>3.585313773516794E-07</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01005974038165101</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0007377197053282688</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0002957924073572287</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.02091690131373971</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.00618924607223662</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.005503582534152555</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.002429696415484958</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.001035391512711677</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0007896320613200662</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.006844136698679746</v>
+        <v>0</v>
       </c>
       <c r="EW5">
         <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.008359764722086381</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.0004312903769143715</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.006949334818016799</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002716548699282588</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001232862530014042</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0006393936267931686</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002029159169562748</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0007922454084144651</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.002441902557075703</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001550103415590536</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.004615067040212893</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.005130411953476552</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.001159400498909759</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>5.489519630187959E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0009133529152022841</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001484620017513461</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>6.531586830085226E-05</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001931468803591166</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0006604499641363517</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.002570342315725312</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0002231951735233117</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.003202700074325472</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>2.515806078845909E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003592848343804261</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>4.202486618796547E-05</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0005067427327814388</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>5.778667264685258E-05</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.003015978624204304</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>7.427190939447033E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>9.474062895208273E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001801431256673836</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002399314419031849</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0005355258200630608</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>2.429109346842151E-06</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0008680740076397333</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>3.677628435155397E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.007257495682536877</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.002803182150264004</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>1.605917752378731E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.000673536055214421</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002938986046484271</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>5.025971649852575E-06</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001282236539382962</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002074889941455319</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>5.655509935162519E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>5.827526158726024E-05</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.00143029821883169</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>4.185980380115451E-06</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,46 +5086,46 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.343182137426792E-07</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.735313868082875E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.906823094887173E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4.282964198357348E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.488298970096148E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5.997101762470547E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.842285881417938E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.128031121366543E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.155375085532989E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.686075285792244E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.277498067175444E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.485440487172607E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.0800319015279E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.94077664541877E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5137,100 +5137,100 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>3.792377093641742E-07</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001116366648058668</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>6.337450494381871E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>9.057993475158755E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>8.947413980723673E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.906874827547137E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.385241258654771E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001017146082518596</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001073712857125133</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.270589402184442E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.187110259983869E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.329761789508536E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.698400109535913E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>9.881394224108542E-07</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.258394277804387E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.208557294137562E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.686075285792244E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.256206536920741E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>5.230557806142007E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.670395515836591E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3.483075431289034E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>4.678966505175678E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>4.656498140088428E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>5.189502804773108E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>3.261748920460584E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.304122997669566E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.072473230759554E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.960690578618096E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5242,448 +5242,448 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>6.697463683852486E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.427572879117145E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.772280762413219E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.792990019861311E-07</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.643955984918095E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1.325230387303654E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>2.105147516548389E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>2.20091816988411E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3.20006245477999E-07</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.767498058449942E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>9.716888461176703E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>9.992933844394093E-08</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.401314880235337E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.332486815515434E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.886028395058044E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>3.902125779176838E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>4.537540947529302E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3.693695338727385E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.376004839730127E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.003240558883934E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>2.793671566256908E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>5.516462181647132E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.625392108680267E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>6.45737141326341E-07</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>8.392879914028264E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.435719469887816E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.660842898405076E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>2.170822144985635E-07</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.105147516548389E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.1940285409328E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>9.881394224108542E-07</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.829865130402906E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>7.956504095168653E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1585507307255237</v>
+        <v>0.3583029795616</v>
       </c>
       <c r="CO6">
-        <v>0.03837870692989018</v>
+        <v>0.02334510420988286</v>
       </c>
       <c r="CP6">
-        <v>0.2013805247290235</v>
+        <v>0.477683317414288</v>
       </c>
       <c r="CQ6">
-        <v>0.004156184142200258</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0308532525154466</v>
+        <v>0.002369255238536744</v>
       </c>
       <c r="CS6">
-        <v>0.0001641462476076286</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01016140728919802</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.004250277475677822</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.002113939150729955</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01848337510827732</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01376171420684568</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.06468015644657973</v>
+        <v>0.09665565828495611</v>
       </c>
       <c r="CZ6">
-        <v>0.002282680568859028</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>4.130083659225671E-06</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003585873687582294</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01297853154956513</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.008667137424696582</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.002120617826151097</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.009888232482247319</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.007338803910644195</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.02429104636075345</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0002282818943196729</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.04494364444260171</v>
+        <v>0.04164368529073624</v>
       </c>
       <c r="DK6">
-        <v>0.00951657276618423</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01243018267360634</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001081980284595224</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01450219126640201</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.006311702681234209</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01515025921324349</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0002853029984783925</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0007418533417553598</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.01965920823302695</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>7.74983600572299E-05</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.009670090888888488</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>9.162627310254291E-06</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0274693789672488</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003473128609288846</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>6.886433953519958E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.006094530814984357</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.009369901540951166</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.004797905757183209</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.004777821024535493</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003249332474749379</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.003096268211535689</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>3.025219116829204E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.009899781996123647</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001120887584449721</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.007267810605050383</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002869005722636682</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01193561684737161</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0001204150994572767</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01344687193824659</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.002973144072785505</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0001786109035922162</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01829201902588453</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01062710133100411</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005601030528417437</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.004852345392970643</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0008789484717820126</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0006563741974003836</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.00917147853224645</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0007783731886695432</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.008349562797948018</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>7.072230187144114E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.008881928578889696</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.003510865855776187</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001353054316182463</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>8.902821635690165E-05</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.002707132704797329</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.000579177578694523</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002618191146599324</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0008541613227553799</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.00350807989060006</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003976646808974368</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.00193248446618329</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0004486648714725024</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0004182023985410949</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.00143653255826505</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0002191516275511433</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001865439878175772</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0002050211353677645</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002284928163467122</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0003858130730435171</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.003777842750322745</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>7.811037427825496E-05</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.003445811428633104</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001134899577300556</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0005018333406391521</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>2.176028227383611E-06</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.00266593750505164</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003259187022654551</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001059818335872131</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001466395372594971</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002895498795270766</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0005246112763040034</v>
+        <v>0</v>
       </c>
       <c r="GE6">
         <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0005015861382365879</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>9.437862887324678E-06</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.006757450708575355</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.003872993822445582</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>3.172235987368437E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0001747454669221399</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.003331553151994064</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0002047631215480714</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.00099590030148407</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002373183931773804</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>6.337450494381871E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.000344740669393579</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001995029064345367</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.000307817649632684</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6648,598 +6648,598 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.819535197716296E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.697425074148553E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.60998578689872E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.764589842211378E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.446333248903054E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.272954563058335E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.3959774399647E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.000100276480130911</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.000105063632340369</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001068492587819542</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001084724899988407</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001084724899988407</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001084724899988407</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001084724899988407</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001092368493265294</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001157428434648323</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001264325867503924</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001393664281882331</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001550922376184052</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001711840898627176</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001901420077459201</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002184969094602538</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002507953596673338</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002705535459377751</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002905141668105609</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003142805622087019</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.000324970305494262</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.000326881886031198</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000326881886031198</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000326881886031198</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.000326881886031198</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000326881886031198</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003278934175381995</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003320286027874063</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0003338968472946457</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0003404630731545164</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.000349161839065467</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003662760585747635</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003764307741185328</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003833783841883971</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0003892074107880894</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0003931328494014845</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0003971626873315187</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0004024635038651246</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0004045441467544196</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0004064123912616591</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0004121218658090653</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0004184385715403293</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.000420390381115437</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004244202190454713</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0004342761682448374</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.000439288218625371</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.000441409999642953</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.000441409999642953</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.000441409999642953</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.000441409999642953</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0004432384696570783</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0004491300377154379</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0004605999369698213</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0004772479557018688</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0004976162886865922</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0005296611679723482</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0005743506324864825</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0006161208073765166</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0006590473292880909</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0007019738511996652</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0007387279593274298</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.000775212392394605</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0007998661849851378</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0008143406780865009</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0008221465530518548</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001054449572214292</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1447137387111256</v>
+        <v>0.2928658713051577</v>
       </c>
       <c r="CO2">
-        <v>0.1519834352503742</v>
+        <v>0.2928658713051577</v>
       </c>
       <c r="CP2">
-        <v>0.4259920223679289</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CQ2">
-        <v>0.427690166574472</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CR2">
-        <v>0.4506936651945633</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CS2">
-        <v>0.4527193825385346</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CT2">
-        <v>0.4565414323406699</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CU2">
-        <v>0.4571936850750193</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CV2">
-        <v>0.457644572448248</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CW2">
-        <v>0.4743372391115552</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CX2">
-        <v>0.4996052083853421</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="CY2">
-        <v>0.5545197266729728</v>
+        <v>0.9858073471388359</v>
       </c>
       <c r="CZ2">
-        <v>0.5560972136745457</v>
+        <v>0.9858073471388359</v>
       </c>
       <c r="DA2">
-        <v>0.5597503350670666</v>
+        <v>0.9858073471388359</v>
       </c>
       <c r="DB2">
-        <v>0.562722837455696</v>
+        <v>0.9858073471388359</v>
       </c>
       <c r="DC2">
-        <v>0.5982383309910184</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.606897300884886</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.6144537459333222</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6268635008038961</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.6332523935548862</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6587005543326446</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6587005543326446</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6875200069806179</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6930428085385355</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6964324872593906</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6972086203873167</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.7077190091188985</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.7127102565435475</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.7323787518740893</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7324454433900518</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.7347610710522292</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7572852226997657</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7573175211499727</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7631685356494974</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7632217349957444</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7855959037797017</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7875893773338095</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7875898717544925</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7942052076696071</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7998026595504574</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8090003253567281</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.8200575626024282</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8247683435226469</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.8262105006368007</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.8271510980897312</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8351196746604581</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.836398076115762</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8395317273313309</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8419543200289378</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8499812832324148</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8499872327579689</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8680831832470146</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8722140403979084</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.87247950873892</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8986196543477122</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.9070314063476783</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.9155894170227347</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.9191496802817193</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.9206502984523738</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.9219077338168322</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.9309019997127025</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.931572723191565</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.9365210099062922</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.9369682010999701</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.9445075539938386</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.9461967382410168</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.9470184314483938</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.9470852959255529</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.9512722976937092</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.9513044641617973</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.9541119438872414</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.954154870409153</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9554488907488644</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9591151795434587</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9609015007896747</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9621412695162322</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9622076013974256</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9631805356098887</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9631805356098887</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9646997669204985</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9650107655014384</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9678228604997406</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9680281329606225</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9720699473955827</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9731099218624003</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9739019148316298</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9739603984022155</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9740018818606065</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9740018818606065</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9765525516310637</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9782096760470846</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9782170135650846</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9793451374627644</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9810075838771787</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9811633102065529</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9811765797851335</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9811861407561974</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9812063047609755</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9871526609866178</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9914673725104036</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9915110235735358</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9915120730242438</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9940179113877892</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9943973460385258</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9952518301103526</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.996960757458087</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9972550522083837</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9973082515546308</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9994080812498534</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7424,595 +7424,595 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.990638850933619E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.992087890426436E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.010756321719006E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.396074321184218E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001422574924161852</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000151809276922421</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001679049780779808</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0002133399433502641</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0002133399433502641</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002262651287837679</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002300605020152232</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0002300605020152232</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000239612286521459</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.000239612286521459</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002418509940582196</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002418509940582196</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002418509940582196</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002797914678197044</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003325339188157663</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000347825989816743</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003499571477445823</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003749556803620581</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004135761459423344</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004600040595664508</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004840512521940778</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004840512521940778</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004993433231950545</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0005181446304466133</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0005181446304466133</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0005181446304466133</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0005241085657677427</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0005241085657677427</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0005241085657677427</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0006033482505927804</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0006281439480788906</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0006302686705159818</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0006728219480155915</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.000791067787215942</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0008274276079073199</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0008406599202766594</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0008792667377293423</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0008958570423019145</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.000913114538816644</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0009185811296784053</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0009185811296784053</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0009185811296784053</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0009185811296784053</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0009457211304287082</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0009643498161063834</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0009697008124950499</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001055284637348588</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001100491004495498</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001127631005245801</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001145404858257926</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001185862895799768</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001278659529752614</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001310282646984597</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001310282646984597</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001336831991664115</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001404969703841001</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001406254146073803</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001423848545436432</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001451572204938214</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001496763997591371</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001520988993434514</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001542434918840027</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001567039830965186</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0015726373589266</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001593017069931082</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001593017069931082</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.00160027082341317</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001708652225021753</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.00172659594053882</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.00172819762262149</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001758159633134246</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001758546819137292</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1302563084610259</v>
+        <v>0.2468468700188054</v>
       </c>
       <c r="CO3">
-        <v>0.1308201717651441</v>
+        <v>0.2468468700188054</v>
       </c>
       <c r="CP3">
-        <v>0.4166860622533326</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CQ3">
-        <v>0.4248209000215812</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CR3">
-        <v>0.4479098238470849</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CS3">
-        <v>0.450565848829274</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CT3">
-        <v>0.4552913031049211</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CU3">
-        <v>0.4553159194479039</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CV3">
-        <v>0.4598246951765909</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CW3">
-        <v>0.4764305150363524</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CX3">
-        <v>0.4798512531802402</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="CY3">
-        <v>0.5499402023523439</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="CZ3">
-        <v>0.5542437854729735</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DA3">
-        <v>0.5542437854729735</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DB3">
-        <v>0.5614508545131214</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DC3">
-        <v>0.5738327105769526</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DD3">
-        <v>0.5955297477158115</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DE3">
-        <v>0.5980587580830371</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DF3">
-        <v>0.6020812703941363</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DG3">
-        <v>0.6168731501434344</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DH3">
-        <v>0.6312799499956691</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DI3">
-        <v>0.6360329994673662</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="DJ3">
-        <v>0.6706022999928736</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6872766799617424</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6912133339531764</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6921279352686187</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7096536407308315</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7111339244871663</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7330815041138747</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7336374511434571</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7337848775467312</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7563568690256054</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7585889827441242</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7656583202645398</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7664747317744427</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7904759349851191</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7905514856495567</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7911418150445758</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7992319403730976</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8036694412891648</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8126335274925881</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8176960923224498</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8258399228527856</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8266583002619009</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8267610124728635</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8371931236479634</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8371931236479634</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8445790081965076</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8457549843748583</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8565464354869832</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8580472132669051</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8686225336399502</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8748970818438199</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8749779008878068</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8917470386007781</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.9086238891634102</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.9112524550502639</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.9166246791505247</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.9175565114273491</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.9177767730644759</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.9245148114010027</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.9260597714387651</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.9323897214465148</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9326242885907062</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.9393078822348543</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.9419041459840898</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.9428563921663469</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9429948103547446</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9474879756619429</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9474979594325211</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9510659826853088</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9510659826853088</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9537512286611952</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9568623046304008</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9585821583929041</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9589679483230897</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9589679483230897</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9606004938276296</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9606844564476091</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9619859482302555</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9619934571340208</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9660815968291874</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9661345990302501</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9692568139266025</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9701835616549825</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9719815076841545</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9726258175869955</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9729643309159539</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9730601551688917</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9750166941832683</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9765304006297575</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9766369952463025</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9772087819354428</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9795521849780325</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9798412303941241</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9798412303941241</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9799728897148733</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.980028769599804</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9854548647464584</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9911435661720536</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9912040652691733</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9912040652691733</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9945705676287698</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9949329809442635</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9953599711546143</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9967468728957044</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9976096982244451</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9976492330614959</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.998571862346196</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.067130927473301E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.067130927473301E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.067130927473301E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.067130927473301E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.17119365430784E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.640525603919217E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.585269036272725E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.648260668574225E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.728474130642821E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7.510994273559471E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.510994273559471E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>7.640327841798319E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>7.640327841798319E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.640327841798319E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000101123414425416</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001284212123523283</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001284212123523283</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001284212123523283</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001459891316815182</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002862697099930223</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0003052608552116936</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0003073558470403425</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0003632075204701841</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0003769020860319644</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0004020101515125988</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0004420407879471361</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0004420407879471361</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004448711050271933</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0004450386593482808</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004619615290609407</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004828879242307058</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0004828879242307058</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0005308498705370066</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005425824473024432</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0005425824473024432</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0005425824473024432</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0005505080249191408</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0005808097637408444</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.000592542340506281</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.000592542340506281</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.000592542340506281</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0006496253601823939</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0006496253601823939</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0006543363454145428</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0006543363454145428</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0006579188016267982</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0006579188016267982</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0006579188016267982</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0006579188016267982</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0006694056586947191</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0006989685757545901</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0007476839044412846</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0007782128673913334</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.000782716988936601</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0008193170591533092</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0008270256574272153</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0008270256574272153</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0008312234093837257</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0008388141808619556</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0008388141808619556</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0008388141808619556</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0008388141808619556</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0008392039522844364</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0008569279162792568</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0008569279162792568</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0009397966943257082</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0009527632409714906</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0009527632409714906</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0009675870482687163</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001023395608413708</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001034993694152924</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001034993694152924</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001041303905975633</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.00106838489222809</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.00106838489222809</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001077798048342962</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001077798048342962</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001107520425497484</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001113079808503525</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001134369139052937</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001134369139052937</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001134369139052937</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001138976432180348</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001138976432180348</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001146922256123941</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001146922256123941</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001146922256123941</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001146922256123941</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001146922256123941</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001160616821685721</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0769710285131858</v>
+        <v>0.132879269423109</v>
       </c>
       <c r="CO4">
-        <v>0.1107216750667208</v>
+        <v>0.1436931387194045</v>
       </c>
       <c r="CP4">
-        <v>0.3918541508819314</v>
+        <v>0.8724559046364413</v>
       </c>
       <c r="CQ4">
-        <v>0.4297568119725497</v>
+        <v>0.8953197060742726</v>
       </c>
       <c r="CR4">
-        <v>0.4606118203650076</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CS4">
-        <v>0.4715135811077683</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CT4">
-        <v>0.4739613476144284</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CU4">
-        <v>0.476994977716072</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CV4">
-        <v>0.4841115977555226</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CW4">
-        <v>0.4910199629113592</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CX4">
-        <v>0.4932497535747621</v>
+        <v>0.8977298852977647</v>
       </c>
       <c r="CY4">
-        <v>0.5499378498554195</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="CZ4">
-        <v>0.5562742680883249</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="DA4">
-        <v>0.5563095810563174</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="DB4">
-        <v>0.5665918488409067</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="DC4">
-        <v>0.5750710724062342</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="DD4">
-        <v>0.6078372165396155</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DE4">
-        <v>0.6119848062337476</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DF4">
-        <v>0.6123697834424364</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DG4">
-        <v>0.6406391659197272</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DH4">
-        <v>0.6508886402803944</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DI4">
-        <v>0.6607165679168323</v>
+        <v>0.9830692325547884</v>
       </c>
       <c r="DJ4">
-        <v>0.6965748985417667</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7133231630539013</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7145414632016585</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7156676117310886</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7339619134327204</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7340019069208589</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7487798112319318</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7500369014240946</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.750090448946204</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7666001319273953</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7691529007542224</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7745269551936993</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7748880101849746</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7944095700285051</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7945844527366424</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7954463900034063</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8073148743167219</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8075905061949509</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.818442210682262</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8230615960495331</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8301896080262542</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8306820341114021</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8312790944872227</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8404081294498099</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8405280687759231</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8466422866242187</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8468857918279281</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8547334423068843</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8576802942850791</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8663749571470233</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8738818094716513</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8738843601159456</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8853681652192569</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.9036529693855588</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.9063943071316973</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.9174935271194733</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.9176469205227911</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.9178660298135063</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.92445267927341</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.9271416965909157</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.9301235157754656</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.9302966638320483</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.9375509420775028</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.9405030705531924</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9414142938421075</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9416522129975395</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9455351611970614</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9456440539426353</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9486563159911936</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9486740399551884</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9518883564622617</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9560276092863479</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9592272542635073</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9598322841705732</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9598733767461728</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9608810673462816</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9608859694453882</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9628231146988265</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9632313404485717</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.965906937292198</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9659175004138546</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9669229573714323</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9676191074913152</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9686475027785034</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9695008838550286</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9697037245524113</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9697437180405497</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9713383068743978</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9738880814951036</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.973898622501557</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9748685616499858</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9788800136646915</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9797717468058997</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.979774113618631</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9799029050420676</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9801878373377242</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9835921561031518</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9888033058897123</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.988952242868872</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9889682535777939</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9933784379115359</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9947125540361484</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9948501116806905</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9965579508155084</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9969937196579514</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9978602663224557</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9983028592060955</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.969549939926823E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.733556345062741E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.733556345062741E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.016856576781555E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.016856576781555E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.016856576781555E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.958718322218972E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.958718322218972E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.958718322218972E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.958718322218972E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001007873890451567</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001098598728244019</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001098598728244019</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001098598728244019</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001451900261867483</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001451900261867483</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001614388326048764</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001661805140366785</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001661805140366785</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001661805140366785</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002137008941579299</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002392557478733347</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.000244473631258141</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000244473631258141</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003191161134387327</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0003465633389392112</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0003465633389392112</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003781538290788773</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0004241260729659409</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0004241260729659409</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0004292142057351775</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0004292142057351775</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0004292142057351775</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0004313212128768493</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004313212128768493</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0004313212128768493</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0004313212128768493</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004337503222236914</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004456941105837817</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0004456941105837817</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0004456941105837817</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0004456941105837817</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0004456941105837817</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0004539808833584838</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0004569074553004005</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0004794901976562815</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0004794901976562815</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0005002783070321158</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0005147371302192057</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0005147371302192057</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0005147371302192057</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.000523622305474983</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0005756947088100527</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0005756947088100527</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0006043762174906897</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0007063208789235988</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0007064100617300794</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0007238004625951201</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0007695534537026412</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0007726795455138125</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.000816695675221465</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.000816695675221465</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.000816695675221465</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.000816695675221465</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.000816695675221465</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0008374837845972993</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0008374837845972993</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0008374837845972993</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0008699426008525753</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.000929114465354516</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0009599019940809472</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0009929264944370615</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001040146492365595</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00105482804213309</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001105205405788386</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001127892789514707</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001127892789514707</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001134574596234367</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001144222611554263</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001178008030425185</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001178008030425185</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00124051335263366</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.00124051335263366</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.00124051335263366</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001291890788629159</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0013092811894942</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00131371048705655</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001331829886700094</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001402136272764973</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001422360308338323</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1768397495654016</v>
+        <v>0.3960670737088837</v>
       </c>
       <c r="CO5">
-        <v>0.2560216158644379</v>
+        <v>0.5299861302999301</v>
       </c>
       <c r="CP5">
-        <v>0.4190610750207936</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CQ5">
-        <v>0.4258067763528213</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CR5">
-        <v>0.4458135038098759</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CS5">
-        <v>0.4458601366744094</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CT5">
-        <v>0.458630274400317</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CU5">
-        <v>0.4727700234189876</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CV5">
-        <v>0.4729409879699065</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CW5">
-        <v>0.4917076916182379</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CX5">
-        <v>0.5154242012053895</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="CY5">
-        <v>0.5745584264547829</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="CZ5">
-        <v>0.5746920732370613</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DA5">
-        <v>0.5746920732370613</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DB5">
-        <v>0.576654924844038</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DC5">
-        <v>0.5933454655197922</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DD5">
-        <v>0.600623110748543</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DE5">
-        <v>0.6012830432354469</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DF5">
-        <v>0.6123380981211438</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DG5">
-        <v>0.616602478408984</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DH5">
-        <v>0.6388949107884925</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DI5">
-        <v>0.6389531004210386</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="DJ5">
-        <v>0.6793823061521969</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6884650748192607</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7041974189184812</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.705500792300117</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7172283884436412</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7260636315353196</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7441234482335145</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7442768713611017</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7465115470348971</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7671568213407032</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7671919567350348</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7745144781466385</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7749350989508699</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7986658820464927</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8028599242219876</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8036761926597352</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.8067473344610094</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.8178967844557721</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.8208738474029713</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8266137217549341</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8282598254738293</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.831888608991513</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8323160392160565</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8420093691676184</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8434991785692382</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.848614109040276</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8535399930866078</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8644461379088193</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8644464964401967</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8745062368218477</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.875243956527176</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8755397489345332</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8964566502482729</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.9026458963205095</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.908149478854662</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.910579175270147</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.9116145667828587</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.9124041988441788</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.9192483355428586</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.9192483355428586</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.9276081002649449</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.9280393906418593</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9349887254598761</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9377052741591587</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9389381366891728</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.939577530315966</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9416066894855287</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9423989348939432</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9448408374510189</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9463909408666095</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9510060079068223</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9561364198602988</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9572958203592086</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9573507155555104</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9582640684707128</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9597486884882263</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9598140043565271</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9617454731601183</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9624059231242547</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9649762654399799</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9651994606135033</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9684021606878287</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9684273187486172</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9720201670924214</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9720621919586094</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9725689346913908</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9726267213640377</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.975642699988242</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9757169718976365</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9758117125265886</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9776131437832625</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9800124582022943</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9805479840223574</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9805504131317043</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9814184871393441</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9814552634236956</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9887127591062325</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9915159412564964</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9915320004340202</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9922055364892347</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9951445225357189</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9951495485073688</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9964317850467518</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9985066749882071</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9985072405392006</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9985655158007879</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999958140196196</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.343182137426792E-07</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.969632081825554E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.360314391314271E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.064327858967162E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.55262682906331E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001254972859153386</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001273395717967565</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000134467602918123</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002060213537734529</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002228821066313754</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0002238098564380929</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000238664261309819</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002694645803250979</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002734053569705167</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0002734053569705167</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002734053569705167</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002734053569705167</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002737845946798809</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003854212594857477</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0003854212594857477</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0003917587099801296</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0004823386447317171</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005718127845389539</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0005908815328144252</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00059726677407308</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0006989813823249396</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0008063526680374529</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0008290585620592974</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.000850929664659136</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0009042272825542214</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009612112836495805</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0009621994230719913</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0009621994230719913</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0009664578173497957</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0009785433902911712</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0009785433902911712</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0009954041431490938</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0009954041431490938</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0009976603496860146</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001002890907492156</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001069594862650522</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001104425616963413</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001109104583468588</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001155669564869473</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001207564592917204</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.00124018208212181</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001263223312098505</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001266295785329265</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001269256475907883</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001269256475907883</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001269256475907883</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001269256475907883</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001275953939591735</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001300229668382907</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001327952476007039</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001328131775009025</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001329775730993943</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.00134302803486698</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001364079510032464</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001386088691731305</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001386408697976783</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001386408697976783</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001404083678561282</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001413800567022459</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001413900496360903</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001413900496360903</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001415301811241138</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001415301811241138</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001438626679396293</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001457486963346873</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001457486963346873</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00146138908912605</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.001506764498601343</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001543701451988617</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.001546077456828347</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.001566109862417186</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001594046578079755</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001599563040261402</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001625816961348205</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001626462698489531</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001626462698489531</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.00163485557840356</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.001649212773102438</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.001650873616000843</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.001651090698215341</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001672142173380825</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001676336201921758</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.001677324341344169</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.001680154206474571</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001759719247426258</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.16031044997295</v>
+        <v>0.3583029795616</v>
       </c>
       <c r="CO6">
-        <v>0.1986891569028402</v>
+        <v>0.3816480837714828</v>
       </c>
       <c r="CP6">
-        <v>0.4000696816318637</v>
+        <v>0.8593314011857709</v>
       </c>
       <c r="CQ6">
-        <v>0.4042258657740639</v>
+        <v>0.8593314011857709</v>
       </c>
       <c r="CR6">
-        <v>0.4350791182895106</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CS6">
-        <v>0.4352432645371182</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CT6">
-        <v>0.4454046718263162</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CU6">
-        <v>0.449654949301994</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CV6">
-        <v>0.4517688884527239</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CW6">
-        <v>0.4702522635610012</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CX6">
-        <v>0.4840139777678469</v>
+        <v>0.8617006564243076</v>
       </c>
       <c r="CY6">
-        <v>0.5486941342144267</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="CZ6">
-        <v>0.5509768147832858</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DA6">
-        <v>0.5509809448669449</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DB6">
-        <v>0.5545668185545273</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DC6">
-        <v>0.5675453501040923</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DD6">
-        <v>0.576212487528789</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DE6">
-        <v>0.5783331053549401</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DF6">
-        <v>0.5882213378371874</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DG6">
-        <v>0.5955601417478317</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DH6">
-        <v>0.6198511881085851</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DI6">
-        <v>0.6200794700029048</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="DJ6">
-        <v>0.6650231144455064</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6745396872116907</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.686969869885297</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6880518501698922</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7025540414362943</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7088657441175285</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.724016003330772</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7243013063292504</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7250431596710057</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7447023679040327</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7447798662640899</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7544499571529784</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7544591197802886</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7819284987475373</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7854016273568262</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7854085137907797</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.791503044605764</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8008729461467152</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8056708519038984</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8104486729284339</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8136980054031833</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8167942736147189</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8168245258058872</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8267243078020108</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8278451953864605</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8351130059915108</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8379820117141475</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8499176285615192</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8500380436609765</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.863484915599223</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8664580596720085</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8666366705756007</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8849286896014852</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8955557909324893</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.9011568214609067</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.9060091668538773</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.9068881153256594</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.9075444895230598</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.9167159680553062</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.9174943412439758</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.9258439040419237</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.9259146263437952</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9347965549226849</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9383074207784611</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9396604750946436</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9397495033110005</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9424566360157978</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9430358135944923</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9456540047410916</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.946508166063847</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9500162459544471</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9539928927634215</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9559253772296048</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9563740421010773</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9567922444996184</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9582287770578835</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9584479286854346</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9603133685636104</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9605183896989782</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9628033178624453</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9631891309354889</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9669669736858116</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9670450840600899</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.970490895488723</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9706043854464531</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9711062187870922</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9711083948153196</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9737743323203712</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9741002510226368</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.974206232856224</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.975672628228819</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9785681270240897</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9790927383003937</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9790927383003937</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9795943244386303</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9796037623015176</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9863612130100929</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9902342068325385</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9902659291924122</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9904406746593343</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9937722278113283</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9939769909328764</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9949728912343605</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9973460751661343</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9973524126166287</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9976971532860223</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9996921823503676</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5545197266729728</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.001758159633134246</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5499402023523439</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001160616821685721</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5499378498554195</v>
+        <v>0.8724559046364413</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.001402136272764973</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5154242012053895</v>
+        <v>0.5299861302999301</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.001680154206474571</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5486941342144267</v>
+        <v>0.8593314011857709</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7077190091188985</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.001758159633134246</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7096536407308315</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001160616821685721</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7133231630539013</v>
+        <v>0.8724559046364413</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001402136272764973</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7041974189184812</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.001680154206474571</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7025540414362943</v>
+        <v>0.8593314011857709</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8090003253567281</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.001758159633134246</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8036694412891648</v>
+        <v>0.8882208249902201</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001160616821685721</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8073148743167219</v>
+        <v>0.8724559046364413</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001402136272764973</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028599242219876</v>
+        <v>0.8923354069606395</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.001680154206474571</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8008729461467152</v>
+        <v>0.8593314011857709</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008230515639652602</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9070314063476783</v>
+        <v>0.921625800950711</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.001758159633134246</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9086238891634102</v>
+        <v>0.9886348773337604</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.001160616821685721</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9036529693855588</v>
+        <v>0.9751125756430055</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.001402136272764973</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9026458963205095</v>
+        <v>0.971644178414604</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.001680154206474571</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9011568214609067</v>
+        <v>0.9583563147092637</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>62</v>

--- a/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/62_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ100</t>
+    <t>710R</t>
   </si>
   <si>
     <t>100%</t>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2818934829822949</v>
+        <v>0.2286418605659838</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5856370774864473</v>
+        <v>0.4476256877643685</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0007379717655719204</v>
+        <v>0.02594290329360358</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01534085053127212</v>
       </c>
       <c r="N2">
-        <v>0.006014704871686027</v>
+        <v>0.02974716198938816</v>
       </c>
       <c r="O2">
-        <v>0.07509792589205459</v>
+        <v>0.07955268351463433</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02989377366787797</v>
+        <v>0.04696276741955353</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.001844424448398699</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.008145657074384242</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.00643459217422004</v>
+        <v>0.03004987957805371</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01429047115984719</v>
+        <v>0.035713572500001</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.00495476557886092</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02034017435382522</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02513761138767244</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2468046539492108</v>
+        <v>0.2030359476101878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6136959096664825</v>
+        <v>0.4671898946942191</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0009979513723979152</v>
       </c>
       <c r="H3">
-        <v>0.001052345945829499</v>
+        <v>0.02609948168871957</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01521711615217846</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1106291607975814</v>
+        <v>0.1049924716440094</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.008126883096635232</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.02376309779150702</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01217228462583452</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01152589977333775</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02781792964089589</v>
+        <v>0.04537013605533151</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.01533219932413948</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01676121160870259</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.02418365173443643</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02523177282836344</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,22 +882,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1300487359203457</v>
+        <v>0.1152529212304223</v>
       </c>
       <c r="E4">
-        <v>0.02654668957846234</v>
+        <v>0.04413316267050671</v>
       </c>
       <c r="F4">
-        <v>0.6353119899170045</v>
+        <v>0.4624364012047548</v>
       </c>
       <c r="G4">
-        <v>0.03676410281459709</v>
+        <v>0.05115389306322299</v>
       </c>
       <c r="H4">
-        <v>0.01942100843987199</v>
+        <v>0.03923686602650097</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005497491812740805</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.08299191643205438</v>
+        <v>0.08291858815308162</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.004449977888918484</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001401171764439915</v>
       </c>
       <c r="T4">
-        <v>0.02412399380780838</v>
+        <v>0.0424684464222511</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01305821558031713</v>
+        <v>0.03486477573522739</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.004394526785374482</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.003681724392147476</v>
       </c>
       <c r="Z4">
-        <v>0.03173334750953831</v>
+        <v>0.04769709085191239</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01538347037523616</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.0179976978033023</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.01205174607016898</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01498004774979135</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,40 +989,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3781942494517186</v>
+        <v>0.2818162333898037</v>
       </c>
       <c r="E5">
-        <v>0.1394486981032197</v>
+        <v>0.1201554016982328</v>
       </c>
       <c r="F5">
-        <v>0.3474865060362701</v>
+        <v>0.261023220444124</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02075029777593906</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.008593943463216383</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01089467913624654</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01866724908379461</v>
       </c>
       <c r="N5">
-        <v>0.001847667195997936</v>
+        <v>0.02698215942236624</v>
       </c>
       <c r="O5">
-        <v>0.08971357983798901</v>
+        <v>0.08647845761436396</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01517961559298407</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1043,37 +1043,37 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.005712868888609325</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.02458992941514733</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04330929937480453</v>
+        <v>0.05505691056833358</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.002399732318684702</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.01356999317160426</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.006842634444460041</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.001983927539412212</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01747978806359695</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.02182295796908004</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3347476505655756</v>
+        <v>0.2630237311841145</v>
       </c>
       <c r="E6">
-        <v>0.03952843142533206</v>
+        <v>0.05386727994944034</v>
       </c>
       <c r="F6">
-        <v>0.4399649710556888</v>
+        <v>0.3375679340521504</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02104111045214351</v>
+        <v>0.04076941166413879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004755764058608988</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01923994433078173</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01102200968272733</v>
       </c>
       <c r="O6">
-        <v>0.1041415846645451</v>
+        <v>0.09964430582855854</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1141,46 +1141,46 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.009658899533697004</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.002155024117859209</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.00428031002709753</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.004920142229785878</v>
+        <v>0.02934805327942772</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.05565610960692905</v>
+        <v>0.06529339219559213</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.00363344543396361</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.008704511804244201</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01231079178945854</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01343873810873514</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.02128645295940439</v>
       </c>
     </row>
   </sheetData>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2818934829822949</v>
+        <v>0.2286418605659838</v>
       </c>
       <c r="E2">
-        <v>0.2818934829822949</v>
+        <v>0.2286418605659838</v>
       </c>
       <c r="F2">
-        <v>0.8675305604687422</v>
+        <v>0.6762675483303523</v>
       </c>
       <c r="G2">
-        <v>0.8675305604687422</v>
+        <v>0.6762675483303523</v>
       </c>
       <c r="H2">
-        <v>0.8682685322343141</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="I2">
-        <v>0.8682685322343141</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="J2">
-        <v>0.8682685322343141</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="K2">
-        <v>0.8682685322343141</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="L2">
-        <v>0.8682685322343141</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="M2">
-        <v>0.8682685322343141</v>
+        <v>0.717551302155228</v>
       </c>
       <c r="N2">
-        <v>0.8742832371060001</v>
+        <v>0.7472984641446162</v>
       </c>
       <c r="O2">
-        <v>0.9493811629980546</v>
+        <v>0.8268511476592505</v>
       </c>
       <c r="P2">
-        <v>0.9493811629980546</v>
+        <v>0.8268511476592505</v>
       </c>
       <c r="Q2">
-        <v>0.9493811629980546</v>
+        <v>0.8268511476592505</v>
       </c>
       <c r="R2">
-        <v>0.9493811629980546</v>
+        <v>0.8268511476592505</v>
       </c>
       <c r="S2">
-        <v>0.9792749366659326</v>
+        <v>0.873813915078804</v>
       </c>
       <c r="T2">
-        <v>0.9792749366659326</v>
+        <v>0.8756583395272027</v>
       </c>
       <c r="U2">
-        <v>0.9792749366659326</v>
+        <v>0.8756583395272027</v>
       </c>
       <c r="V2">
-        <v>0.9792749366659326</v>
+        <v>0.8838039966015869</v>
       </c>
       <c r="W2">
-        <v>0.9792749366659326</v>
+        <v>0.8838039966015869</v>
       </c>
       <c r="X2">
-        <v>0.9857095288401526</v>
+        <v>0.9138538761796406</v>
       </c>
       <c r="Y2">
-        <v>0.9857095288401526</v>
+        <v>0.9138538761796406</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>0.9495674486796416</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999998</v>
+        <v>0.9495674486796416</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999998</v>
+        <v>0.9495674486796416</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>0.9495674486796416</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>0.9545222142585025</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>0.9545222142585025</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>0.9748623886123277</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>0.9748623886123277</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>0.9748623886123277</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,97 +1430,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2468046539492108</v>
+        <v>0.2030359476101878</v>
       </c>
       <c r="E3">
-        <v>0.2468046539492108</v>
+        <v>0.2030359476101878</v>
       </c>
       <c r="F3">
-        <v>0.8605005636156933</v>
+        <v>0.670225842304407</v>
       </c>
       <c r="G3">
-        <v>0.8605005636156933</v>
+        <v>0.6712237936768048</v>
       </c>
       <c r="H3">
-        <v>0.8615529095615228</v>
+        <v>0.6973232753655244</v>
       </c>
       <c r="I3">
-        <v>0.8615529095615228</v>
+        <v>0.6973232753655244</v>
       </c>
       <c r="J3">
-        <v>0.8615529095615228</v>
+        <v>0.6973232753655244</v>
       </c>
       <c r="K3">
-        <v>0.8615529095615228</v>
+        <v>0.6973232753655244</v>
       </c>
       <c r="L3">
-        <v>0.8615529095615228</v>
+        <v>0.6973232753655244</v>
       </c>
       <c r="M3">
-        <v>0.8615529095615228</v>
+        <v>0.7125403915177029</v>
       </c>
       <c r="N3">
-        <v>0.8615529095615228</v>
+        <v>0.7125403915177029</v>
       </c>
       <c r="O3">
-        <v>0.9721820703591042</v>
+        <v>0.8175328631617123</v>
       </c>
       <c r="P3">
-        <v>0.9721820703591042</v>
+        <v>0.8175328631617123</v>
       </c>
       <c r="Q3">
-        <v>0.9721820703591042</v>
+        <v>0.8175328631617123</v>
       </c>
       <c r="R3">
-        <v>0.9721820703591042</v>
+        <v>0.8175328631617123</v>
       </c>
       <c r="S3">
-        <v>0.9721820703591042</v>
+        <v>0.8256597462583475</v>
       </c>
       <c r="T3">
-        <v>0.9721820703591042</v>
+        <v>0.8494228440498545</v>
       </c>
       <c r="U3">
-        <v>0.9721820703591042</v>
+        <v>0.8494228440498545</v>
       </c>
       <c r="V3">
-        <v>0.9721820703591042</v>
+        <v>0.8494228440498545</v>
       </c>
       <c r="W3">
-        <v>0.9721820703591042</v>
+        <v>0.861595128675689</v>
       </c>
       <c r="X3">
-        <v>0.9721820703591042</v>
+        <v>0.8731210284490267</v>
       </c>
       <c r="Y3">
-        <v>0.9721820703591042</v>
+        <v>0.8731210284490267</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9184911645043582</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9338233638284976</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9338233638284976</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9338233638284976</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9505845754372002</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9505845754372002</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9747682271716367</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9747682271716367</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9747682271716367</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1300487359203457</v>
+        <v>0.1152529212304223</v>
       </c>
       <c r="E4">
-        <v>0.156595425498808</v>
+        <v>0.159386083900929</v>
       </c>
       <c r="F4">
-        <v>0.7919074154158126</v>
+        <v>0.6218224851056837</v>
       </c>
       <c r="G4">
-        <v>0.8286715182304096</v>
+        <v>0.6729763781689067</v>
       </c>
       <c r="H4">
-        <v>0.8480925266702817</v>
+        <v>0.7122132441954077</v>
       </c>
       <c r="I4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="J4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="K4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="L4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="M4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="N4">
-        <v>0.8480925266702817</v>
+        <v>0.7177107360081485</v>
       </c>
       <c r="O4">
-        <v>0.9310844431023361</v>
+        <v>0.8006293241612301</v>
       </c>
       <c r="P4">
-        <v>0.9310844431023361</v>
+        <v>0.8006293241612301</v>
       </c>
       <c r="Q4">
-        <v>0.9310844431023361</v>
+        <v>0.8006293241612301</v>
       </c>
       <c r="R4">
-        <v>0.9310844431023361</v>
+        <v>0.8050793020501485</v>
       </c>
       <c r="S4">
-        <v>0.9310844431023361</v>
+        <v>0.8064804738145884</v>
       </c>
       <c r="T4">
-        <v>0.9552084369101445</v>
+        <v>0.8489489202368395</v>
       </c>
       <c r="U4">
-        <v>0.9552084369101445</v>
+        <v>0.8489489202368395</v>
       </c>
       <c r="V4">
-        <v>0.9552084369101445</v>
+        <v>0.8489489202368395</v>
       </c>
       <c r="W4">
-        <v>0.9682666524904616</v>
+        <v>0.8838136959720669</v>
       </c>
       <c r="X4">
-        <v>0.9682666524904616</v>
+        <v>0.8882082227574414</v>
       </c>
       <c r="Y4">
-        <v>0.9682666524904616</v>
+        <v>0.8918899471495888</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9395870380015012</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9549705083767374</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9549705083767374</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9549705083767374</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9729682061800397</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9729682061800397</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9850199522502087</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9850199522502087</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9850199522502087</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3781942494517186</v>
+        <v>0.2818162333898037</v>
       </c>
       <c r="E5">
-        <v>0.5176429475549383</v>
+        <v>0.4019716350880365</v>
       </c>
       <c r="F5">
-        <v>0.8651294535912084</v>
+        <v>0.6629948555321605</v>
       </c>
       <c r="G5">
-        <v>0.8651294535912084</v>
+        <v>0.6629948555321605</v>
       </c>
       <c r="H5">
-        <v>0.8651294535912084</v>
+        <v>0.6837451533080996</v>
       </c>
       <c r="I5">
-        <v>0.8651294535912084</v>
+        <v>0.6837451533080996</v>
       </c>
       <c r="J5">
-        <v>0.8651294535912084</v>
+        <v>0.692339096771316</v>
       </c>
       <c r="K5">
-        <v>0.8651294535912084</v>
+        <v>0.7032337759075625</v>
       </c>
       <c r="L5">
-        <v>0.8651294535912084</v>
+        <v>0.7032337759075625</v>
       </c>
       <c r="M5">
-        <v>0.8651294535912084</v>
+        <v>0.7219010249913571</v>
       </c>
       <c r="N5">
-        <v>0.8669771207872063</v>
+        <v>0.7488831844137234</v>
       </c>
       <c r="O5">
-        <v>0.9566907006251953</v>
+        <v>0.8353616420280874</v>
       </c>
       <c r="P5">
-        <v>0.9566907006251953</v>
+        <v>0.8353616420280874</v>
       </c>
       <c r="Q5">
-        <v>0.9566907006251953</v>
+        <v>0.8353616420280874</v>
       </c>
       <c r="R5">
-        <v>0.9566907006251953</v>
+        <v>0.8353616420280874</v>
       </c>
       <c r="S5">
-        <v>0.9566907006251953</v>
+        <v>0.8505412576210715</v>
       </c>
       <c r="T5">
-        <v>0.9566907006251953</v>
+        <v>0.8505412576210715</v>
       </c>
       <c r="U5">
-        <v>0.9566907006251953</v>
+        <v>0.8505412576210715</v>
       </c>
       <c r="V5">
-        <v>0.9566907006251953</v>
+        <v>0.8562541265096808</v>
       </c>
       <c r="W5">
-        <v>0.9566907006251953</v>
+        <v>0.8562541265096808</v>
       </c>
       <c r="X5">
-        <v>0.9566907006251953</v>
+        <v>0.8808440559248282</v>
       </c>
       <c r="Y5">
-        <v>0.9566907006251953</v>
+        <v>0.8808440559248282</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999999</v>
+        <v>0.9359009664931618</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999999</v>
+        <v>0.9383006988118465</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9518706919834508</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9518706919834508</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9587133264279109</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9606972539673231</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.97817704203092</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.97817704203092</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.97817704203092</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,97 +1751,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3347476505655756</v>
+        <v>0.2630237311841145</v>
       </c>
       <c r="E6">
-        <v>0.3742760819909077</v>
+        <v>0.3168910111335548</v>
       </c>
       <c r="F6">
-        <v>0.8142410530465964</v>
+        <v>0.6544589451857052</v>
       </c>
       <c r="G6">
-        <v>0.8142410530465964</v>
+        <v>0.6544589451857052</v>
       </c>
       <c r="H6">
-        <v>0.83528216349874</v>
+        <v>0.6952283568498441</v>
       </c>
       <c r="I6">
-        <v>0.83528216349874</v>
+        <v>0.6952283568498441</v>
       </c>
       <c r="J6">
-        <v>0.83528216349874</v>
+        <v>0.6999841209084531</v>
       </c>
       <c r="K6">
-        <v>0.83528216349874</v>
+        <v>0.6999841209084531</v>
       </c>
       <c r="L6">
-        <v>0.83528216349874</v>
+        <v>0.6999841209084531</v>
       </c>
       <c r="M6">
-        <v>0.83528216349874</v>
+        <v>0.7192240652392348</v>
       </c>
       <c r="N6">
-        <v>0.83528216349874</v>
+        <v>0.7302460749219621</v>
       </c>
       <c r="O6">
-        <v>0.9394237481632851</v>
+        <v>0.8298903807505207</v>
       </c>
       <c r="P6">
-        <v>0.9394237481632851</v>
+        <v>0.8298903807505207</v>
       </c>
       <c r="Q6">
-        <v>0.9394237481632851</v>
+        <v>0.8298903807505207</v>
       </c>
       <c r="R6">
-        <v>0.9394237481632851</v>
+        <v>0.8298903807505207</v>
       </c>
       <c r="S6">
-        <v>0.9394237481632851</v>
+        <v>0.8395492802842177</v>
       </c>
       <c r="T6">
-        <v>0.9394237481632851</v>
+        <v>0.8417043044020769</v>
       </c>
       <c r="U6">
-        <v>0.9394237481632851</v>
+        <v>0.8417043044020769</v>
       </c>
       <c r="V6">
-        <v>0.9394237481632851</v>
+        <v>0.8459846144291744</v>
       </c>
       <c r="W6">
-        <v>0.9394237481632851</v>
+        <v>0.8459846144291744</v>
       </c>
       <c r="X6">
-        <v>0.944343890393071</v>
+        <v>0.8753326677086021</v>
       </c>
       <c r="Y6">
-        <v>0.944343890393071</v>
+        <v>0.8753326677086021</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9406260599041942</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9442595053381578</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9529640171424021</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9529640171424021</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9652748089318607</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9652748089318607</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9787135470405959</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9787135470405959</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9787135470405959</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8675305604687422</v>
+        <v>0.6762675483303523</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8605005636156933</v>
+        <v>0.670225842304407</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7919074154158126</v>
+        <v>0.6218224851056837</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.6629948555321605</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5176429475549383</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8142410530465964</v>
+        <v>0.6544589451857052</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8675305604687422</v>
+        <v>0.7022104516239559</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8605005636156933</v>
+        <v>0.7125403915177029</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7919074154158126</v>
+        <v>0.7122132441954077</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8651294535912084</v>
+        <v>0.7032337759075625</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8142410530465964</v>
+        <v>0.7192240652392348</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8675305604687422</v>
+        <v>0.8268511476592505</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8605005636156933</v>
+        <v>0.8175328631617123</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8286715182304096</v>
+        <v>0.8006293241612301</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8651294535912084</v>
+        <v>0.8353616420280874</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8142410530465964</v>
+        <v>0.8298903807505207</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9493811629980546</v>
+        <v>0.9138538761796406</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>62</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9721820703591042</v>
+        <v>0.9184911645043582</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>62</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9310844431023361</v>
+        <v>0.9395870380015012</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>62</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9566907006251953</v>
+        <v>0.9359009664931618</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>62</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9394237481632851</v>
+        <v>0.9406260599041942</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>62</v>
